--- a/data/Crop height.xlsx
+++ b/data/Crop height.xlsx
@@ -12,12 +12,18 @@
     <sheet name="LIND" sheetId="3" r:id="rId3"/>
     <sheet name="MMTN" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">CFCT!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">CFNT!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">LIND!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">MMTN!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
   <si>
     <t>Year</t>
   </si>
@@ -88,7 +94,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -167,9 +173,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -186,22 +189,10 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -228,23 +219,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -259,18 +238,45 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -577,62 +583,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F57" sqref="F57"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="10.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="29">
         <v>2012</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="30">
         <v>41097</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -642,23 +652,23 @@
         <f>D2/39.370079</f>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="30">
         <f>B2</f>
         <v>41097</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="28">
         <f>AVERAGE(E2:E33)</f>
         <v>0.92289311890890535</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="28">
         <f>STDEV(E2:E33)</f>
         <v>6.5757693703692735E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2">
         <v>38</v>
       </c>
@@ -666,14 +676,14 @@
         <f t="shared" ref="E3:E66" si="0">D3/39.370079</f>
         <v>0.96519999362968012</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2">
         <v>37.5</v>
       </c>
@@ -681,14 +691,14 @@
         <f t="shared" si="0"/>
         <v>0.95249999371350014</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2">
         <v>35.799999999999997</v>
       </c>
@@ -696,14 +706,14 @@
         <f t="shared" si="0"/>
         <v>0.90931999399848806</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2">
         <v>36.9</v>
       </c>
@@ -711,14 +721,14 @@
         <f t="shared" si="0"/>
         <v>0.93725999381408409</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29"/>
       <c r="D7" s="2">
         <v>41</v>
       </c>
@@ -726,14 +736,14 @@
         <f t="shared" si="0"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="3">
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29">
         <v>2</v>
       </c>
       <c r="D8" s="2">
@@ -743,14 +753,14 @@
         <f t="shared" si="0"/>
         <v>0.9016999940487801</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="2">
         <v>34.5</v>
       </c>
@@ -758,14 +768,14 @@
         <f t="shared" si="0"/>
         <v>0.87629999421642013</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="2">
         <v>35.5</v>
       </c>
@@ -773,14 +783,14 @@
         <f t="shared" si="0"/>
         <v>0.9016999940487801</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="2">
         <v>34</v>
       </c>
@@ -788,14 +798,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="2">
         <v>37</v>
       </c>
@@ -803,14 +813,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="2">
         <v>36</v>
       </c>
@@ -818,14 +828,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2">
         <v>33.5</v>
       </c>
@@ -833,14 +843,14 @@
         <f t="shared" si="0"/>
         <v>0.85089999438406005</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="2">
         <v>32</v>
       </c>
@@ -848,14 +858,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="2">
         <v>34</v>
       </c>
@@ -863,14 +873,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29">
         <v>3</v>
       </c>
       <c r="D17" s="2">
@@ -880,14 +890,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2">
         <v>33</v>
       </c>
@@ -895,14 +905,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="2">
         <v>35</v>
       </c>
@@ -910,14 +920,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="2">
         <v>33</v>
       </c>
@@ -925,14 +935,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2">
         <v>36.5</v>
       </c>
@@ -940,14 +950,14 @@
         <f t="shared" si="0"/>
         <v>0.92709999388114006</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="2">
         <v>39</v>
       </c>
@@ -955,14 +965,14 @@
         <f t="shared" si="0"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="2">
         <v>36</v>
       </c>
@@ -970,14 +980,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
       <c r="D24" s="2">
         <v>34</v>
       </c>
@@ -985,14 +995,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
       <c r="D25" s="2">
         <v>34</v>
       </c>
@@ -1000,14 +1010,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="3">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29">
         <v>4</v>
       </c>
       <c r="D26" s="2">
@@ -1017,14 +1027,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G26" s="3"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="2">
         <v>42</v>
       </c>
@@ -1032,14 +1042,14 @@
         <f t="shared" si="0"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="2">
         <v>36</v>
       </c>
@@ -1047,14 +1057,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="2">
         <v>40</v>
       </c>
@@ -1062,14 +1072,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="2">
         <v>41</v>
       </c>
@@ -1077,14 +1087,14 @@
         <f t="shared" si="0"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="2">
         <v>37</v>
       </c>
@@ -1092,14 +1102,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="2">
         <v>37</v>
       </c>
@@ -1107,14 +1117,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="2">
         <v>41</v>
       </c>
@@ -1122,151 +1132,151 @@
         <f t="shared" si="0"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15">
+      <c r="A34" s="31">
         <v>2013</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="32">
         <v>41470</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="11">
         <v>17</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="30">
         <f>B34</f>
         <v>41470</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="28">
         <f>AVERAGE(E34:E41)</f>
         <v>0.45402499700343507</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="28">
         <f>STDEV(E34:E41)</f>
         <v>6.1378119242125197E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="16">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="11">
         <v>16</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="11">
         <v>20</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="12">
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="16">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="11">
         <v>19</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="16">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="11">
         <v>15</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <f t="shared" si="0"/>
         <v>0.38099999748540003</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="16">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="11">
         <v>15</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <f t="shared" si="0"/>
         <v>0.38099999748540003</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="16">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="11">
         <v>20</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="12">
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="14"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="16">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="11">
         <v>21</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E41" s="12">
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="10">
+      <c r="A42" s="31"/>
+      <c r="B42" s="30">
         <v>41485</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
@@ -1276,23 +1286,23 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="30">
         <f>B42</f>
         <v>41485</v>
       </c>
-      <c r="H42" s="11">
+      <c r="H42" s="28">
         <f>AVERAGE(E42:E49)</f>
         <v>0.46989999689866002</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="28">
         <f>STDEV(E42:E49)</f>
         <v>4.2933835856845327E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="31"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="2">
         <v>18</v>
       </c>
@@ -1300,14 +1310,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2">
         <v>18</v>
       </c>
@@ -1315,14 +1325,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="15"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="2">
         <v>21</v>
       </c>
@@ -1330,14 +1340,14 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="15"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="3"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="29"/>
       <c r="D46" s="2">
         <v>20</v>
       </c>
@@ -1345,14 +1355,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="15"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="2">
         <v>16</v>
       </c>
@@ -1360,14 +1370,14 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="15"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="2">
         <v>18</v>
       </c>
@@ -1375,14 +1385,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="15"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="2">
         <v>20</v>
       </c>
@@ -1390,49 +1400,49 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="15"/>
-      <c r="B50" s="21">
+      <c r="A50" s="31"/>
+      <c r="B50" s="16">
         <v>41509</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D50" s="11">
         <v>19</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E50" s="12">
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="10">
         <f>B50</f>
         <v>41509</v>
       </c>
-      <c r="H50" s="12">
+      <c r="H50" s="9">
         <f>E50</f>
         <v>0.48259999681484006</v>
       </c>
-      <c r="I50" s="12" t="s">
+      <c r="I50" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="15"/>
-      <c r="B51" s="13">
+      <c r="A51" s="31"/>
+      <c r="B51" s="10">
         <v>41516</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D51" s="13">
         <f>25/2.54</f>
         <v>9.8425196850393704</v>
       </c>
@@ -1440,75 +1450,75 @@
         <f t="shared" si="0"/>
         <v>0.24999999835000003</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="10">
         <f>B51</f>
         <v>41516</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I51" s="12" t="s">
+      <c r="I51" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3">
+      <c r="A52" s="29">
         <v>2014</v>
       </c>
-      <c r="B52" s="14">
+      <c r="B52" s="32">
         <v>41772</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C52" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D52" s="11">
         <v>10</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E52" s="12">
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="F52" s="25" t="s">
+      <c r="F52" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="10">
+      <c r="G52" s="30">
         <f>B52</f>
         <v>41772</v>
       </c>
-      <c r="H52" s="11">
+      <c r="H52" s="28">
         <f>AVERAGE(E52:E53)</f>
         <v>0.30479999798832003</v>
       </c>
-      <c r="I52" s="11">
+      <c r="I52" s="28">
         <f>STDEV(E52:E53)</f>
         <v>7.1842048494395863E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="14"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="16">
+      <c r="A53" s="29"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="11">
         <v>14</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E53" s="12">
         <f t="shared" si="0"/>
         <v>0.35559999765304007</v>
       </c>
-      <c r="F53" s="24"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="10">
+      <c r="A54" s="29"/>
+      <c r="B54" s="30">
         <v>41801</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2">
@@ -1518,23 +1528,23 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="30">
         <f>B54</f>
         <v>41801</v>
       </c>
-      <c r="H54" s="11">
+      <c r="H54" s="28">
         <f>AVERAGE(E54:E57)</f>
         <v>0.88264999417451018</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="28">
         <f>STDEV(E54:E57)</f>
         <v>5.2363441099745597E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="3"/>
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="29"/>
       <c r="D55" s="2">
         <v>32</v>
       </c>
@@ -1542,14 +1552,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="2">
         <v>35</v>
       </c>
@@ -1557,14 +1567,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="2">
         <v>37</v>
       </c>
@@ -1572,74 +1582,74 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="14">
+      <c r="A58" s="29"/>
+      <c r="B58" s="32">
         <v>41815</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D58" s="11">
         <v>32</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E58" s="12">
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="30">
         <f>B58</f>
         <v>41815</v>
       </c>
-      <c r="H58" s="11">
+      <c r="H58" s="28">
         <f>AVERAGE(E58:E60)</f>
         <v>0.78739999480316014</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="28">
         <f>STDEV(E58:E60)</f>
         <v>2.5399999832360021E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="14"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="16">
+      <c r="A59" s="29"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="11">
         <v>31</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E59" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="14"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="16">
+      <c r="A60" s="29"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="31"/>
+      <c r="D60" s="11">
         <v>30</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E60" s="12">
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="10">
+      <c r="A61" s="29"/>
+      <c r="B61" s="30">
         <v>41836</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
@@ -1649,23 +1659,23 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="30">
         <f>B61</f>
         <v>41836</v>
       </c>
-      <c r="H61" s="11">
+      <c r="H61" s="28">
         <f>AVERAGE(E61:E64)</f>
         <v>0.8572499943421501</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="28">
         <f>STDEV(E61:E64)</f>
         <v>6.6800872806899461E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="2">
         <v>34</v>
       </c>
@@ -1673,14 +1683,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="2">
         <v>35</v>
       </c>
@@ -1688,14 +1698,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="3"/>
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="29"/>
       <c r="D64" s="2">
         <v>30</v>
       </c>
@@ -1703,97 +1713,97 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G64" s="3"/>
-      <c r="H64" s="11"/>
-      <c r="I64" s="11"/>
+      <c r="G64" s="29"/>
+      <c r="H64" s="28"/>
+      <c r="I64" s="28"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="14">
+      <c r="A65" s="29"/>
+      <c r="B65" s="32">
         <v>41853</v>
       </c>
-      <c r="C65" s="22">
+      <c r="C65" s="17">
         <v>1</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D65" s="11">
         <v>31</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G65" s="10">
+      <c r="G65" s="30">
         <f>B65</f>
         <v>41853</v>
       </c>
-      <c r="H65" s="11">
+      <c r="H65" s="28">
         <f>AVERAGE(E65:E68)</f>
         <v>0.80009999471934012</v>
       </c>
-      <c r="I65" s="11">
+      <c r="I65" s="28">
         <f>STDEV(E65:E68)</f>
         <v>6.7202082857506854E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="22">
+      <c r="A66" s="29"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="17">
         <v>2</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D66" s="11">
         <v>28</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="12">
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="22">
+      <c r="A67" s="29"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="17">
         <v>3</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D67" s="11">
         <v>34</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="12">
         <f t="shared" ref="E67:E87" si="1">D67/39.370079</f>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="22">
+      <c r="A68" s="29"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="17">
         <v>4</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D68" s="11">
         <v>33</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="12">
         <f t="shared" si="1"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="15">
+      <c r="A69" s="31">
         <v>2015</v>
       </c>
-      <c r="B69" s="10">
+      <c r="B69" s="30">
         <v>42198</v>
       </c>
-      <c r="C69" s="8">
+      <c r="C69" s="7">
         <v>1</v>
       </c>
       <c r="D69" s="2">
@@ -1803,23 +1813,23 @@
         <f t="shared" si="1"/>
         <v>1.2445999917856401</v>
       </c>
-      <c r="G69" s="10">
+      <c r="G69" s="30">
         <f>B69</f>
         <v>42198</v>
       </c>
-      <c r="H69" s="11">
+      <c r="H69" s="28">
         <f>AVERAGE(E69:E72)</f>
         <v>1.1556999923723801</v>
       </c>
-      <c r="I69" s="11">
+      <c r="I69" s="28">
         <f>STDEV(E69:E72)</f>
         <v>0.10265287718440642</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="8">
+      <c r="A70" s="31"/>
+      <c r="B70" s="30"/>
+      <c r="C70" s="7">
         <v>2</v>
       </c>
       <c r="D70" s="2">
@@ -1829,14 +1839,14 @@
         <f t="shared" si="1"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="8">
+      <c r="A71" s="31"/>
+      <c r="B71" s="30"/>
+      <c r="C71" s="7">
         <v>3</v>
       </c>
       <c r="D71" s="2">
@@ -1846,14 +1856,14 @@
         <f t="shared" si="1"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="8">
+      <c r="A72" s="31"/>
+      <c r="B72" s="30"/>
+      <c r="C72" s="7">
         <v>4</v>
       </c>
       <c r="D72" s="2">
@@ -1863,163 +1873,163 @@
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G72" s="3"/>
-      <c r="H72" s="11"/>
-      <c r="I72" s="11"/>
+      <c r="G72" s="29"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="28"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="14">
+      <c r="A73" s="31"/>
+      <c r="B73" s="32">
         <v>42212</v>
       </c>
-      <c r="C73" s="22">
+      <c r="C73" s="17">
         <v>1</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D73" s="11">
         <v>48</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E73" s="12">
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="30">
         <f>B73</f>
         <v>42212</v>
       </c>
-      <c r="H73" s="11">
+      <c r="H73" s="28">
         <f>AVERAGE(E73:E80)</f>
         <v>1.1429999924562</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="28">
         <f>STDEV(E73:E80)</f>
         <v>8.369345370609127E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="14"/>
-      <c r="C74" s="22">
+      <c r="A74" s="31"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="17">
         <v>1</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D74" s="11">
         <v>49</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E74" s="12">
         <f t="shared" si="1"/>
         <v>1.2445999917856401</v>
       </c>
-      <c r="G74" s="3"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="14"/>
-      <c r="C75" s="22">
+      <c r="A75" s="31"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="17">
         <v>2</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D75" s="11">
         <v>41</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E75" s="12">
         <f t="shared" si="1"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G75" s="3"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="14"/>
-      <c r="C76" s="22">
+      <c r="A76" s="31"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="17">
         <v>2</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D76" s="11">
         <v>42</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E76" s="12">
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="14"/>
-      <c r="C77" s="22">
+      <c r="A77" s="31"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="17">
         <v>3</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D77" s="11">
         <v>42</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E77" s="12">
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G77" s="3"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="14"/>
-      <c r="C78" s="22">
+      <c r="A78" s="31"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="17">
         <v>3</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D78" s="11">
         <v>43</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E78" s="12">
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G78" s="3"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="14"/>
-      <c r="C79" s="22">
+      <c r="A79" s="31"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="17">
         <v>4</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D79" s="11">
         <v>47</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E79" s="12">
         <f t="shared" si="1"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G79" s="3"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="14"/>
-      <c r="C80" s="22">
+      <c r="A80" s="31"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="17">
         <v>4</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="11">
         <v>48</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="12">
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G80" s="3"/>
-      <c r="H80" s="11"/>
-      <c r="I80" s="11"/>
+      <c r="G80" s="29"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="10">
+      <c r="A81" s="31"/>
+      <c r="B81" s="30">
         <v>42226</v>
       </c>
-      <c r="C81" s="8">
+      <c r="C81" s="7">
         <v>1</v>
       </c>
       <c r="D81" s="2">
@@ -2029,23 +2039,23 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="30">
         <f>B81</f>
         <v>42226</v>
       </c>
-      <c r="H81" s="11">
+      <c r="H81" s="28">
         <f>AVERAGE(E81:E87)</f>
         <v>1.1139714212192173</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="28">
         <f>STDEV(E81:E87)</f>
         <v>0.12903980843583099</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="15"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="8">
+      <c r="A82" s="31"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="7">
         <v>1</v>
       </c>
       <c r="D82" s="2">
@@ -2055,14 +2065,14 @@
         <f t="shared" si="1"/>
         <v>1.1683999922885602</v>
       </c>
-      <c r="G82" s="3"/>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11"/>
+      <c r="G82" s="29"/>
+      <c r="H82" s="28"/>
+      <c r="I82" s="28"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="15"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="8">
+      <c r="A83" s="31"/>
+      <c r="B83" s="30"/>
+      <c r="C83" s="7">
         <v>2</v>
       </c>
       <c r="D83" s="2">
@@ -2072,14 +2082,14 @@
         <f t="shared" si="1"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G83" s="3"/>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11"/>
+      <c r="G83" s="29"/>
+      <c r="H83" s="28"/>
+      <c r="I83" s="28"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="15"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="8">
+      <c r="A84" s="31"/>
+      <c r="B84" s="30"/>
+      <c r="C84" s="7">
         <v>3</v>
       </c>
       <c r="D84" s="2">
@@ -2089,14 +2099,14 @@
         <f t="shared" si="1"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G84" s="3"/>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="28"/>
+      <c r="I84" s="28"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="15"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="8">
+      <c r="A85" s="31"/>
+      <c r="B85" s="30"/>
+      <c r="C85" s="7">
         <v>3</v>
       </c>
       <c r="D85" s="2">
@@ -2106,14 +2116,14 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G85" s="3"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="G85" s="29"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="15"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="8">
+      <c r="A86" s="31"/>
+      <c r="B86" s="30"/>
+      <c r="C86" s="7">
         <v>4</v>
       </c>
       <c r="D86" s="2">
@@ -2123,14 +2133,14 @@
         <f t="shared" si="1"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G86" s="3"/>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11"/>
+      <c r="G86" s="29"/>
+      <c r="H86" s="28"/>
+      <c r="I86" s="28"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="15"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="8">
+      <c r="A87" s="31"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="7">
         <v>4</v>
       </c>
       <c r="D87" s="2">
@@ -2140,12 +2150,55 @@
         <f t="shared" si="1"/>
         <v>1.3207999912827202</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="59">
+    <mergeCell ref="H2:H33"/>
+    <mergeCell ref="I2:I33"/>
+    <mergeCell ref="G2:G33"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="C26:C33"/>
+    <mergeCell ref="A2:A33"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="H34:H41"/>
+    <mergeCell ref="I34:I41"/>
+    <mergeCell ref="G42:G49"/>
+    <mergeCell ref="H42:H49"/>
+    <mergeCell ref="I42:I49"/>
+    <mergeCell ref="A34:A51"/>
+    <mergeCell ref="B2:B33"/>
+    <mergeCell ref="B34:B41"/>
+    <mergeCell ref="C34:C41"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="G54:G57"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H54:H57"/>
     <mergeCell ref="H73:H80"/>
     <mergeCell ref="I73:I80"/>
     <mergeCell ref="A52:A68"/>
@@ -2162,57 +2215,22 @@
     <mergeCell ref="B73:B80"/>
     <mergeCell ref="G69:G72"/>
     <mergeCell ref="H69:H72"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="A2:A33"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="H34:H41"/>
-    <mergeCell ref="I34:I41"/>
-    <mergeCell ref="G42:G49"/>
-    <mergeCell ref="H42:H49"/>
-    <mergeCell ref="I42:I49"/>
-    <mergeCell ref="A34:A51"/>
-    <mergeCell ref="B2:B33"/>
-    <mergeCell ref="B34:B41"/>
-    <mergeCell ref="C34:C41"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="G34:G41"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="C26:C33"/>
-    <mergeCell ref="H2:H33"/>
-    <mergeCell ref="I2:I33"/>
-    <mergeCell ref="G2:G33"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="69" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F&amp;C&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2222,54 +2240,54 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="29">
         <v>2012</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="30">
         <v>41074</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="29">
         <v>2</v>
       </c>
       <c r="D2" s="2">
@@ -2279,23 +2297,23 @@
         <f>D2/39.370079</f>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="30">
         <f>B2</f>
         <v>41074</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="28">
         <f>AVERAGE(E2:E23)</f>
         <v>0.52878181469185825</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="28">
         <f>STDEV(E2:E23)</f>
         <v>5.9250956091989611E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2">
         <v>23.5</v>
       </c>
@@ -2303,14 +2321,14 @@
         <f t="shared" ref="E3:E97" si="0">D3/39.370079</f>
         <v>0.59689999606046007</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2">
         <v>24</v>
       </c>
@@ -2318,14 +2336,14 @@
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2">
         <v>22.5</v>
       </c>
@@ -2333,14 +2351,14 @@
         <f t="shared" si="0"/>
         <v>0.5714999962281001</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2">
         <v>20</v>
       </c>
@@ -2348,14 +2366,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29">
         <v>1</v>
       </c>
       <c r="D7" s="2">
@@ -2365,14 +2383,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="2">
         <v>19.5</v>
       </c>
@@ -2380,14 +2398,14 @@
         <f t="shared" si="0"/>
         <v>0.49529999673102004</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="2">
         <v>17</v>
       </c>
@@ -2395,14 +2413,14 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="2">
         <v>16</v>
       </c>
@@ -2410,14 +2428,14 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="2">
         <v>18.5</v>
       </c>
@@ -2425,14 +2443,14 @@
         <f t="shared" si="0"/>
         <v>0.46989999689866008</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
       <c r="D12" s="2">
         <v>18</v>
       </c>
@@ -2440,14 +2458,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="2">
         <v>19</v>
       </c>
@@ -2455,14 +2473,14 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3">
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29">
         <v>3</v>
       </c>
       <c r="D14" s="2">
@@ -2472,14 +2490,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="2">
         <v>22</v>
       </c>
@@ -2487,14 +2505,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="2">
         <v>22</v>
       </c>
@@ -2502,14 +2520,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
       <c r="D17" s="2">
         <v>22</v>
       </c>
@@ -2517,14 +2535,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2">
         <v>23</v>
       </c>
@@ -2532,14 +2550,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="2">
         <v>24</v>
       </c>
@@ -2547,14 +2565,14 @@
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="3">
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29">
         <v>4</v>
       </c>
       <c r="D20" s="2">
@@ -2564,14 +2582,14 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2">
         <v>21</v>
       </c>
@@ -2579,14 +2597,14 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
       <c r="D22" s="2">
         <v>23</v>
       </c>
@@ -2594,14 +2612,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
       <c r="D23" s="2">
         <v>23</v>
       </c>
@@ -2609,59 +2627,59 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="14">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32">
         <v>41088</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="11">
         <v>29</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="30">
         <f>B24</f>
         <v>41088</v>
       </c>
-      <c r="H24" s="11">
+      <c r="H24" s="28">
         <f>AVERAGE(E24:E25)</f>
         <v>0.80009999471934012</v>
       </c>
-      <c r="I24" s="11">
+      <c r="I24" s="28">
         <f>STDEV(E24:E25)</f>
         <v>8.9802560617994659E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="11">
         <v>34</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="10">
+      <c r="A26" s="29"/>
+      <c r="B26" s="30">
         <v>41097</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="29">
         <v>2</v>
       </c>
       <c r="D26" s="2">
@@ -2671,23 +2689,23 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="30">
         <f>B26</f>
         <v>41097</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="28">
         <f>AVERAGE(E26:E63)</f>
         <v>0.79979920524764136</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="28">
         <f>STDEV(E26:E63)</f>
         <v>6.3914270639532325E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="3"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
       <c r="D27" s="2">
         <v>35</v>
       </c>
@@ -2695,14 +2713,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
       <c r="D28" s="2">
         <v>30</v>
       </c>
@@ -2710,14 +2728,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="3"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
       <c r="D29" s="2">
         <v>33</v>
       </c>
@@ -2725,14 +2743,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="3"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="2">
         <v>33</v>
       </c>
@@ -2740,14 +2758,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="2">
         <v>36</v>
       </c>
@@ -2755,14 +2773,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="2">
         <v>35</v>
       </c>
@@ -2770,14 +2788,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="2">
         <v>34</v>
       </c>
@@ -2785,14 +2803,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="2">
         <v>32</v>
       </c>
@@ -2800,14 +2818,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
@@ -2815,14 +2833,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -2830,14 +2848,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="2">
         <v>33</v>
       </c>
@@ -2845,14 +2863,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="3"/>
+      <c r="A38" s="29"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="29"/>
       <c r="D38" s="2">
         <v>34</v>
       </c>
@@ -2860,14 +2878,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="29">
         <v>1</v>
       </c>
       <c r="D39" s="2">
@@ -2877,14 +2895,14 @@
         <f t="shared" si="0"/>
         <v>0.76834999492889011</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="3"/>
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="29"/>
       <c r="D40" s="2">
         <v>34.5</v>
       </c>
@@ -2892,14 +2910,14 @@
         <f t="shared" si="0"/>
         <v>0.87629999421642013</v>
       </c>
-      <c r="G40" s="3"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="3"/>
+      <c r="A41" s="29"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="2">
         <v>31.6</v>
       </c>
@@ -2907,14 +2925,14 @@
         <f t="shared" si="0"/>
         <v>0.80263999470257619</v>
       </c>
-      <c r="G41" s="3"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="3"/>
+      <c r="A42" s="29"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="29"/>
       <c r="D42" s="2">
         <v>28.8</v>
       </c>
@@ -2922,14 +2940,14 @@
         <f t="shared" si="0"/>
         <v>0.73151999517196808</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="3"/>
+      <c r="A43" s="29"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="29"/>
       <c r="D43" s="2">
         <v>30.8</v>
       </c>
@@ -2937,14 +2955,14 @@
         <f t="shared" si="0"/>
         <v>0.78231999483668813</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="3"/>
+      <c r="A44" s="29"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="29"/>
       <c r="D44" s="2">
         <v>29.5</v>
       </c>
@@ -2952,14 +2970,14 @@
         <f t="shared" si="0"/>
         <v>0.74929999505462008</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="3"/>
+      <c r="A45" s="29"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="29"/>
       <c r="D45" s="2">
         <v>30</v>
       </c>
@@ -2967,14 +2985,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="3">
+      <c r="A46" s="29"/>
+      <c r="B46" s="30"/>
+      <c r="C46" s="29">
         <v>3</v>
       </c>
       <c r="D46" s="2">
@@ -2984,14 +3002,14 @@
         <f t="shared" si="0"/>
         <v>0.72389999522226012</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="3"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="3"/>
+      <c r="A47" s="29"/>
+      <c r="B47" s="30"/>
+      <c r="C47" s="29"/>
       <c r="D47" s="2">
         <v>31</v>
       </c>
@@ -2999,14 +3017,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="3"/>
+      <c r="A48" s="29"/>
+      <c r="B48" s="30"/>
+      <c r="C48" s="29"/>
       <c r="D48" s="2">
         <v>28</v>
       </c>
@@ -3014,14 +3032,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G48" s="3"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="3"/>
+      <c r="A49" s="29"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="29"/>
       <c r="D49" s="2">
         <v>27.8</v>
       </c>
@@ -3029,14 +3047,14 @@
         <f t="shared" si="0"/>
         <v>0.70611999533960812</v>
       </c>
-      <c r="G49" s="3"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11"/>
+      <c r="G49" s="29"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="3"/>
+      <c r="A50" s="29"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="29"/>
       <c r="D50" s="2">
         <v>30</v>
       </c>
@@ -3044,14 +3062,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G50" s="3"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="11"/>
+      <c r="G50" s="29"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="3"/>
+      <c r="A51" s="29"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="29"/>
       <c r="D51" s="2">
         <v>27.5</v>
       </c>
@@ -3059,14 +3077,14 @@
         <f t="shared" si="0"/>
         <v>0.69849999538990004</v>
       </c>
-      <c r="G51" s="3"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11"/>
+      <c r="G51" s="29"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="3"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="29"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="29"/>
       <c r="D52" s="2">
         <v>29</v>
       </c>
@@ -3074,14 +3092,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G52" s="3"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11"/>
+      <c r="G52" s="29"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="3"/>
+      <c r="A53" s="29"/>
+      <c r="B53" s="30"/>
+      <c r="C53" s="29"/>
       <c r="D53" s="2">
         <v>30</v>
       </c>
@@ -3089,14 +3107,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G53" s="3"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="3"/>
+      <c r="A54" s="29"/>
+      <c r="B54" s="30"/>
+      <c r="C54" s="29"/>
       <c r="D54" s="2">
         <v>28.3</v>
       </c>
@@ -3104,14 +3122,14 @@
         <f t="shared" si="0"/>
         <v>0.7188199952557881</v>
       </c>
-      <c r="G54" s="3"/>
-      <c r="H54" s="11"/>
-      <c r="I54" s="11"/>
+      <c r="G54" s="29"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="29">
         <v>4</v>
       </c>
       <c r="D55" s="2">
@@ -3121,14 +3139,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G55" s="3"/>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="3"/>
+      <c r="A56" s="29"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="29"/>
       <c r="D56" s="2">
         <v>34</v>
       </c>
@@ -3136,14 +3154,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G56" s="3"/>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11"/>
+      <c r="G56" s="29"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="3"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="3"/>
+      <c r="A57" s="29"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="29"/>
       <c r="D57" s="2">
         <v>35</v>
       </c>
@@ -3151,14 +3169,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G57" s="3"/>
-      <c r="H57" s="11"/>
-      <c r="I57" s="11"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="28"/>
+      <c r="I57" s="28"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="29"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="29"/>
       <c r="D58" s="2">
         <v>35</v>
       </c>
@@ -3166,14 +3184,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G58" s="3"/>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11"/>
+      <c r="G58" s="29"/>
+      <c r="H58" s="28"/>
+      <c r="I58" s="28"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="3"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="29"/>
       <c r="D59" s="2">
         <v>30</v>
       </c>
@@ -3181,14 +3199,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G59" s="3"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
+      <c r="G59" s="29"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="28"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="3"/>
+      <c r="A60" s="29"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="29"/>
       <c r="D60" s="2">
         <v>31</v>
       </c>
@@ -3196,14 +3214,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G60" s="3"/>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="28"/>
+      <c r="I60" s="28"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="3"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="2">
         <v>30</v>
       </c>
@@ -3211,14 +3229,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G61" s="3"/>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11"/>
+      <c r="G61" s="29"/>
+      <c r="H61" s="28"/>
+      <c r="I61" s="28"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="3"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="2">
         <v>30</v>
       </c>
@@ -3226,14 +3244,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="11"/>
-      <c r="I62" s="11"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="28"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="3"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="2">
         <v>33</v>
       </c>
@@ -3241,151 +3259,151 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G63" s="3"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
+      <c r="G63" s="29"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="15">
+      <c r="A64" s="31">
         <v>2013</v>
       </c>
-      <c r="B64" s="14">
+      <c r="B64" s="32">
         <v>41470</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D64" s="11">
         <v>36</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E64" s="12">
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G64" s="10">
+      <c r="G64" s="30">
         <f>B64</f>
         <v>41470</v>
       </c>
-      <c r="H64" s="11">
+      <c r="H64" s="28">
         <f>AVERAGE(E64:E71)</f>
         <v>0.75882499499175526</v>
       </c>
-      <c r="I64" s="11">
+      <c r="I64" s="28">
         <f>STDEV(E64:E71)</f>
         <v>0.17672763229416114</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="15"/>
-      <c r="B65" s="14"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="16">
+      <c r="A65" s="31"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="31"/>
+      <c r="D65" s="11">
         <v>32</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E65" s="12">
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G65" s="3"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11"/>
+      <c r="G65" s="29"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="28"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="15"/>
-      <c r="B66" s="14"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="16">
+      <c r="A66" s="31"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="31"/>
+      <c r="D66" s="11">
         <v>39</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E66" s="12">
         <f t="shared" si="0"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G66" s="3"/>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="28"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="15"/>
-      <c r="B67" s="14"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="16">
+      <c r="A67" s="31"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="31"/>
+      <c r="D67" s="11">
         <v>34</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E67" s="12">
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G67" s="3"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
+      <c r="G67" s="29"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="28"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="15"/>
-      <c r="B68" s="14"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="16">
+      <c r="A68" s="31"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="31"/>
+      <c r="D68" s="11">
         <v>22</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E68" s="12">
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11"/>
+      <c r="G68" s="29"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="28"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="15"/>
-      <c r="B69" s="14"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="16">
+      <c r="A69" s="31"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="31"/>
+      <c r="D69" s="11">
         <v>26</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E69" s="12">
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G69" s="3"/>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11"/>
+      <c r="G69" s="29"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="28"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="15"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="16">
+      <c r="A70" s="31"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="31"/>
+      <c r="D70" s="11">
         <v>31</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E70" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G70" s="3"/>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11"/>
+      <c r="G70" s="29"/>
+      <c r="H70" s="28"/>
+      <c r="I70" s="28"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="15"/>
-      <c r="B71" s="14"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="16">
+      <c r="A71" s="31"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="31"/>
+      <c r="D71" s="11">
         <v>19</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E71" s="12">
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G71" s="3"/>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="28"/>
+      <c r="I71" s="28"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="15"/>
-      <c r="B72" s="10">
+      <c r="A72" s="31"/>
+      <c r="B72" s="30">
         <v>41485</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
@@ -3395,26 +3413,26 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="F72" s="26" t="s">
+      <c r="F72" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="30">
         <f>B72</f>
         <v>41485</v>
       </c>
-      <c r="H72" s="11">
+      <c r="H72" s="28">
         <f>AVERAGE(E72:E79)</f>
         <v>0.64134999576709006</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="28">
         <f>STDEV(E72:E79)</f>
         <v>0.215846630634911</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="15"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="3"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="30"/>
+      <c r="C73" s="29"/>
       <c r="D73" s="2">
         <v>19</v>
       </c>
@@ -3422,15 +3440,15 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="F73" s="26"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11"/>
+      <c r="F73" s="36"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="28"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="15"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="3"/>
+      <c r="A74" s="31"/>
+      <c r="B74" s="30"/>
+      <c r="C74" s="29"/>
       <c r="D74" s="2">
         <v>17</v>
       </c>
@@ -3438,15 +3456,15 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="F74" s="26"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11"/>
+      <c r="F74" s="36"/>
+      <c r="G74" s="29"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="28"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="15"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="3"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="30"/>
+      <c r="C75" s="29"/>
       <c r="D75" s="2">
         <v>18</v>
       </c>
@@ -3454,15 +3472,15 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="F75" s="26"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="11"/>
-      <c r="I75" s="11"/>
+      <c r="F75" s="36"/>
+      <c r="G75" s="29"/>
+      <c r="H75" s="28"/>
+      <c r="I75" s="28"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="15"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="3"/>
+      <c r="A76" s="31"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="29"/>
       <c r="D76" s="2">
         <v>34</v>
       </c>
@@ -3470,17 +3488,17 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="F76" s="26" t="s">
+      <c r="F76" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="3"/>
-      <c r="H76" s="11"/>
-      <c r="I76" s="11"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="28"/>
+      <c r="I76" s="28"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="15"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="3"/>
+      <c r="A77" s="31"/>
+      <c r="B77" s="30"/>
+      <c r="C77" s="29"/>
       <c r="D77" s="2">
         <v>32</v>
       </c>
@@ -3488,15 +3506,15 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="F77" s="26"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="29"/>
+      <c r="H77" s="28"/>
+      <c r="I77" s="28"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="15"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="3"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="30"/>
+      <c r="C78" s="29"/>
       <c r="D78" s="2">
         <v>36</v>
       </c>
@@ -3504,15 +3522,15 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="F78" s="26"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="28"/>
+      <c r="I78" s="28"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="15"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="3"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="30"/>
+      <c r="C79" s="29"/>
       <c r="D79" s="2">
         <v>30</v>
       </c>
@@ -3520,50 +3538,50 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="F79" s="26"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11"/>
+      <c r="F79" s="36"/>
+      <c r="G79" s="29"/>
+      <c r="H79" s="28"/>
+      <c r="I79" s="28"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="15"/>
-      <c r="B80" s="21">
+      <c r="A80" s="31"/>
+      <c r="B80" s="16">
         <v>41508</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D80" s="11">
         <v>23</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E80" s="12">
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="F80" s="20" t="s">
+      <c r="F80" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="10">
         <f>B80</f>
         <v>41508</v>
       </c>
-      <c r="H80" s="12">
+      <c r="H80" s="9">
         <f>E80</f>
         <v>0.58419999614428009</v>
       </c>
-      <c r="I80" s="29" t="s">
+      <c r="I80" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="15"/>
-      <c r="B81" s="10">
+      <c r="A81" s="31"/>
+      <c r="B81" s="30">
         <v>41516</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="19">
         <f>25/2.54</f>
         <v>9.8425196850393704</v>
       </c>
@@ -3571,25 +3589,25 @@
         <f t="shared" si="0"/>
         <v>0.24999999835000003</v>
       </c>
-      <c r="F81" s="24" t="s">
+      <c r="F81" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="30">
         <f>B81</f>
         <v>41516</v>
       </c>
-      <c r="H81" s="30" t="s">
+      <c r="H81" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="30" t="s">
+      <c r="I81" s="35" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="22"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="27">
+      <c r="A82" s="17"/>
+      <c r="B82" s="30"/>
+      <c r="C82" s="29"/>
+      <c r="D82" s="19">
         <f>30/2.54</f>
         <v>11.811023622047244</v>
       </c>
@@ -3597,92 +3615,92 @@
         <f t="shared" si="0"/>
         <v>0.29999999802000005</v>
       </c>
-      <c r="F82" s="24"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="30"/>
-      <c r="I82" s="30"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
+      <c r="A83" s="29">
         <v>2014</v>
       </c>
-      <c r="B83" s="13">
+      <c r="B83" s="10">
         <v>41748</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="28">
+      <c r="D83" s="20">
         <v>7</v>
       </c>
       <c r="E83" s="1">
         <f t="shared" si="0"/>
         <v>0.17779999882652003</v>
       </c>
-      <c r="F83" s="23"/>
-      <c r="G83" s="13">
+      <c r="F83" s="18"/>
+      <c r="G83" s="10">
         <f>B83</f>
         <v>41748</v>
       </c>
-      <c r="H83" s="12">
+      <c r="H83" s="9">
         <f>AVERAGE(E83)</f>
         <v>0.17779999882652003</v>
       </c>
-      <c r="I83" s="29" t="s">
+      <c r="I83" s="21" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="14">
+      <c r="A84" s="29"/>
+      <c r="B84" s="32">
         <v>41772</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C84" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D84" s="11">
         <v>4</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E84" s="12">
         <f t="shared" si="0"/>
         <v>0.10159999932944001</v>
       </c>
-      <c r="F84" s="25"/>
-      <c r="G84" s="10">
+      <c r="F84" s="33"/>
+      <c r="G84" s="30">
         <f>B84</f>
         <v>41772</v>
       </c>
-      <c r="H84" s="11">
+      <c r="H84" s="28">
         <f>AVERAGE(E84:E85)</f>
         <v>0.12699999916180002</v>
       </c>
-      <c r="I84" s="11">
+      <c r="I84" s="28">
         <f>STDEV(E84:E85)</f>
         <v>3.5921024247197834E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16">
+      <c r="A85" s="29"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="31"/>
+      <c r="D85" s="11">
         <v>6</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E85" s="12">
         <f t="shared" si="0"/>
         <v>0.15239999899416001</v>
       </c>
-      <c r="F85" s="24"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="28"/>
+      <c r="I85" s="28"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="10">
+      <c r="A86" s="29"/>
+      <c r="B86" s="30">
         <v>41801</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
@@ -3692,23 +3710,23 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="30">
         <f>B86</f>
         <v>41801</v>
       </c>
-      <c r="H86" s="11">
+      <c r="H86" s="28">
         <f>AVERAGE(E86:E87)</f>
         <v>0.69849999538990004</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="28">
         <f>STDEV(E86:E87)</f>
         <v>1.796051212359898E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="3"/>
+      <c r="A87" s="29"/>
+      <c r="B87" s="30"/>
+      <c r="C87" s="29"/>
       <c r="D87" s="2">
         <v>28</v>
       </c>
@@ -3716,89 +3734,89 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G87" s="3"/>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11"/>
+      <c r="G87" s="29"/>
+      <c r="H87" s="28"/>
+      <c r="I87" s="28"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="14">
+      <c r="A88" s="29"/>
+      <c r="B88" s="32">
         <v>41815</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C88" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D88" s="11">
         <v>31</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E88" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="30">
         <f>B88</f>
         <v>41815</v>
       </c>
-      <c r="H88" s="11">
+      <c r="H88" s="28">
         <f>AVERAGE(E88:E91)</f>
         <v>0.83184999450979002</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I88" s="28">
         <f>STDEV(E88:E91)</f>
         <v>9.8100135268178221E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="14"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="16">
+      <c r="A89" s="29"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="31"/>
+      <c r="D89" s="11">
         <v>29</v>
       </c>
-      <c r="E89" s="17">
+      <c r="E89" s="12">
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G89" s="3"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="28"/>
+      <c r="I89" s="28"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="14"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="16">
+      <c r="A90" s="29"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="31"/>
+      <c r="D90" s="11">
         <v>38</v>
       </c>
-      <c r="E90" s="17">
+      <c r="E90" s="12">
         <f t="shared" si="0"/>
         <v>0.96519999362968012</v>
       </c>
-      <c r="G90" s="3"/>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11"/>
+      <c r="G90" s="29"/>
+      <c r="H90" s="28"/>
+      <c r="I90" s="28"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="14"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="16">
+      <c r="A91" s="29"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="31"/>
+      <c r="D91" s="11">
         <v>33</v>
       </c>
-      <c r="E91" s="17">
+      <c r="E91" s="12">
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G91" s="3"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="28"/>
+      <c r="I91" s="28"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="10">
+      <c r="A92" s="29"/>
+      <c r="B92" s="30">
         <v>41835</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2">
@@ -3808,23 +3826,23 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G92" s="10">
+      <c r="G92" s="30">
         <f>B92</f>
         <v>41835</v>
       </c>
-      <c r="H92" s="11">
+      <c r="H92" s="28">
         <f>AVERAGE(E92:E95)</f>
         <v>0.82549999455170009</v>
       </c>
-      <c r="I92" s="11">
+      <c r="I92" s="28">
         <f>STDEV(E92:E95)</f>
         <v>4.3994090221888514E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="3"/>
+      <c r="A93" s="29"/>
+      <c r="B93" s="30"/>
+      <c r="C93" s="29"/>
       <c r="D93" s="2">
         <v>34</v>
       </c>
@@ -3832,14 +3850,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G93" s="3"/>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="28"/>
+      <c r="I93" s="28"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="3"/>
+      <c r="A94" s="29"/>
+      <c r="B94" s="30"/>
+      <c r="C94" s="29"/>
       <c r="D94" s="2">
         <v>30</v>
       </c>
@@ -3847,14 +3865,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11"/>
+      <c r="G94" s="29"/>
+      <c r="H94" s="28"/>
+      <c r="I94" s="28"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="3"/>
+      <c r="A95" s="29"/>
+      <c r="B95" s="30"/>
+      <c r="C95" s="29"/>
       <c r="D95" s="2">
         <v>33</v>
       </c>
@@ -3862,97 +3880,97 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G95" s="3"/>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11"/>
+      <c r="G95" s="29"/>
+      <c r="H95" s="28"/>
+      <c r="I95" s="28"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="14">
+      <c r="A96" s="29"/>
+      <c r="B96" s="32">
         <v>41853</v>
       </c>
-      <c r="C96" s="22">
+      <c r="C96" s="17">
         <v>1</v>
       </c>
-      <c r="D96" s="16">
+      <c r="D96" s="11">
         <v>29</v>
       </c>
-      <c r="E96" s="17">
+      <c r="E96" s="12">
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G96" s="10">
+      <c r="G96" s="30">
         <f>B96</f>
         <v>41853</v>
       </c>
-      <c r="H96" s="11">
+      <c r="H96" s="28">
         <f>AVERAGE(E96:E99)</f>
         <v>0.74294999509653015</v>
       </c>
-      <c r="I96" s="11">
+      <c r="I96" s="28">
         <f>STDEV(E96:E99)</f>
         <v>2.4318648376507875E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="14"/>
-      <c r="C97" s="22">
+      <c r="A97" s="29"/>
+      <c r="B97" s="32"/>
+      <c r="C97" s="17">
         <v>2</v>
       </c>
-      <c r="D97" s="16">
+      <c r="D97" s="11">
         <v>30</v>
       </c>
-      <c r="E97" s="17">
+      <c r="E97" s="12">
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G97" s="3"/>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11"/>
+      <c r="G97" s="29"/>
+      <c r="H97" s="28"/>
+      <c r="I97" s="28"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="14"/>
-      <c r="C98" s="22">
+      <c r="A98" s="29"/>
+      <c r="B98" s="32"/>
+      <c r="C98" s="17">
         <v>3</v>
       </c>
-      <c r="D98" s="16">
+      <c r="D98" s="11">
         <v>28</v>
       </c>
-      <c r="E98" s="17">
+      <c r="E98" s="12">
         <f t="shared" ref="E98:E115" si="1">D98/39.370079</f>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G98" s="3"/>
-      <c r="H98" s="11"/>
-      <c r="I98" s="11"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="28"/>
+      <c r="I98" s="28"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="14"/>
-      <c r="C99" s="22">
+      <c r="A99" s="29"/>
+      <c r="B99" s="32"/>
+      <c r="C99" s="17">
         <v>4</v>
       </c>
-      <c r="D99" s="16">
+      <c r="D99" s="11">
         <v>30</v>
       </c>
-      <c r="E99" s="17">
+      <c r="E99" s="12">
         <f t="shared" si="1"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G99" s="3"/>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11"/>
+      <c r="G99" s="29"/>
+      <c r="H99" s="28"/>
+      <c r="I99" s="28"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="15">
+      <c r="A100" s="31">
         <v>2015</v>
       </c>
-      <c r="B100" s="10">
+      <c r="B100" s="30">
         <v>42198</v>
       </c>
-      <c r="C100" s="8">
+      <c r="C100" s="7">
         <v>1</v>
       </c>
       <c r="D100" s="2">
@@ -3962,23 +3980,23 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G100" s="10">
+      <c r="G100" s="30">
         <f>B100</f>
         <v>42198</v>
       </c>
-      <c r="H100" s="11">
+      <c r="H100" s="28">
         <f>AVERAGE(E100:E103)</f>
         <v>1.0921999927914801</v>
       </c>
-      <c r="I100" s="11">
+      <c r="I100" s="28">
         <f>STDEV(E100:E103)</f>
         <v>0.10369506509343376</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="15"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="8">
+      <c r="A101" s="31"/>
+      <c r="B101" s="30"/>
+      <c r="C101" s="7">
         <v>2</v>
       </c>
       <c r="D101" s="2">
@@ -3988,14 +4006,14 @@
         <f t="shared" si="1"/>
         <v>0.96519999362968012</v>
       </c>
-      <c r="G101" s="3"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11"/>
+      <c r="G101" s="29"/>
+      <c r="H101" s="28"/>
+      <c r="I101" s="28"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="15"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="8">
+      <c r="A102" s="31"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="7">
         <v>3</v>
       </c>
       <c r="D102" s="2">
@@ -4005,14 +4023,14 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G102" s="3"/>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11"/>
+      <c r="G102" s="29"/>
+      <c r="H102" s="28"/>
+      <c r="I102" s="28"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="15"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="8">
+      <c r="A103" s="31"/>
+      <c r="B103" s="30"/>
+      <c r="C103" s="7">
         <v>4</v>
       </c>
       <c r="D103" s="2">
@@ -4022,95 +4040,95 @@
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G103" s="3"/>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="28"/>
+      <c r="I103" s="28"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="15"/>
-      <c r="B104" s="14">
+      <c r="A104" s="31"/>
+      <c r="B104" s="32">
         <v>42212</v>
       </c>
-      <c r="C104" s="22">
+      <c r="C104" s="17">
         <v>1</v>
       </c>
-      <c r="D104" s="16">
+      <c r="D104" s="11">
         <v>37</v>
       </c>
-      <c r="E104" s="17">
+      <c r="E104" s="12">
         <f t="shared" si="1"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G104" s="10">
+      <c r="G104" s="30">
         <f>B104</f>
         <v>42212</v>
       </c>
-      <c r="H104" s="11">
+      <c r="H104" s="28">
         <f>AVERAGE(E104:E107)</f>
         <v>1.0890249928124351</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104" s="28">
         <f>STDEV(E104:E107)</f>
         <v>0.12109479333605773</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="15"/>
-      <c r="B105" s="14"/>
-      <c r="C105" s="22">
+      <c r="A105" s="31"/>
+      <c r="B105" s="32"/>
+      <c r="C105" s="17">
         <v>1</v>
       </c>
-      <c r="D105" s="16">
+      <c r="D105" s="11">
         <v>41</v>
       </c>
-      <c r="E105" s="17">
+      <c r="E105" s="12">
         <f t="shared" si="1"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G105" s="3"/>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11"/>
+      <c r="G105" s="29"/>
+      <c r="H105" s="28"/>
+      <c r="I105" s="28"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="15"/>
-      <c r="B106" s="14"/>
-      <c r="C106" s="22">
+      <c r="A106" s="31"/>
+      <c r="B106" s="32"/>
+      <c r="C106" s="17">
         <v>2</v>
       </c>
-      <c r="D106" s="16">
+      <c r="D106" s="11">
         <v>46.5</v>
       </c>
-      <c r="E106" s="17">
+      <c r="E106" s="12">
         <f t="shared" si="1"/>
         <v>1.18109999220474</v>
       </c>
-      <c r="G106" s="3"/>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="28"/>
+      <c r="I106" s="28"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="15"/>
-      <c r="B107" s="14"/>
-      <c r="C107" s="22">
+      <c r="A107" s="31"/>
+      <c r="B107" s="32"/>
+      <c r="C107" s="17">
         <v>2</v>
       </c>
-      <c r="D107" s="16">
+      <c r="D107" s="11">
         <v>47</v>
       </c>
-      <c r="E107" s="17">
+      <c r="E107" s="12">
         <f t="shared" si="1"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G107" s="3"/>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11"/>
+      <c r="G107" s="29"/>
+      <c r="H107" s="28"/>
+      <c r="I107" s="28"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="15"/>
-      <c r="B108" s="10">
+      <c r="A108" s="31"/>
+      <c r="B108" s="30">
         <v>42226</v>
       </c>
-      <c r="C108" s="8">
+      <c r="C108" s="7">
         <v>1</v>
       </c>
       <c r="D108" s="2">
@@ -4120,23 +4138,23 @@
         <f t="shared" si="1"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="30">
         <f>B108</f>
         <v>42226</v>
       </c>
-      <c r="H108" s="11">
+      <c r="H108" s="28">
         <f>AVERAGE(E108:E115)</f>
         <v>1.0318749931896252</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="28">
         <f>STDEV(E108:E115)</f>
         <v>8.6868105525185535E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="15"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="8">
+      <c r="A109" s="31"/>
+      <c r="B109" s="30"/>
+      <c r="C109" s="7">
         <v>1</v>
       </c>
       <c r="D109" s="2">
@@ -4146,14 +4164,14 @@
         <f t="shared" si="1"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G109" s="3"/>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="28"/>
+      <c r="I109" s="28"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="15"/>
-      <c r="B110" s="10"/>
-      <c r="C110" s="8">
+      <c r="A110" s="31"/>
+      <c r="B110" s="30"/>
+      <c r="C110" s="7">
         <v>2</v>
       </c>
       <c r="D110" s="2">
@@ -4163,14 +4181,14 @@
         <f t="shared" si="1"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G110" s="3"/>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="28"/>
+      <c r="I110" s="28"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="15"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="8">
+      <c r="A111" s="31"/>
+      <c r="B111" s="30"/>
+      <c r="C111" s="7">
         <v>2</v>
       </c>
       <c r="D111" s="2">
@@ -4180,14 +4198,14 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G111" s="3"/>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11"/>
+      <c r="G111" s="29"/>
+      <c r="H111" s="28"/>
+      <c r="I111" s="28"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="15"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="8">
+      <c r="A112" s="31"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="7">
         <v>3</v>
       </c>
       <c r="D112" s="2">
@@ -4197,14 +4215,14 @@
         <f t="shared" si="1"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G112" s="3"/>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="28"/>
+      <c r="I112" s="28"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="15"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="8">
+      <c r="A113" s="31"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="7">
         <v>3</v>
       </c>
       <c r="D113" s="2">
@@ -4214,14 +4232,14 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G113" s="3"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11"/>
+      <c r="G113" s="29"/>
+      <c r="H113" s="28"/>
+      <c r="I113" s="28"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="15"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="8">
+      <c r="A114" s="31"/>
+      <c r="B114" s="30"/>
+      <c r="C114" s="7">
         <v>4</v>
       </c>
       <c r="D114" s="2">
@@ -4231,14 +4249,14 @@
         <f t="shared" si="1"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G114" s="3"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11"/>
+      <c r="G114" s="29"/>
+      <c r="H114" s="28"/>
+      <c r="I114" s="28"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="15"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="8">
+      <c r="A115" s="31"/>
+      <c r="B115" s="30"/>
+      <c r="C115" s="7">
         <v>4</v>
       </c>
       <c r="D115" s="2">
@@ -4248,12 +4266,76 @@
         <f t="shared" si="1"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G115" s="3"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11"/>
+      <c r="G115" s="29"/>
+      <c r="H115" s="28"/>
+      <c r="I115" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G2:G23"/>
+    <mergeCell ref="H2:H23"/>
+    <mergeCell ref="I2:I23"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="A64:A81"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="G64:G71"/>
+    <mergeCell ref="H64:H71"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="G72:G79"/>
+    <mergeCell ref="H72:H79"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="G86:G87"/>
+    <mergeCell ref="H86:H87"/>
+    <mergeCell ref="I86:I87"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="C88:C91"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="B86:B87"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="C92:C95"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="A100:A115"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="I104:I107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C26:C38"/>
+    <mergeCell ref="G26:G63"/>
+    <mergeCell ref="G108:G115"/>
+    <mergeCell ref="H108:H115"/>
+    <mergeCell ref="I108:I115"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="I72:I79"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I64:I71"/>
     <mergeCell ref="G81:G82"/>
     <mergeCell ref="H81:H82"/>
     <mergeCell ref="I81:I82"/>
@@ -4270,135 +4352,79 @@
     <mergeCell ref="C39:C45"/>
     <mergeCell ref="H26:H63"/>
     <mergeCell ref="I26:I63"/>
-    <mergeCell ref="G26:G63"/>
-    <mergeCell ref="G108:G115"/>
-    <mergeCell ref="H108:H115"/>
-    <mergeCell ref="I108:I115"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C26:C38"/>
-    <mergeCell ref="A100:A115"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="H104:H107"/>
-    <mergeCell ref="I104:I107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B92:B95"/>
-    <mergeCell ref="C92:C95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="B96:B99"/>
-    <mergeCell ref="G96:G99"/>
-    <mergeCell ref="H96:H99"/>
-    <mergeCell ref="I96:I99"/>
-    <mergeCell ref="G86:G87"/>
-    <mergeCell ref="H86:H87"/>
-    <mergeCell ref="I86:I87"/>
-    <mergeCell ref="B88:B91"/>
-    <mergeCell ref="C88:C91"/>
-    <mergeCell ref="G88:G91"/>
-    <mergeCell ref="H88:H91"/>
-    <mergeCell ref="I88:I91"/>
-    <mergeCell ref="I72:I79"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="B86:B87"/>
-    <mergeCell ref="C86:C87"/>
-    <mergeCell ref="A64:A81"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="G64:G71"/>
-    <mergeCell ref="H64:H71"/>
-    <mergeCell ref="I64:I71"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="G72:G79"/>
-    <mergeCell ref="H72:H79"/>
-    <mergeCell ref="B2:B23"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="G2:G23"/>
-    <mergeCell ref="H2:H23"/>
-    <mergeCell ref="I2:I23"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C23"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F&amp;C&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I44"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="29">
         <v>2013</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="30">
         <v>41408</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="29">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -4408,38 +4434,38 @@
         <f>D2/39.370079</f>
         <v>1.3461999911150802</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="30">
         <f>B2</f>
         <v>41408</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="28">
         <f>AVERAGE(E2:E21)</f>
         <v>1.1683999922885602</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="28">
         <f>STDEV(E2:E21)</f>
         <v>0.12333772125108161</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="29"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="29"/>
       <c r="D3" s="2">
         <v>57</v>
       </c>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E44" si="0">D3/39.370079</f>
+        <f t="shared" ref="E3:E54" si="0">D3/39.370079</f>
         <v>1.4477999904445202</v>
       </c>
-      <c r="G3" s="3"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="29"/>
       <c r="D4" s="2">
         <v>50</v>
       </c>
@@ -4447,14 +4473,14 @@
         <f t="shared" si="0"/>
         <v>1.2699999916180003</v>
       </c>
-      <c r="G4" s="3"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="29"/>
       <c r="D5" s="2">
         <v>53</v>
       </c>
@@ -4462,14 +4488,14 @@
         <f t="shared" si="0"/>
         <v>1.3461999911150802</v>
       </c>
-      <c r="G5" s="3"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="29"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="29"/>
       <c r="D6" s="2">
         <v>45</v>
       </c>
@@ -4477,14 +4503,14 @@
         <f t="shared" si="0"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G6" s="3"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="3">
+      <c r="A7" s="29"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="29">
         <v>2</v>
       </c>
       <c r="D7" s="2">
@@ -4494,14 +4520,14 @@
         <f t="shared" si="0"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="29"/>
+      <c r="B8" s="30"/>
+      <c r="C8" s="29"/>
       <c r="D8" s="2">
         <v>44</v>
       </c>
@@ -4509,14 +4535,14 @@
         <f t="shared" si="0"/>
         <v>1.1175999926238402</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="3"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
       <c r="D9" s="2">
         <v>39</v>
       </c>
@@ -4524,14 +4550,14 @@
         <f t="shared" si="0"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="3"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="29"/>
       <c r="D10" s="2">
         <v>49</v>
       </c>
@@ -4539,14 +4565,14 @@
         <f t="shared" si="0"/>
         <v>1.2445999917856401</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
       <c r="D11" s="2">
         <v>46</v>
       </c>
@@ -4554,14 +4580,14 @@
         <f t="shared" si="0"/>
         <v>1.1683999922885602</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="3">
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29">
         <v>3</v>
       </c>
       <c r="D12" s="2">
@@ -4571,14 +4597,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="3"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
       <c r="D13" s="2">
         <v>40</v>
       </c>
@@ -4586,14 +4612,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="3"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
       <c r="D14" s="2">
         <v>47</v>
       </c>
@@ -4601,14 +4627,14 @@
         <f t="shared" si="0"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
       <c r="D15" s="2">
         <v>43</v>
       </c>
@@ -4616,14 +4642,14 @@
         <f t="shared" si="0"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G15" s="3"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
       <c r="D16" s="2">
         <v>45</v>
       </c>
@@ -4631,14 +4657,14 @@
         <f t="shared" si="0"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G16" s="3"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="3">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29">
         <v>4</v>
       </c>
       <c r="D17" s="2">
@@ -4648,14 +4674,14 @@
         <f t="shared" si="0"/>
         <v>1.1175999926238402</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
       <c r="D18" s="2">
         <v>45</v>
       </c>
@@ -4663,14 +4689,14 @@
         <f t="shared" si="0"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
       <c r="D19" s="2">
         <v>40</v>
       </c>
@@ -4678,14 +4704,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G19" s="3"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
       <c r="D20" s="2">
         <v>47</v>
       </c>
@@ -4693,14 +4719,14 @@
         <f t="shared" si="0"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="3"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
       <c r="D21" s="2">
         <v>50</v>
       </c>
@@ -4708,149 +4734,149 @@
         <f t="shared" si="0"/>
         <v>1.2699999916180003</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="14">
+      <c r="A22" s="29"/>
+      <c r="B22" s="32">
         <v>41476</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <v>23</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="30">
         <f>B22</f>
         <v>41476</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="28">
         <f>AVERAGE(E22:E29)</f>
         <v>0.66357499562040501</v>
       </c>
-      <c r="I22" s="11">
+      <c r="I22" s="28">
         <f>STDEV(E22:E29)</f>
         <v>6.7116311178830254E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16">
+      <c r="A23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="11">
         <v>24</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="16">
+      <c r="A24" s="29"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="11">
         <v>27</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G24" s="10"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="16">
+      <c r="A25" s="29"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="11">
         <v>29</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G25" s="10"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="16">
+      <c r="A26" s="29"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="11">
         <v>26</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="12">
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G26" s="10"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="28"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="16">
+      <c r="A27" s="29"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="11">
         <v>23</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="12">
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16">
+      <c r="A28" s="29"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="11">
         <v>27</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="12">
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="16">
+      <c r="A29" s="29"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="11">
         <v>30</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="12">
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G29" s="10"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
-      <c r="B30" s="10">
+      <c r="A30" s="29"/>
+      <c r="B30" s="30">
         <v>41487</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="29" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2">
@@ -4860,23 +4886,23 @@
         <f t="shared" si="0"/>
         <v>0.63499999580900013</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="30">
         <f>B30</f>
         <v>41487</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="28">
         <f>AVERAGE(E30:E37)</f>
         <v>0.67627499553658499</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="28">
         <f>STDEV(E30:E37)</f>
         <v>5.4201310907379528E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="3"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
       <c r="D31" s="2">
         <v>27</v>
       </c>
@@ -4884,14 +4910,14 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="3"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
       <c r="D32" s="2">
         <v>26</v>
       </c>
@@ -4899,14 +4925,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="3"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
       <c r="D33" s="2">
         <v>28</v>
       </c>
@@ -4914,14 +4940,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G33" s="3"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="28"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="3"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
       <c r="D34" s="2">
         <v>23</v>
       </c>
@@ -4929,14 +4955,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="3"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
       <c r="D35" s="2">
         <v>26</v>
       </c>
@@ -4944,14 +4970,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="3"/>
+      <c r="A36" s="29"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="29"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -4959,14 +4985,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="3"/>
+      <c r="A37" s="29"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="29"/>
       <c r="D37" s="2">
         <v>28</v>
       </c>
@@ -4974,85 +5000,85 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15">
+      <c r="A38" s="31">
         <v>2015</v>
       </c>
-      <c r="B38" s="14">
+      <c r="B38" s="32">
         <v>42082</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="11">
         <v>1</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="11">
         <v>7</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <f t="shared" si="0"/>
         <v>0.17779999882652003</v>
       </c>
-      <c r="F38" s="24" t="s">
+      <c r="F38" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="30">
         <f>B38</f>
         <v>42082</v>
       </c>
-      <c r="H38" s="11">
+      <c r="H38" s="28">
         <f>AVERAGE(E38:E40)</f>
         <v>0.17779999882652001</v>
       </c>
-      <c r="I38" s="11">
+      <c r="I38" s="28">
         <f>STDEV(E38:E40)</f>
         <v>2.5399999832360125E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="16">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="11">
         <v>2</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="11">
         <v>8</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <f t="shared" si="0"/>
         <v>0.20319999865888003</v>
       </c>
-      <c r="F39" s="24"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
-      <c r="B40" s="14"/>
-      <c r="C40" s="16">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="11">
         <v>3</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D40" s="11">
         <v>6</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E40" s="12">
         <f t="shared" si="0"/>
         <v>0.15239999899416001</v>
       </c>
-      <c r="F40" s="24"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="28"/>
+      <c r="I40" s="28"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="15"/>
-      <c r="B41" s="10">
+      <c r="A41" s="31"/>
+      <c r="B41" s="30">
         <v>42191</v>
       </c>
-      <c r="C41" s="8">
+      <c r="C41" s="7">
         <v>1</v>
       </c>
       <c r="D41" s="2">
@@ -5062,23 +5088,23 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="30">
         <f>B41</f>
         <v>42191</v>
       </c>
-      <c r="H41" s="11">
+      <c r="H41" s="28">
         <f>AVERAGE(E41:E44)</f>
         <v>0.65404999568327016</v>
       </c>
-      <c r="I41" s="11">
+      <c r="I41" s="28">
         <f>STDEV(E41:E44)</f>
         <v>8.3922562959546004E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="15"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="8">
+      <c r="A42" s="31"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="7">
         <v>2</v>
       </c>
       <c r="D42" s="2">
@@ -5088,14 +5114,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="15"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="8">
+      <c r="A43" s="31"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="7">
         <v>3</v>
       </c>
       <c r="D43" s="2">
@@ -5105,14 +5131,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="15"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="8">
+      <c r="A44" s="31"/>
+      <c r="B44" s="30"/>
+      <c r="C44" s="7">
         <v>4</v>
       </c>
       <c r="D44" s="2">
@@ -5122,17 +5148,193 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G44" s="3"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11"/>
+      <c r="G44" s="29"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="31"/>
+      <c r="B45" s="32">
+        <v>42261</v>
+      </c>
+      <c r="C45" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="11">
+        <v>24</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="0"/>
+        <v>0.60959999597664005</v>
+      </c>
+      <c r="G45" s="30">
+        <v>42261</v>
+      </c>
+      <c r="H45" s="28">
+        <f>AVERAGE(E45:E54)</f>
+        <v>0.68579999547372006</v>
+      </c>
+      <c r="I45" s="28">
+        <f>STDEV(E45:E54)</f>
+        <v>4.3171698263485707E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="31"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="11">
+        <v>27</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="0"/>
+        <v>0.68579999547372006</v>
+      </c>
+      <c r="G46" s="29"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="31"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="11">
+        <v>26</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G47" s="29"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="31"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="11">
+        <v>26</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G48" s="29"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="31"/>
+      <c r="D49" s="11">
+        <v>28</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="0"/>
+        <v>0.71119999530608013</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="31"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="11">
+        <v>27</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="0"/>
+        <v>0.68579999547372006</v>
+      </c>
+      <c r="G50" s="29"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="31"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="31"/>
+      <c r="D51" s="11">
+        <v>26</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="0"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G51" s="29"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="31"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="31"/>
+      <c r="D52" s="11">
+        <v>29</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="0"/>
+        <v>0.7365999951384401</v>
+      </c>
+      <c r="G52" s="29"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="31"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="11">
+        <v>30</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.76199999497080007</v>
+      </c>
+      <c r="G53" s="29"/>
+      <c r="H53" s="28"/>
+      <c r="I53" s="28"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="31"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="31"/>
+      <c r="D54" s="11">
+        <v>27</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="0"/>
+        <v>0.68579999547372006</v>
+      </c>
+      <c r="G54" s="29"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="28"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A38:A44"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="B38:B40"/>
+  <mergeCells count="34">
+    <mergeCell ref="I45:I54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="A38:A54"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="H45:H54"/>
+    <mergeCell ref="I41:I44"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G2:G21"/>
+    <mergeCell ref="H2:H21"/>
+    <mergeCell ref="I2:I21"/>
+    <mergeCell ref="G41:G44"/>
+    <mergeCell ref="C7:C11"/>
+    <mergeCell ref="C12:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="H41:H44"/>
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="I38:I40"/>
@@ -5144,936 +5346,937 @@
     <mergeCell ref="G30:G37"/>
     <mergeCell ref="H30:H37"/>
     <mergeCell ref="I30:I37"/>
-    <mergeCell ref="G41:G44"/>
-    <mergeCell ref="C7:C11"/>
-    <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="H41:H44"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="G2:G21"/>
-    <mergeCell ref="H2:H21"/>
-    <mergeCell ref="I2:I21"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="B38:B40"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F&amp;C&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="38" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="38" customWidth="1"/>
-    <col min="3" max="3" width="6.85546875" style="38" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.140625" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="20" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="8" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="27" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" style="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" style="15" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" style="7" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" style="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="32" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="E1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="34">
+      <c r="A2" s="37">
         <v>2013</v>
       </c>
-      <c r="B2" s="35">
+      <c r="B2" s="38">
         <v>41470</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="36">
+      <c r="D2" s="25">
         <v>34</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="26">
         <f t="shared" ref="E2:E47" si="0">D2/39.370079</f>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="30">
         <f>B2</f>
         <v>41470</v>
       </c>
-      <c r="H2" s="11">
+      <c r="H2" s="28">
         <f>AVERAGE(E2:E6)</f>
         <v>0.80771999466904809</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="28">
         <f>STDEV(E2:E6)</f>
         <v>4.8857875194183241E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="36">
+      <c r="A3" s="37"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="25">
         <v>33</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="26">
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="36">
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="25">
         <v>29</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="26">
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="36">
+      <c r="A5" s="37"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="25">
         <v>31</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="26">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="36">
+      <c r="A6" s="37"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="25">
         <v>32</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="26">
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="14">
+      <c r="A7" s="37"/>
+      <c r="B7" s="32">
         <v>41487</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="11">
         <v>31</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="30">
         <f>B7</f>
         <v>41487</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="28">
         <f>AVERAGE(E7:E14)</f>
         <v>0.81597499461456513</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="28">
         <f>STDEV(E7:E14)</f>
         <v>2.8600187123312679E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16">
+      <c r="A8" s="37"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="11">
         <v>33</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="D9" s="16">
+      <c r="A9" s="37"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="11">
         <v>31</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16">
+      <c r="A10" s="37"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="11">
         <v>32</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="12">
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16">
+      <c r="A11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="11">
         <v>33</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16">
+      <c r="A12" s="37"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="11">
         <v>34</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="28"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16">
+      <c r="A13" s="37"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="11">
         <v>31</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="12">
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G13" s="3"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16">
+      <c r="A14" s="37"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="11">
         <v>32</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G14" s="3"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35">
+      <c r="A15" s="37"/>
+      <c r="B15" s="38">
         <v>41492</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="25">
         <v>34</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="30">
         <f>B15</f>
         <v>41492</v>
       </c>
-      <c r="H15" s="11">
+      <c r="H15" s="28">
         <f>AVERAGE(E15:E18)</f>
         <v>0.83819999446788018</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="28">
         <f>STDEV(E15:E18)</f>
         <v>5.487027088437612E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="36">
+      <c r="A16" s="37"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="25">
         <v>30</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="26">
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="36">
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="25">
         <v>33</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="26">
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G17" s="3"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="36">
+      <c r="A18" s="37"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="25">
         <v>35</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="26">
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G18" s="3"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
+      <c r="A19" s="31">
         <v>2014</v>
       </c>
-      <c r="B19" s="14">
+      <c r="B19" s="32">
         <v>41813</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="17">
         <v>1</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D19" s="11">
         <v>12.5</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="12">
         <f t="shared" si="0"/>
         <v>0.31749999790450006</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="30">
         <f>B19</f>
         <v>41813</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="28">
         <f>AVERAGE(E19:E25)</f>
         <v>0.24855714121666578</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="28">
         <f>STDEV(E19:E25)</f>
         <v>5.0724348096810923E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="15"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="22">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="17">
         <v>2</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D20" s="11">
         <v>10</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="12">
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="15"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="22">
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="17">
         <v>3</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D21" s="11">
         <v>10</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="12">
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="G21" s="3"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="28"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="15"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="22">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="17">
         <v>4</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D22" s="11">
         <v>6</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="12">
         <f t="shared" si="0"/>
         <v>0.15239999899416001</v>
       </c>
-      <c r="G22" s="3"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="28"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="22" t="s">
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D23" s="11">
         <v>11</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>0.27939999815596006</v>
       </c>
-      <c r="G23" s="3"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="28"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="15"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="22" t="s">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D24" s="11">
         <v>9</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="12">
         <f t="shared" si="0"/>
         <v>0.22859999849124002</v>
       </c>
-      <c r="G24" s="3"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="22" t="s">
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D25" s="11">
         <v>10</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="12">
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="28"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="15"/>
-      <c r="B26" s="35">
+      <c r="A26" s="31"/>
+      <c r="B26" s="38">
         <v>41828</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C26" s="27">
         <v>1</v>
       </c>
-      <c r="D26" s="36">
+      <c r="D26" s="25">
         <v>21</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="26">
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="30">
         <f>B26</f>
         <v>41828</v>
       </c>
-      <c r="H26" s="11">
+      <c r="H26" s="28">
         <f>AVERAGE(E26:E32)</f>
         <v>0.36648571186690859</v>
       </c>
-      <c r="I26" s="11">
+      <c r="I26" s="28">
         <f>STDEV(E26:E32)</f>
         <v>0.1096004772039923</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="38">
+      <c r="A27" s="31"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="27">
         <v>2</v>
       </c>
-      <c r="D27" s="36">
+      <c r="D27" s="25">
         <v>19</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="26">
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="38">
+      <c r="A28" s="31"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="27">
         <v>3</v>
       </c>
-      <c r="D28" s="36">
+      <c r="D28" s="25">
         <v>15</v>
       </c>
-      <c r="E28" s="37">
+      <c r="E28" s="26">
         <f t="shared" si="0"/>
         <v>0.38099999748540003</v>
       </c>
-      <c r="G28" s="3"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="38">
+      <c r="A29" s="31"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="27">
         <v>4</v>
       </c>
-      <c r="D29" s="36">
+      <c r="D29" s="25">
         <v>11</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="26">
         <f t="shared" si="0"/>
         <v>0.27939999815596006</v>
       </c>
-      <c r="G29" s="3"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="38" t="s">
+      <c r="A30" s="31"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="36">
+      <c r="D30" s="25">
         <v>14</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="26">
         <f t="shared" si="0"/>
         <v>0.35559999765304007</v>
       </c>
-      <c r="G30" s="3"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="38" t="s">
+      <c r="A31" s="31"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="36">
+      <c r="D31" s="25">
         <v>9</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="26">
         <f t="shared" si="0"/>
         <v>0.22859999849124002</v>
       </c>
-      <c r="G31" s="3"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="28"/>
+      <c r="I31" s="28"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="38" t="s">
+      <c r="A32" s="31"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D32" s="25">
         <v>12</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="26">
         <f t="shared" si="0"/>
         <v>0.30479999798832003</v>
       </c>
-      <c r="G32" s="3"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14">
+      <c r="A33" s="31"/>
+      <c r="B33" s="32">
         <v>41844</v>
       </c>
-      <c r="C33" s="22">
+      <c r="C33" s="17">
         <v>1</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D33" s="11">
         <v>26</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E33" s="12">
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="30">
         <f>B33</f>
         <v>41844</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="28">
         <f>AVERAGE(E33:E39)</f>
         <v>0.41184285442469432</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="28">
         <f>STDEV(E33:E39)</f>
         <v>0.13909392247121191</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
-      <c r="C34" s="22">
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="17">
         <v>2</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D34" s="11">
         <v>19</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E34" s="12">
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G34" s="3"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
-      <c r="C35" s="22">
+      <c r="A35" s="31"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="17">
         <v>3</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D35" s="11">
         <v>16</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E35" s="12">
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G35" s="3"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
-      <c r="C36" s="22">
+      <c r="A36" s="31"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="17">
         <v>4</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D36" s="11">
         <v>9.5</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E36" s="12">
         <f t="shared" si="0"/>
         <v>0.24129999840742003</v>
       </c>
-      <c r="G36" s="3"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="28"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
-      <c r="C37" s="22" t="s">
+      <c r="A37" s="31"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="11">
         <v>18</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E37" s="12">
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G37" s="3"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="28"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
-      <c r="C38" s="22" t="s">
+      <c r="A38" s="31"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="11">
         <v>12</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E38" s="12">
         <f t="shared" si="0"/>
         <v>0.30479999798832003</v>
       </c>
-      <c r="G38" s="3"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
-      <c r="C39" s="22" t="s">
+      <c r="A39" s="31"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="11">
         <v>13</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E39" s="12">
         <f t="shared" si="0"/>
         <v>0.33019999782068005</v>
       </c>
-      <c r="G39" s="3"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="28"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="34">
+      <c r="A40" s="37">
         <v>2015</v>
       </c>
-      <c r="B40" s="35">
+      <c r="B40" s="38">
         <v>42191</v>
       </c>
-      <c r="C40" s="38">
+      <c r="C40" s="27">
         <v>1</v>
       </c>
-      <c r="D40" s="36">
+      <c r="D40" s="25">
         <v>36</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="26">
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="30">
         <f>B40</f>
         <v>42191</v>
       </c>
-      <c r="H40" s="11">
+      <c r="H40" s="28">
         <f>AVERAGE(E40:E43)</f>
         <v>0.9461499937554102</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="28">
         <f>STDEV(E40:E43)</f>
         <v>4.8081423677104954E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="38">
+      <c r="A41" s="37"/>
+      <c r="B41" s="38"/>
+      <c r="C41" s="27">
         <v>2</v>
       </c>
-      <c r="D41" s="36">
+      <c r="D41" s="25">
         <v>36</v>
       </c>
-      <c r="E41" s="37">
+      <c r="E41" s="26">
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G41" s="10"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="28"/>
+      <c r="I41" s="28"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="38">
+      <c r="A42" s="37"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="27">
         <v>3</v>
       </c>
-      <c r="D42" s="36">
+      <c r="D42" s="25">
         <v>40</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="26">
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G42" s="3"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="28"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="34"/>
-      <c r="B43" s="35"/>
-      <c r="C43" s="38">
+      <c r="A43" s="37"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="27">
         <v>4</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="25">
         <v>37</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="26">
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G43" s="3"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="28"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="14">
+      <c r="A44" s="37"/>
+      <c r="B44" s="32">
         <v>42205</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44" s="17">
         <v>1</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D44" s="11">
         <v>36</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E44" s="12">
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="30">
         <f>B44</f>
         <v>42205</v>
       </c>
-      <c r="H44" s="11">
+      <c r="H44" s="28">
         <f>AVERAGE(E44:E47)</f>
         <v>0.95884999367159018</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="28">
         <f>STDEV(E44:E47)</f>
         <v>0.11047296730680418</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="14"/>
-      <c r="C45" s="22">
+      <c r="A45" s="37"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="17">
         <v>2</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D45" s="11">
         <v>44</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E45" s="12">
         <f t="shared" si="0"/>
         <v>1.1175999926238402</v>
       </c>
-      <c r="G45" s="10"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="14"/>
-      <c r="C46" s="22">
+      <c r="A46" s="37"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="17">
         <v>3</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D46" s="11">
         <v>37</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E46" s="12">
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="28"/>
+      <c r="I46" s="28"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="34"/>
-      <c r="B47" s="14"/>
-      <c r="C47" s="22">
+      <c r="A47" s="37"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="17">
         <v>4</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D47" s="11">
         <v>34</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E47" s="12">
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G47" s="3"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="38">
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A40:A47"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H7:H14"/>
+    <mergeCell ref="I7:I14"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="H40:H43"/>
@@ -6090,20 +6293,23 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="G19:G25"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="I7:I14"/>
-    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A40:A47"/>
   </mergeCells>
+  <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="67" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;F&amp;C&amp;A</oddHeader>
+    <oddFooter>Page &amp;P of &amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/data/Crop height.xlsx
+++ b/data/Crop height.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="23">
   <si>
     <t>Year</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>B3</t>
+  </si>
+  <si>
+    <t>Not recorded</t>
+  </si>
+  <si>
+    <t>No measurements recorded</t>
   </si>
 </sst>
 </file>
@@ -165,7 +171,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -246,19 +252,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -267,16 +276,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,11 +601,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I87"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F57" sqref="F57"/>
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,13 +651,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="33">
         <v>2012</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="32">
         <v>41097</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -652,23 +667,23 @@
         <f>D2/39.370079</f>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="32">
         <f>B2</f>
         <v>41097</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="31">
         <f>AVERAGE(E2:E33)</f>
         <v>0.92289311890890535</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="31">
         <f>STDEV(E2:E33)</f>
         <v>6.5757693703692735E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2">
         <v>38</v>
       </c>
@@ -676,14 +691,14 @@
         <f t="shared" ref="E3:E66" si="0">D3/39.370079</f>
         <v>0.96519999362968012</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2">
         <v>37.5</v>
       </c>
@@ -691,14 +706,14 @@
         <f t="shared" si="0"/>
         <v>0.95249999371350014</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2">
         <v>35.799999999999997</v>
       </c>
@@ -706,14 +721,14 @@
         <f t="shared" si="0"/>
         <v>0.90931999399848806</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2">
         <v>36.9</v>
       </c>
@@ -721,14 +736,14 @@
         <f t="shared" si="0"/>
         <v>0.93725999381408409</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="2">
         <v>41</v>
       </c>
@@ -736,14 +751,14 @@
         <f t="shared" si="0"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29">
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33">
         <v>2</v>
       </c>
       <c r="D8" s="2">
@@ -753,14 +768,14 @@
         <f t="shared" si="0"/>
         <v>0.9016999940487801</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2">
         <v>34.5</v>
       </c>
@@ -768,14 +783,14 @@
         <f t="shared" si="0"/>
         <v>0.87629999421642013</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2">
         <v>35.5</v>
       </c>
@@ -783,14 +798,14 @@
         <f t="shared" si="0"/>
         <v>0.9016999940487801</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2">
         <v>34</v>
       </c>
@@ -798,14 +813,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2">
         <v>37</v>
       </c>
@@ -813,14 +828,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2">
         <v>36</v>
       </c>
@@ -828,14 +843,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2">
         <v>33.5</v>
       </c>
@@ -843,14 +858,14 @@
         <f t="shared" si="0"/>
         <v>0.85089999438406005</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2">
         <v>32</v>
       </c>
@@ -858,14 +873,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>34</v>
       </c>
@@ -873,14 +888,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33">
         <v>3</v>
       </c>
       <c r="D17" s="2">
@@ -890,14 +905,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="2">
         <v>33</v>
       </c>
@@ -905,14 +920,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2">
         <v>35</v>
       </c>
@@ -920,14 +935,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2">
         <v>33</v>
       </c>
@@ -935,14 +950,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2">
         <v>36.5</v>
       </c>
@@ -950,14 +965,14 @@
         <f t="shared" si="0"/>
         <v>0.92709999388114006</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2">
         <v>39</v>
       </c>
@@ -965,14 +980,14 @@
         <f t="shared" si="0"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2">
         <v>36</v>
       </c>
@@ -980,14 +995,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="33"/>
       <c r="D24" s="2">
         <v>34</v>
       </c>
@@ -995,14 +1010,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="2">
         <v>34</v>
       </c>
@@ -1010,14 +1025,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="29">
+      <c r="A26" s="33"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="33">
         <v>4</v>
       </c>
       <c r="D26" s="2">
@@ -1027,14 +1042,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="2">
         <v>42</v>
       </c>
@@ -1042,14 +1057,14 @@
         <f t="shared" si="0"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="2">
         <v>36</v>
       </c>
@@ -1057,14 +1072,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2">
         <v>40</v>
       </c>
@@ -1072,14 +1087,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="2">
         <v>41</v>
       </c>
@@ -1087,14 +1102,14 @@
         <f t="shared" si="0"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="2">
         <v>37</v>
       </c>
@@ -1102,14 +1117,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2">
         <v>37</v>
       </c>
@@ -1117,14 +1132,14 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="2">
         <v>41</v>
       </c>
@@ -1132,18 +1147,18 @@
         <f t="shared" si="0"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="31">
+      <c r="A34" s="37">
         <v>2013</v>
       </c>
-      <c r="B34" s="32">
+      <c r="B34" s="36">
         <v>41470</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="11">
@@ -1153,23 +1168,23 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="32">
         <f>B34</f>
         <v>41470</v>
       </c>
-      <c r="H34" s="28">
+      <c r="H34" s="31">
         <f>AVERAGE(E34:E41)</f>
         <v>0.45402499700343507</v>
       </c>
-      <c r="I34" s="28">
+      <c r="I34" s="31">
         <f>STDEV(E34:E41)</f>
         <v>6.1378119242125197E-2</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
-      <c r="C35" s="31"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="11">
         <v>16</v>
       </c>
@@ -1177,14 +1192,14 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
-      <c r="C36" s="31"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="11">
         <v>20</v>
       </c>
@@ -1192,14 +1207,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
-      <c r="C37" s="31"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="36"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="11">
         <v>19</v>
       </c>
@@ -1207,14 +1222,14 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
-      <c r="C38" s="31"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
+      <c r="C38" s="37"/>
       <c r="D38" s="11">
         <v>15</v>
       </c>
@@ -1222,14 +1237,14 @@
         <f t="shared" si="0"/>
         <v>0.38099999748540003</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
-      <c r="C39" s="31"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
       <c r="D39" s="11">
         <v>15</v>
       </c>
@@ -1237,14 +1252,14 @@
         <f t="shared" si="0"/>
         <v>0.38099999748540003</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
-      <c r="C40" s="31"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="36"/>
+      <c r="C40" s="37"/>
       <c r="D40" s="11">
         <v>20</v>
       </c>
@@ -1252,14 +1267,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="32"/>
-      <c r="C41" s="31"/>
+      <c r="A41" s="37"/>
+      <c r="B41" s="36"/>
+      <c r="C41" s="37"/>
       <c r="D41" s="11">
         <v>21</v>
       </c>
@@ -1267,16 +1282,16 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30">
+      <c r="A42" s="37"/>
+      <c r="B42" s="32">
         <v>41485</v>
       </c>
-      <c r="C42" s="29" t="s">
+      <c r="C42" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2">
@@ -1286,23 +1301,23 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="G42" s="30">
+      <c r="G42" s="32">
         <f>B42</f>
         <v>41485</v>
       </c>
-      <c r="H42" s="28">
+      <c r="H42" s="31">
         <f>AVERAGE(E42:E49)</f>
         <v>0.46989999689866002</v>
       </c>
-      <c r="I42" s="28">
+      <c r="I42" s="31">
         <f>STDEV(E42:E49)</f>
         <v>4.2933835856845327E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="2">
         <v>18</v>
       </c>
@@ -1310,14 +1325,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="2">
         <v>18</v>
       </c>
@@ -1325,14 +1340,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="2">
         <v>21</v>
       </c>
@@ -1340,14 +1355,14 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="2">
         <v>20</v>
       </c>
@@ -1355,14 +1370,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="2">
         <v>16</v>
       </c>
@@ -1370,14 +1385,14 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="2">
         <v>18</v>
       </c>
@@ -1385,14 +1400,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="2">
         <v>20</v>
       </c>
@@ -1400,12 +1415,12 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
+      <c r="A50" s="37"/>
       <c r="B50" s="16">
         <v>41509</v>
       </c>
@@ -1435,7 +1450,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
+      <c r="A51" s="37"/>
       <c r="B51" s="10">
         <v>41516</v>
       </c>
@@ -1465,13 +1480,13 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="29">
+      <c r="A52" s="33">
         <v>2014</v>
       </c>
-      <c r="B52" s="32">
+      <c r="B52" s="36">
         <v>41772</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="11">
@@ -1481,26 +1496,26 @@
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="F52" s="33" t="s">
+      <c r="F52" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="30">
+      <c r="G52" s="32">
         <f>B52</f>
         <v>41772</v>
       </c>
-      <c r="H52" s="28">
+      <c r="H52" s="31">
         <f>AVERAGE(E52:E53)</f>
         <v>0.30479999798832003</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="31">
         <f>STDEV(E52:E53)</f>
         <v>7.1842048494395863E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="11">
         <v>14</v>
       </c>
@@ -1508,17 +1523,17 @@
         <f t="shared" si="0"/>
         <v>0.35559999765304007</v>
       </c>
-      <c r="F53" s="34"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="F53" s="35"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30">
+      <c r="A54" s="33"/>
+      <c r="B54" s="32">
         <v>41801</v>
       </c>
-      <c r="C54" s="29" t="s">
+      <c r="C54" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2">
@@ -1528,23 +1543,23 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G54" s="30">
+      <c r="G54" s="32">
         <f>B54</f>
         <v>41801</v>
       </c>
-      <c r="H54" s="28">
+      <c r="H54" s="31">
         <f>AVERAGE(E54:E57)</f>
         <v>0.88264999417451018</v>
       </c>
-      <c r="I54" s="28">
+      <c r="I54" s="31">
         <f>STDEV(E54:E57)</f>
         <v>5.2363441099745597E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="29"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="2">
         <v>32</v>
       </c>
@@ -1552,14 +1567,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="2">
         <v>35</v>
       </c>
@@ -1567,14 +1582,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="2">
         <v>37</v>
       </c>
@@ -1582,16 +1597,16 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="32">
+      <c r="A58" s="33"/>
+      <c r="B58" s="36">
         <v>41815</v>
       </c>
-      <c r="C58" s="31" t="s">
+      <c r="C58" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="11">
@@ -1601,23 +1616,23 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G58" s="30">
+      <c r="G58" s="32">
         <f>B58</f>
         <v>41815</v>
       </c>
-      <c r="H58" s="28">
+      <c r="H58" s="31">
         <f>AVERAGE(E58:E60)</f>
         <v>0.78739999480316014</v>
       </c>
-      <c r="I58" s="28">
+      <c r="I58" s="31">
         <f>STDEV(E58:E60)</f>
         <v>2.5399999832360021E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="32"/>
-      <c r="C59" s="31"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="36"/>
+      <c r="C59" s="37"/>
       <c r="D59" s="11">
         <v>31</v>
       </c>
@@ -1625,14 +1640,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32"/>
-      <c r="C60" s="31"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="36"/>
+      <c r="C60" s="37"/>
       <c r="D60" s="11">
         <v>30</v>
       </c>
@@ -1640,16 +1655,16 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30">
+      <c r="A61" s="33"/>
+      <c r="B61" s="32">
         <v>41836</v>
       </c>
-      <c r="C61" s="29" t="s">
+      <c r="C61" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
@@ -1659,23 +1674,23 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G61" s="30">
+      <c r="G61" s="32">
         <f>B61</f>
         <v>41836</v>
       </c>
-      <c r="H61" s="28">
+      <c r="H61" s="31">
         <f>AVERAGE(E61:E64)</f>
         <v>0.8572499943421501</v>
       </c>
-      <c r="I61" s="28">
+      <c r="I61" s="31">
         <f>STDEV(E61:E64)</f>
         <v>6.6800872806899461E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="2">
         <v>34</v>
       </c>
@@ -1683,14 +1698,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="2">
         <v>35</v>
       </c>
@@ -1698,14 +1713,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="29"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="33"/>
       <c r="D64" s="2">
         <v>30</v>
       </c>
@@ -1713,13 +1728,13 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G64" s="29"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="28"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="31"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="29"/>
-      <c r="B65" s="32">
+      <c r="A65" s="33"/>
+      <c r="B65" s="36">
         <v>41853</v>
       </c>
       <c r="C65" s="17">
@@ -1732,22 +1747,22 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G65" s="30">
+      <c r="G65" s="32">
         <f>B65</f>
         <v>41853</v>
       </c>
-      <c r="H65" s="28">
+      <c r="H65" s="31">
         <f>AVERAGE(E65:E68)</f>
         <v>0.80009999471934012</v>
       </c>
-      <c r="I65" s="28">
+      <c r="I65" s="31">
         <f>STDEV(E65:E68)</f>
         <v>6.7202082857506854E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="29"/>
-      <c r="B66" s="32"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="17">
         <v>2</v>
       </c>
@@ -1758,13 +1773,13 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="29"/>
-      <c r="B67" s="32"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="17">
         <v>3</v>
       </c>
@@ -1772,16 +1787,16 @@
         <v>34</v>
       </c>
       <c r="E67" s="12">
-        <f t="shared" ref="E67:E87" si="1">D67/39.370079</f>
+        <f t="shared" ref="E67:E119" si="1">D67/39.370079</f>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="29"/>
-      <c r="B68" s="32"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="17">
         <v>4</v>
       </c>
@@ -1792,15 +1807,15 @@
         <f t="shared" si="1"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="31">
+      <c r="A69" s="37">
         <v>2015</v>
       </c>
-      <c r="B69" s="30">
+      <c r="B69" s="32">
         <v>42198</v>
       </c>
       <c r="C69" s="7">
@@ -1813,22 +1828,22 @@
         <f t="shared" si="1"/>
         <v>1.2445999917856401</v>
       </c>
-      <c r="G69" s="30">
+      <c r="G69" s="32">
         <f>B69</f>
         <v>42198</v>
       </c>
-      <c r="H69" s="28">
+      <c r="H69" s="31">
         <f>AVERAGE(E69:E72)</f>
         <v>1.1556999923723801</v>
       </c>
-      <c r="I69" s="28">
+      <c r="I69" s="31">
         <f>STDEV(E69:E72)</f>
         <v>0.10265287718440642</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="32"/>
       <c r="C70" s="7">
         <v>2</v>
       </c>
@@ -1839,13 +1854,13 @@
         <f t="shared" si="1"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="32"/>
       <c r="C71" s="7">
         <v>3</v>
       </c>
@@ -1856,13 +1871,13 @@
         <f t="shared" si="1"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="30"/>
+      <c r="A72" s="37"/>
+      <c r="B72" s="32"/>
       <c r="C72" s="7">
         <v>4</v>
       </c>
@@ -1873,13 +1888,13 @@
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G72" s="29"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="28"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="32">
+      <c r="A73" s="37"/>
+      <c r="B73" s="36">
         <v>42212</v>
       </c>
       <c r="C73" s="17">
@@ -1892,22 +1907,22 @@
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G73" s="30">
+      <c r="G73" s="32">
         <f>B73</f>
         <v>42212</v>
       </c>
-      <c r="H73" s="28">
+      <c r="H73" s="31">
         <f>AVERAGE(E73:E80)</f>
         <v>1.1429999924562</v>
       </c>
-      <c r="I73" s="28">
+      <c r="I73" s="31">
         <f>STDEV(E73:E80)</f>
         <v>8.369345370609127E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="32"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="17">
         <v>1</v>
       </c>
@@ -1918,13 +1933,13 @@
         <f t="shared" si="1"/>
         <v>1.2445999917856401</v>
       </c>
-      <c r="G74" s="29"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="32"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="36"/>
       <c r="C75" s="17">
         <v>2</v>
       </c>
@@ -1935,13 +1950,13 @@
         <f t="shared" si="1"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G75" s="29"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="32"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="17">
         <v>2</v>
       </c>
@@ -1952,13 +1967,13 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="32"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="17">
         <v>3</v>
       </c>
@@ -1969,13 +1984,13 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G77" s="29"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="32"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="17">
         <v>3</v>
       </c>
@@ -1986,13 +2001,13 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G78" s="29"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="32"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="17">
         <v>4</v>
       </c>
@@ -2003,13 +2018,13 @@
         <f t="shared" si="1"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G79" s="29"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="32"/>
+      <c r="A80" s="37"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="17">
         <v>4</v>
       </c>
@@ -2020,13 +2035,13 @@
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G80" s="29"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
+      <c r="G80" s="33"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="30">
+      <c r="A81" s="37"/>
+      <c r="B81" s="32">
         <v>42226</v>
       </c>
       <c r="C81" s="7">
@@ -2039,22 +2054,22 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="32">
         <f>B81</f>
         <v>42226</v>
       </c>
-      <c r="H81" s="28">
+      <c r="H81" s="31">
         <f>AVERAGE(E81:E87)</f>
         <v>1.1139714212192173</v>
       </c>
-      <c r="I81" s="28">
+      <c r="I81" s="31">
         <f>STDEV(E81:E87)</f>
         <v>0.12903980843583099</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="31"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="37"/>
+      <c r="B82" s="32"/>
       <c r="C82" s="7">
         <v>1</v>
       </c>
@@ -2065,13 +2080,13 @@
         <f t="shared" si="1"/>
         <v>1.1683999922885602</v>
       </c>
-      <c r="G82" s="29"/>
-      <c r="H82" s="28"/>
-      <c r="I82" s="28"/>
+      <c r="G82" s="33"/>
+      <c r="H82" s="31"/>
+      <c r="I82" s="31"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="31"/>
-      <c r="B83" s="30"/>
+      <c r="A83" s="37"/>
+      <c r="B83" s="32"/>
       <c r="C83" s="7">
         <v>2</v>
       </c>
@@ -2082,13 +2097,13 @@
         <f t="shared" si="1"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G83" s="29"/>
-      <c r="H83" s="28"/>
-      <c r="I83" s="28"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="31"/>
+      <c r="I83" s="31"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="31"/>
-      <c r="B84" s="30"/>
+      <c r="A84" s="37"/>
+      <c r="B84" s="32"/>
       <c r="C84" s="7">
         <v>3</v>
       </c>
@@ -2099,13 +2114,13 @@
         <f t="shared" si="1"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G84" s="29"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="31"/>
+      <c r="I84" s="31"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="31"/>
-      <c r="B85" s="30"/>
+      <c r="A85" s="37"/>
+      <c r="B85" s="32"/>
       <c r="C85" s="7">
         <v>3</v>
       </c>
@@ -2116,13 +2131,13 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G85" s="29"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="31"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="37"/>
+      <c r="B86" s="32"/>
       <c r="C86" s="7">
         <v>4</v>
       </c>
@@ -2133,13 +2148,13 @@
         <f t="shared" si="1"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G86" s="29"/>
-      <c r="H86" s="28"/>
-      <c r="I86" s="28"/>
+      <c r="G86" s="33"/>
+      <c r="H86" s="31"/>
+      <c r="I86" s="31"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="37"/>
+      <c r="B87" s="32"/>
       <c r="C87" s="7">
         <v>4</v>
       </c>
@@ -2150,22 +2165,707 @@
         <f t="shared" si="1"/>
         <v>1.3207999912827202</v>
       </c>
-      <c r="G87" s="29"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="33">
+        <v>2016</v>
+      </c>
+      <c r="B88" s="36">
+        <v>42493</v>
+      </c>
+      <c r="C88" s="29">
+        <v>1</v>
+      </c>
+      <c r="D88" s="11">
+        <v>16</v>
+      </c>
+      <c r="E88" s="12">
+        <f t="shared" si="1"/>
+        <v>0.40639999731776005</v>
+      </c>
+      <c r="G88" s="32">
+        <v>42493</v>
+      </c>
+      <c r="H88" s="31">
+        <f>AVERAGE(E88:E91)</f>
+        <v>0.38099999748540003</v>
+      </c>
+      <c r="I88" s="31">
+        <f>STDEV(E88:E91)</f>
+        <v>5.5841501521468273E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="33"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="29">
+        <v>2</v>
+      </c>
+      <c r="D89" s="11">
+        <v>14</v>
+      </c>
+      <c r="E89" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35559999765304007</v>
+      </c>
+      <c r="G89" s="32"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="33"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="29">
+        <v>3</v>
+      </c>
+      <c r="D90" s="11">
+        <v>12.5</v>
+      </c>
+      <c r="E90" s="12">
+        <f t="shared" si="1"/>
+        <v>0.31749999790450006</v>
+      </c>
+      <c r="G90" s="32"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="33"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="29">
+        <v>4</v>
+      </c>
+      <c r="D91" s="11">
+        <v>17.5</v>
+      </c>
+      <c r="E91" s="12">
+        <f t="shared" si="1"/>
+        <v>0.44449999706630006</v>
+      </c>
+      <c r="G91" s="32"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="33"/>
+      <c r="B92" s="32">
+        <v>42504</v>
+      </c>
+      <c r="C92" s="28">
+        <v>1</v>
+      </c>
+      <c r="D92" s="2">
+        <v>23</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58419999614428009</v>
+      </c>
+      <c r="G92" s="32">
+        <v>42504</v>
+      </c>
+      <c r="H92" s="31">
+        <f t="shared" ref="H92" si="2">AVERAGE(E92:E95)</f>
+        <v>0.52069999656338006</v>
+      </c>
+      <c r="I92" s="31">
+        <f t="shared" ref="I92" si="3">STDEV(E92:E95)</f>
+        <v>5.2874316037469296E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="28">
+        <v>2</v>
+      </c>
+      <c r="D93" s="2">
+        <v>18</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="1"/>
+        <v>0.45719999698248004</v>
+      </c>
+      <c r="G93" s="32"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="28">
+        <v>3</v>
+      </c>
+      <c r="D94" s="2">
+        <v>21</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53339999647956005</v>
+      </c>
+      <c r="G94" s="32"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="28">
+        <v>4</v>
+      </c>
+      <c r="D95" s="2">
+        <v>20</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50799999664720008</v>
+      </c>
+      <c r="G95" s="32"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="33"/>
+      <c r="B96" s="36">
+        <v>42516</v>
+      </c>
+      <c r="C96" s="29">
+        <v>1</v>
+      </c>
+      <c r="D96" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F96" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="32">
+        <v>42516</v>
+      </c>
+      <c r="H96" s="31">
+        <f t="shared" ref="H96" si="4">AVERAGE(E96:E99)</f>
+        <v>0.69849999538990004</v>
+      </c>
+      <c r="I96" s="31">
+        <f t="shared" ref="I96" si="5">STDEV(E96:E99)</f>
+        <v>5.3881536370796783E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A97" s="33"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="29">
+        <v>2</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E97" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F97" s="35"/>
+      <c r="G97" s="32"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A98" s="33"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="29">
+        <v>3</v>
+      </c>
+      <c r="D98" s="11">
+        <v>26</v>
+      </c>
+      <c r="E98" s="12">
+        <f t="shared" si="1"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G98" s="32"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A99" s="33"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="29">
+        <v>4</v>
+      </c>
+      <c r="D99" s="11">
+        <v>29</v>
+      </c>
+      <c r="E99" s="12">
+        <f t="shared" si="1"/>
+        <v>0.7365999951384401</v>
+      </c>
+      <c r="G99" s="32"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="33"/>
+      <c r="B100" s="32">
+        <v>42529</v>
+      </c>
+      <c r="C100" s="28">
+        <v>1</v>
+      </c>
+      <c r="D100" s="2">
+        <v>36</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G100" s="32">
+        <v>42529</v>
+      </c>
+      <c r="H100" s="31">
+        <f t="shared" ref="H100" si="6">AVERAGE(E100:E103)</f>
+        <v>0.83819999446788018</v>
+      </c>
+      <c r="I100" s="31">
+        <f t="shared" ref="I100" si="7">STDEV(E100:E103)</f>
+        <v>7.4775574841390302E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="33"/>
+      <c r="B101" s="32"/>
+      <c r="C101" s="28">
+        <v>2</v>
+      </c>
+      <c r="D101" s="2">
+        <v>31</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78739999480316014</v>
+      </c>
+      <c r="G101" s="32"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="33"/>
+      <c r="B102" s="32"/>
+      <c r="C102" s="28">
+        <v>3</v>
+      </c>
+      <c r="D102" s="2">
+        <v>30</v>
+      </c>
+      <c r="E102" s="1">
+        <f t="shared" si="1"/>
+        <v>0.76199999497080007</v>
+      </c>
+      <c r="G102" s="32"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="33"/>
+      <c r="B103" s="32"/>
+      <c r="C103" s="28">
+        <v>4</v>
+      </c>
+      <c r="D103" s="2">
+        <v>35</v>
+      </c>
+      <c r="E103" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88899999413260011</v>
+      </c>
+      <c r="G103" s="32"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="33"/>
+      <c r="B104" s="36">
+        <v>42543</v>
+      </c>
+      <c r="C104" s="29">
+        <v>1</v>
+      </c>
+      <c r="D104" s="11">
+        <v>36</v>
+      </c>
+      <c r="E104" s="12">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G104" s="32">
+        <v>42543</v>
+      </c>
+      <c r="H104" s="31">
+        <f t="shared" ref="H104" si="8">AVERAGE(E104:E107)</f>
+        <v>0.86359999430024015</v>
+      </c>
+      <c r="I104" s="31">
+        <f t="shared" ref="I104" si="9">STDEV(E104:E107)</f>
+        <v>4.6373842896036695E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="33"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="29">
+        <v>2</v>
+      </c>
+      <c r="D105" s="11">
+        <v>32</v>
+      </c>
+      <c r="E105" s="12">
+        <f t="shared" si="1"/>
+        <v>0.81279999463552011</v>
+      </c>
+      <c r="G105" s="32"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A106" s="33"/>
+      <c r="B106" s="36"/>
+      <c r="C106" s="29">
+        <v>3</v>
+      </c>
+      <c r="D106" s="11">
+        <v>33</v>
+      </c>
+      <c r="E106" s="12">
+        <f t="shared" si="1"/>
+        <v>0.83819999446788007</v>
+      </c>
+      <c r="G106" s="32"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A107" s="33"/>
+      <c r="B107" s="36"/>
+      <c r="C107" s="29">
+        <v>4</v>
+      </c>
+      <c r="D107" s="11">
+        <v>35</v>
+      </c>
+      <c r="E107" s="12">
+        <f t="shared" si="1"/>
+        <v>0.88899999413260011</v>
+      </c>
+      <c r="G107" s="32"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="33"/>
+      <c r="B108" s="32">
+        <v>42557</v>
+      </c>
+      <c r="C108" s="28">
+        <v>1</v>
+      </c>
+      <c r="D108" s="2">
+        <v>36</v>
+      </c>
+      <c r="E108" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G108" s="32">
+        <v>42557</v>
+      </c>
+      <c r="H108" s="31">
+        <f t="shared" ref="H108" si="10">AVERAGE(E108:E111)</f>
+        <v>0.88264999417451007</v>
+      </c>
+      <c r="I108" s="31">
+        <f t="shared" ref="I108" si="11">STDEV(E108:E111)</f>
+        <v>5.2363441099745611E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="33"/>
+      <c r="B109" s="32"/>
+      <c r="C109" s="28">
+        <v>2</v>
+      </c>
+      <c r="D109" s="2">
+        <v>33</v>
+      </c>
+      <c r="E109" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83819999446788007</v>
+      </c>
+      <c r="G109" s="32"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="33"/>
+      <c r="B110" s="32"/>
+      <c r="C110" s="28">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2">
+        <v>33</v>
+      </c>
+      <c r="E110" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83819999446788007</v>
+      </c>
+      <c r="G110" s="32"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="33"/>
+      <c r="B111" s="32"/>
+      <c r="C111" s="28">
+        <v>4</v>
+      </c>
+      <c r="D111" s="2">
+        <v>37</v>
+      </c>
+      <c r="E111" s="1">
+        <f t="shared" si="1"/>
+        <v>0.93979999379732015</v>
+      </c>
+      <c r="G111" s="32"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="33"/>
+      <c r="B112" s="36">
+        <v>42578</v>
+      </c>
+      <c r="C112" s="29">
+        <v>1</v>
+      </c>
+      <c r="D112" s="11">
+        <v>40</v>
+      </c>
+      <c r="E112" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0159999932944002</v>
+      </c>
+      <c r="G112" s="32">
+        <v>42578</v>
+      </c>
+      <c r="H112" s="31">
+        <f t="shared" ref="H112" si="12">AVERAGE(E112:E115)</f>
+        <v>0.95249999371350003</v>
+      </c>
+      <c r="I112" s="31">
+        <f t="shared" ref="I112" si="13">STDEV(E112:E115)</f>
+        <v>6.0464093629266462E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="33"/>
+      <c r="B113" s="36"/>
+      <c r="C113" s="29">
+        <v>2</v>
+      </c>
+      <c r="D113" s="11">
+        <v>39</v>
+      </c>
+      <c r="E113" s="12">
+        <f t="shared" si="1"/>
+        <v>0.99059999346204008</v>
+      </c>
+      <c r="G113" s="32"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="33"/>
+      <c r="B114" s="36"/>
+      <c r="C114" s="29">
+        <v>3</v>
+      </c>
+      <c r="D114" s="11">
+        <v>35</v>
+      </c>
+      <c r="E114" s="12">
+        <f t="shared" si="1"/>
+        <v>0.88899999413260011</v>
+      </c>
+      <c r="G114" s="32"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="33"/>
+      <c r="B115" s="36"/>
+      <c r="C115" s="29">
+        <v>4</v>
+      </c>
+      <c r="D115" s="11">
+        <v>36</v>
+      </c>
+      <c r="E115" s="12">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G115" s="32"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="33"/>
+      <c r="B116" s="32">
+        <v>42585</v>
+      </c>
+      <c r="C116" s="28">
+        <v>1</v>
+      </c>
+      <c r="D116" s="2">
+        <v>31</v>
+      </c>
+      <c r="E116" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78739999480316014</v>
+      </c>
+      <c r="G116" s="32">
+        <v>42585</v>
+      </c>
+      <c r="H116" s="31">
+        <f t="shared" ref="H116" si="14">AVERAGE(E116:E119)</f>
+        <v>0.82549999455170009</v>
+      </c>
+      <c r="I116" s="31">
+        <f t="shared" ref="I116" si="15">STDEV(E116:E119)</f>
+        <v>4.8637296753015799E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="32"/>
+      <c r="C117" s="28">
+        <v>2</v>
+      </c>
+      <c r="D117" s="2">
+        <v>31</v>
+      </c>
+      <c r="E117" s="1">
+        <f t="shared" si="1"/>
+        <v>0.78739999480316014</v>
+      </c>
+      <c r="G117" s="32"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
+      <c r="B118" s="32"/>
+      <c r="C118" s="28">
+        <v>3</v>
+      </c>
+      <c r="D118" s="2">
+        <v>35</v>
+      </c>
+      <c r="E118" s="1">
+        <f t="shared" si="1"/>
+        <v>0.88899999413260011</v>
+      </c>
+      <c r="G118" s="32"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="33"/>
+      <c r="B119" s="32"/>
+      <c r="C119" s="28">
+        <v>4</v>
+      </c>
+      <c r="D119" s="2">
+        <v>33</v>
+      </c>
+      <c r="E119" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83819999446788007</v>
+      </c>
+      <c r="G119" s="32"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="59">
-    <mergeCell ref="H2:H33"/>
-    <mergeCell ref="I2:I33"/>
-    <mergeCell ref="G2:G33"/>
-    <mergeCell ref="C42:C49"/>
-    <mergeCell ref="B42:B49"/>
-    <mergeCell ref="G34:G41"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="C26:C33"/>
+  <mergeCells count="93">
+    <mergeCell ref="H112:H115"/>
+    <mergeCell ref="I112:I115"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="I104:I107"/>
+    <mergeCell ref="H108:H111"/>
+    <mergeCell ref="I108:I111"/>
+    <mergeCell ref="H88:H91"/>
+    <mergeCell ref="I88:I91"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="H96:H99"/>
+    <mergeCell ref="I96:I99"/>
+    <mergeCell ref="A88:A119"/>
+    <mergeCell ref="G88:G91"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="G96:G99"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="G108:G111"/>
+    <mergeCell ref="G112:G115"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="B108:B111"/>
+    <mergeCell ref="B112:B115"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="B88:B91"/>
+    <mergeCell ref="B92:B95"/>
+    <mergeCell ref="B96:B99"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="A52:A68"/>
+    <mergeCell ref="G81:G87"/>
+    <mergeCell ref="H81:H87"/>
+    <mergeCell ref="I81:I87"/>
+    <mergeCell ref="B81:B87"/>
+    <mergeCell ref="A69:A87"/>
+    <mergeCell ref="B65:B68"/>
+    <mergeCell ref="G65:G68"/>
+    <mergeCell ref="H65:H68"/>
+    <mergeCell ref="I65:I68"/>
+    <mergeCell ref="B69:B72"/>
+    <mergeCell ref="B73:B80"/>
+    <mergeCell ref="G69:G72"/>
+    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="I69:I72"/>
+    <mergeCell ref="G73:G80"/>
+    <mergeCell ref="I54:I57"/>
+    <mergeCell ref="I58:I60"/>
+    <mergeCell ref="H58:H60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="H54:H57"/>
+    <mergeCell ref="H73:H80"/>
+    <mergeCell ref="I73:I80"/>
+    <mergeCell ref="C61:C64"/>
+    <mergeCell ref="B61:B64"/>
+    <mergeCell ref="G61:G64"/>
+    <mergeCell ref="I61:I64"/>
+    <mergeCell ref="H61:H64"/>
+    <mergeCell ref="C54:C57"/>
+    <mergeCell ref="B54:B57"/>
+    <mergeCell ref="B58:B60"/>
+    <mergeCell ref="C58:C60"/>
+    <mergeCell ref="G54:G57"/>
     <mergeCell ref="A2:A33"/>
     <mergeCell ref="F52:F53"/>
     <mergeCell ref="G52:G53"/>
@@ -2182,39 +2882,16 @@
     <mergeCell ref="B2:B33"/>
     <mergeCell ref="B34:B41"/>
     <mergeCell ref="C34:C41"/>
-    <mergeCell ref="C54:C57"/>
-    <mergeCell ref="B54:B57"/>
-    <mergeCell ref="B58:B60"/>
-    <mergeCell ref="C58:C60"/>
-    <mergeCell ref="G54:G57"/>
-    <mergeCell ref="C61:C64"/>
-    <mergeCell ref="B61:B64"/>
-    <mergeCell ref="G61:G64"/>
-    <mergeCell ref="I61:I64"/>
-    <mergeCell ref="H61:H64"/>
-    <mergeCell ref="I69:I72"/>
-    <mergeCell ref="G73:G80"/>
-    <mergeCell ref="I54:I57"/>
-    <mergeCell ref="I58:I60"/>
-    <mergeCell ref="H58:H60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="H54:H57"/>
-    <mergeCell ref="H73:H80"/>
-    <mergeCell ref="I73:I80"/>
-    <mergeCell ref="A52:A68"/>
-    <mergeCell ref="G81:G87"/>
-    <mergeCell ref="H81:H87"/>
-    <mergeCell ref="I81:I87"/>
-    <mergeCell ref="B81:B87"/>
-    <mergeCell ref="A69:A87"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="G65:G68"/>
-    <mergeCell ref="H65:H68"/>
-    <mergeCell ref="I65:I68"/>
-    <mergeCell ref="B69:B72"/>
-    <mergeCell ref="B73:B80"/>
-    <mergeCell ref="G69:G72"/>
-    <mergeCell ref="H69:H72"/>
+    <mergeCell ref="H2:H33"/>
+    <mergeCell ref="I2:I33"/>
+    <mergeCell ref="G2:G33"/>
+    <mergeCell ref="C42:C49"/>
+    <mergeCell ref="B42:B49"/>
+    <mergeCell ref="G34:G41"/>
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="C26:C33"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2231,11 +2908,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I115"/>
+  <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,13 +2958,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="33">
         <v>2012</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="32">
         <v>41074</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="33">
         <v>2</v>
       </c>
       <c r="D2" s="2">
@@ -2297,23 +2974,23 @@
         <f>D2/39.370079</f>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="32">
         <f>B2</f>
         <v>41074</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="31">
         <f>AVERAGE(E2:E23)</f>
         <v>0.52878181469185825</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="31">
         <f>STDEV(E2:E23)</f>
         <v>5.9250956091989611E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2">
         <v>23.5</v>
       </c>
@@ -2321,14 +2998,14 @@
         <f t="shared" ref="E3:E97" si="0">D3/39.370079</f>
         <v>0.59689999606046007</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2">
         <v>24</v>
       </c>
@@ -2336,14 +3013,14 @@
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2">
         <v>22.5</v>
       </c>
@@ -2351,14 +3028,14 @@
         <f t="shared" si="0"/>
         <v>0.5714999962281001</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2">
         <v>20</v>
       </c>
@@ -2366,14 +3043,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
         <v>1</v>
       </c>
       <c r="D7" s="2">
@@ -2383,14 +3060,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2">
         <v>19.5</v>
       </c>
@@ -2398,14 +3075,14 @@
         <f t="shared" si="0"/>
         <v>0.49529999673102004</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2">
         <v>17</v>
       </c>
@@ -2413,14 +3090,14 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2">
         <v>16</v>
       </c>
@@ -2428,14 +3105,14 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2">
         <v>18.5</v>
       </c>
@@ -2443,14 +3120,14 @@
         <f t="shared" si="0"/>
         <v>0.46989999689866008</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
       <c r="D12" s="2">
         <v>18</v>
       </c>
@@ -2458,14 +3135,14 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2">
         <v>19</v>
       </c>
@@ -2473,14 +3150,14 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29">
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33">
         <v>3</v>
       </c>
       <c r="D14" s="2">
@@ -2490,14 +3167,14 @@
         <f t="shared" si="0"/>
         <v>0.50799999664720008</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2">
         <v>22</v>
       </c>
@@ -2505,14 +3182,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>22</v>
       </c>
@@ -2520,14 +3197,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33"/>
       <c r="D17" s="2">
         <v>22</v>
       </c>
@@ -2535,14 +3212,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="2">
         <v>23</v>
       </c>
@@ -2550,14 +3227,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2">
         <v>24</v>
       </c>
@@ -2565,14 +3242,14 @@
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29">
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33">
         <v>4</v>
       </c>
       <c r="D20" s="2">
@@ -2582,14 +3259,14 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2">
         <v>21</v>
       </c>
@@ -2597,14 +3274,14 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="33"/>
       <c r="D22" s="2">
         <v>23</v>
       </c>
@@ -2612,14 +3289,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="2">
         <v>23</v>
       </c>
@@ -2627,16 +3304,16 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32">
+      <c r="A24" s="33"/>
+      <c r="B24" s="36">
         <v>41088</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="11">
@@ -2646,23 +3323,23 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G24" s="30">
+      <c r="G24" s="32">
         <f>B24</f>
         <v>41088</v>
       </c>
-      <c r="H24" s="28">
+      <c r="H24" s="31">
         <f>AVERAGE(E24:E25)</f>
         <v>0.80009999471934012</v>
       </c>
-      <c r="I24" s="28">
+      <c r="I24" s="31">
         <f>STDEV(E24:E25)</f>
         <v>8.9802560617994659E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="11">
         <v>34</v>
       </c>
@@ -2670,16 +3347,16 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="30">
+      <c r="A26" s="33"/>
+      <c r="B26" s="32">
         <v>41097</v>
       </c>
-      <c r="C26" s="29">
+      <c r="C26" s="33">
         <v>2</v>
       </c>
       <c r="D26" s="2">
@@ -2689,23 +3366,23 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="32">
         <f>B26</f>
         <v>41097</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="31">
         <f>AVERAGE(E26:E63)</f>
         <v>0.79979920524764136</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="31">
         <f>STDEV(E26:E63)</f>
         <v>6.3914270639532325E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="2">
         <v>35</v>
       </c>
@@ -2713,14 +3390,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="2">
         <v>30</v>
       </c>
@@ -2728,14 +3405,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2">
         <v>33</v>
       </c>
@@ -2743,14 +3420,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="2">
         <v>33</v>
       </c>
@@ -2758,14 +3435,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="2">
         <v>36</v>
       </c>
@@ -2773,14 +3450,14 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2">
         <v>35</v>
       </c>
@@ -2788,14 +3465,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="2">
         <v>34</v>
       </c>
@@ -2803,14 +3480,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="2">
         <v>32</v>
       </c>
@@ -2818,14 +3495,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="2">
         <v>29</v>
       </c>
@@ -2833,14 +3510,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -2848,14 +3525,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="2">
         <v>33</v>
       </c>
@@ -2863,14 +3540,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="29"/>
-      <c r="B38" s="30"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="32"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="2">
         <v>34</v>
       </c>
@@ -2878,14 +3555,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
-      <c r="C39" s="29">
+      <c r="A39" s="33"/>
+      <c r="B39" s="32"/>
+      <c r="C39" s="33">
         <v>1</v>
       </c>
       <c r="D39" s="2">
@@ -2895,14 +3572,14 @@
         <f t="shared" si="0"/>
         <v>0.76834999492889011</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="2">
         <v>34.5</v>
       </c>
@@ -2910,14 +3587,14 @@
         <f t="shared" si="0"/>
         <v>0.87629999421642013</v>
       </c>
-      <c r="G40" s="29"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="29"/>
-      <c r="B41" s="30"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="33"/>
       <c r="D41" s="2">
         <v>31.6</v>
       </c>
@@ -2925,14 +3602,14 @@
         <f t="shared" si="0"/>
         <v>0.80263999470257619</v>
       </c>
-      <c r="G41" s="29"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="29"/>
-      <c r="B42" s="30"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="2">
         <v>28.8</v>
       </c>
@@ -2940,14 +3617,14 @@
         <f t="shared" si="0"/>
         <v>0.73151999517196808</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="29"/>
-      <c r="B43" s="30"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="32"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="2">
         <v>30.8</v>
       </c>
@@ -2955,14 +3632,14 @@
         <f t="shared" si="0"/>
         <v>0.78231999483668813</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="29"/>
-      <c r="B44" s="30"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="2">
         <v>29.5</v>
       </c>
@@ -2970,14 +3647,14 @@
         <f t="shared" si="0"/>
         <v>0.74929999505462008</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="29"/>
-      <c r="B45" s="30"/>
-      <c r="C45" s="29"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="32"/>
+      <c r="C45" s="33"/>
       <c r="D45" s="2">
         <v>30</v>
       </c>
@@ -2985,14 +3662,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G45" s="29"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
-      <c r="C46" s="29">
+      <c r="A46" s="33"/>
+      <c r="B46" s="32"/>
+      <c r="C46" s="33">
         <v>3</v>
       </c>
       <c r="D46" s="2">
@@ -3002,14 +3679,14 @@
         <f t="shared" si="0"/>
         <v>0.72389999522226012</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="29"/>
-      <c r="B47" s="30"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="33"/>
       <c r="D47" s="2">
         <v>31</v>
       </c>
@@ -3017,14 +3694,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="33"/>
       <c r="D48" s="2">
         <v>28</v>
       </c>
@@ -3032,14 +3709,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="29"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="29"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
       <c r="D49" s="2">
         <v>27.8</v>
       </c>
@@ -3047,14 +3724,14 @@
         <f t="shared" si="0"/>
         <v>0.70611999533960812</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="29"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="29"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
       <c r="D50" s="2">
         <v>30</v>
       </c>
@@ -3062,14 +3739,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="29"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
       <c r="D51" s="2">
         <v>27.5</v>
       </c>
@@ -3077,14 +3754,14 @@
         <f t="shared" si="0"/>
         <v>0.69849999538990004</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="29"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="29"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
       <c r="D52" s="2">
         <v>29</v>
       </c>
@@ -3092,14 +3769,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="29"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="29"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
       <c r="D53" s="2">
         <v>30</v>
       </c>
@@ -3107,14 +3784,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="29"/>
-      <c r="B54" s="30"/>
-      <c r="C54" s="29"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="2">
         <v>28.3</v>
       </c>
@@ -3122,14 +3799,14 @@
         <f t="shared" si="0"/>
         <v>0.7188199952557881</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="29"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="29">
+      <c r="A55" s="33"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33">
         <v>4</v>
       </c>
       <c r="D55" s="2">
@@ -3139,14 +3816,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G55" s="29"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="29"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="29"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="2">
         <v>34</v>
       </c>
@@ -3154,14 +3831,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G56" s="29"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="31"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="29"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="29"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="2">
         <v>35</v>
       </c>
@@ -3169,14 +3846,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G57" s="29"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="28"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="29"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="29"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
       <c r="D58" s="2">
         <v>35</v>
       </c>
@@ -3184,14 +3861,14 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G58" s="29"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="28"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="29"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="29"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
       <c r="D59" s="2">
         <v>30</v>
       </c>
@@ -3199,14 +3876,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G59" s="29"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="28"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="29"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="29"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
       <c r="D60" s="2">
         <v>31</v>
       </c>
@@ -3214,14 +3891,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G60" s="29"/>
-      <c r="H60" s="28"/>
-      <c r="I60" s="28"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="31"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="29"/>
-      <c r="B61" s="30"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="33"/>
       <c r="D61" s="2">
         <v>30</v>
       </c>
@@ -3229,14 +3906,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G61" s="29"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="28"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="29"/>
-      <c r="B62" s="30"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="33"/>
       <c r="D62" s="2">
         <v>30</v>
       </c>
@@ -3244,14 +3921,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G62" s="29"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="28"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="29"/>
-      <c r="B63" s="30"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="33"/>
       <c r="D63" s="2">
         <v>33</v>
       </c>
@@ -3259,18 +3936,18 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G63" s="29"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="31">
+      <c r="A64" s="37">
         <v>2013</v>
       </c>
-      <c r="B64" s="32">
+      <c r="B64" s="36">
         <v>41470</v>
       </c>
-      <c r="C64" s="31" t="s">
+      <c r="C64" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="11">
@@ -3280,23 +3957,23 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G64" s="30">
+      <c r="G64" s="32">
         <f>B64</f>
         <v>41470</v>
       </c>
-      <c r="H64" s="28">
+      <c r="H64" s="31">
         <f>AVERAGE(E64:E71)</f>
         <v>0.75882499499175526</v>
       </c>
-      <c r="I64" s="28">
+      <c r="I64" s="31">
         <f>STDEV(E64:E71)</f>
         <v>0.17672763229416114</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="31"/>
+      <c r="A65" s="37"/>
+      <c r="B65" s="36"/>
+      <c r="C65" s="37"/>
       <c r="D65" s="11">
         <v>32</v>
       </c>
@@ -3304,14 +3981,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G65" s="29"/>
-      <c r="H65" s="28"/>
-      <c r="I65" s="28"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="32"/>
-      <c r="C66" s="31"/>
+      <c r="A66" s="37"/>
+      <c r="B66" s="36"/>
+      <c r="C66" s="37"/>
       <c r="D66" s="11">
         <v>39</v>
       </c>
@@ -3319,14 +3996,14 @@
         <f t="shared" si="0"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G66" s="29"/>
-      <c r="H66" s="28"/>
-      <c r="I66" s="28"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="31"/>
-      <c r="B67" s="32"/>
-      <c r="C67" s="31"/>
+      <c r="A67" s="37"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="37"/>
       <c r="D67" s="11">
         <v>34</v>
       </c>
@@ -3334,14 +4011,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G67" s="29"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="28"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="31"/>
-      <c r="B68" s="32"/>
-      <c r="C68" s="31"/>
+      <c r="A68" s="37"/>
+      <c r="B68" s="36"/>
+      <c r="C68" s="37"/>
       <c r="D68" s="11">
         <v>22</v>
       </c>
@@ -3349,14 +4026,14 @@
         <f t="shared" si="0"/>
         <v>0.55879999631192012</v>
       </c>
-      <c r="G68" s="29"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="28"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="31"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="31"/>
+      <c r="A69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="37"/>
       <c r="D69" s="11">
         <v>26</v>
       </c>
@@ -3364,14 +4041,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G69" s="29"/>
-      <c r="H69" s="28"/>
-      <c r="I69" s="28"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="31"/>
-      <c r="B70" s="32"/>
-      <c r="C70" s="31"/>
+      <c r="A70" s="37"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="37"/>
       <c r="D70" s="11">
         <v>31</v>
       </c>
@@ -3379,14 +4056,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G70" s="29"/>
-      <c r="H70" s="28"/>
-      <c r="I70" s="28"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="32"/>
-      <c r="C71" s="31"/>
+      <c r="A71" s="37"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="37"/>
       <c r="D71" s="11">
         <v>19</v>
       </c>
@@ -3394,16 +4071,16 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G71" s="29"/>
-      <c r="H71" s="28"/>
-      <c r="I71" s="28"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="30">
+      <c r="A72" s="37"/>
+      <c r="B72" s="32">
         <v>41485</v>
       </c>
-      <c r="C72" s="29" t="s">
+      <c r="C72" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
@@ -3413,26 +4090,26 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="F72" s="36" t="s">
+      <c r="F72" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="30">
+      <c r="G72" s="32">
         <f>B72</f>
         <v>41485</v>
       </c>
-      <c r="H72" s="28">
+      <c r="H72" s="31">
         <f>AVERAGE(E72:E79)</f>
         <v>0.64134999576709006</v>
       </c>
-      <c r="I72" s="28">
+      <c r="I72" s="31">
         <f>STDEV(E72:E79)</f>
         <v>0.215846630634911</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="29"/>
+      <c r="A73" s="37"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="33"/>
       <c r="D73" s="2">
         <v>19</v>
       </c>
@@ -3440,15 +4117,15 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="F73" s="36"/>
-      <c r="G73" s="29"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="28"/>
+      <c r="F73" s="39"/>
+      <c r="G73" s="33"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="30"/>
-      <c r="C74" s="29"/>
+      <c r="A74" s="37"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="33"/>
       <c r="D74" s="2">
         <v>17</v>
       </c>
@@ -3456,15 +4133,15 @@
         <f t="shared" si="0"/>
         <v>0.43179999715012007</v>
       </c>
-      <c r="F74" s="36"/>
-      <c r="G74" s="29"/>
-      <c r="H74" s="28"/>
-      <c r="I74" s="28"/>
+      <c r="F74" s="39"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="29"/>
+      <c r="A75" s="37"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="33"/>
       <c r="D75" s="2">
         <v>18</v>
       </c>
@@ -3472,15 +4149,15 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="F75" s="36"/>
-      <c r="G75" s="29"/>
-      <c r="H75" s="28"/>
-      <c r="I75" s="28"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="31"/>
-      <c r="B76" s="30"/>
-      <c r="C76" s="29"/>
+      <c r="A76" s="37"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="33"/>
       <c r="D76" s="2">
         <v>34</v>
       </c>
@@ -3488,17 +4165,17 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="F76" s="36" t="s">
+      <c r="F76" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="G76" s="29"/>
-      <c r="H76" s="28"/>
-      <c r="I76" s="28"/>
+      <c r="G76" s="33"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="31"/>
-      <c r="B77" s="30"/>
-      <c r="C77" s="29"/>
+      <c r="A77" s="37"/>
+      <c r="B77" s="32"/>
+      <c r="C77" s="33"/>
       <c r="D77" s="2">
         <v>32</v>
       </c>
@@ -3506,15 +4183,15 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="F77" s="36"/>
-      <c r="G77" s="29"/>
-      <c r="H77" s="28"/>
-      <c r="I77" s="28"/>
+      <c r="F77" s="39"/>
+      <c r="G77" s="33"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="30"/>
-      <c r="C78" s="29"/>
+      <c r="A78" s="37"/>
+      <c r="B78" s="32"/>
+      <c r="C78" s="33"/>
       <c r="D78" s="2">
         <v>36</v>
       </c>
@@ -3522,15 +4199,15 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="F78" s="36"/>
-      <c r="G78" s="29"/>
-      <c r="H78" s="28"/>
-      <c r="I78" s="28"/>
+      <c r="F78" s="39"/>
+      <c r="G78" s="33"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="30"/>
-      <c r="C79" s="29"/>
+      <c r="A79" s="37"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="33"/>
       <c r="D79" s="2">
         <v>30</v>
       </c>
@@ -3538,13 +4215,13 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="F79" s="36"/>
-      <c r="G79" s="29"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
+      <c r="F79" s="39"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
+      <c r="A80" s="37"/>
       <c r="B80" s="16">
         <v>41508</v>
       </c>
@@ -3574,11 +4251,11 @@
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="31"/>
-      <c r="B81" s="30">
+      <c r="A81" s="37"/>
+      <c r="B81" s="32">
         <v>41516</v>
       </c>
-      <c r="C81" s="29" t="s">
+      <c r="C81" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="19">
@@ -3589,24 +4266,24 @@
         <f t="shared" si="0"/>
         <v>0.24999999835000003</v>
       </c>
-      <c r="F81" s="34" t="s">
+      <c r="F81" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="G81" s="30">
+      <c r="G81" s="32">
         <f>B81</f>
         <v>41516</v>
       </c>
-      <c r="H81" s="35" t="s">
+      <c r="H81" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="I81" s="35" t="s">
+      <c r="I81" s="38" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="17"/>
-      <c r="B82" s="30"/>
-      <c r="C82" s="29"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="33"/>
       <c r="D82" s="19">
         <f>30/2.54</f>
         <v>11.811023622047244</v>
@@ -3615,13 +4292,13 @@
         <f t="shared" si="0"/>
         <v>0.29999999802000005</v>
       </c>
-      <c r="F82" s="34"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="35"/>
-      <c r="I82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="38"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="29">
+      <c r="A83" s="33">
         <v>2014</v>
       </c>
       <c r="B83" s="10">
@@ -3651,11 +4328,11 @@
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="29"/>
-      <c r="B84" s="32">
+      <c r="A84" s="33"/>
+      <c r="B84" s="36">
         <v>41772</v>
       </c>
-      <c r="C84" s="31" t="s">
+      <c r="C84" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="11">
@@ -3665,24 +4342,24 @@
         <f t="shared" si="0"/>
         <v>0.10159999932944001</v>
       </c>
-      <c r="F84" s="33"/>
-      <c r="G84" s="30">
+      <c r="F84" s="34"/>
+      <c r="G84" s="32">
         <f>B84</f>
         <v>41772</v>
       </c>
-      <c r="H84" s="28">
+      <c r="H84" s="31">
         <f>AVERAGE(E84:E85)</f>
         <v>0.12699999916180002</v>
       </c>
-      <c r="I84" s="28">
+      <c r="I84" s="31">
         <f>STDEV(E84:E85)</f>
         <v>3.5921024247197834E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="29"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="31"/>
+      <c r="A85" s="33"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="37"/>
       <c r="D85" s="11">
         <v>6</v>
       </c>
@@ -3690,17 +4367,17 @@
         <f t="shared" si="0"/>
         <v>0.15239999899416001</v>
       </c>
-      <c r="F85" s="34"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="28"/>
-      <c r="I85" s="28"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="31"/>
+      <c r="I85" s="31"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="29"/>
-      <c r="B86" s="30">
+      <c r="A86" s="33"/>
+      <c r="B86" s="32">
         <v>41801</v>
       </c>
-      <c r="C86" s="29" t="s">
+      <c r="C86" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
@@ -3710,23 +4387,23 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G86" s="30">
+      <c r="G86" s="32">
         <f>B86</f>
         <v>41801</v>
       </c>
-      <c r="H86" s="28">
+      <c r="H86" s="31">
         <f>AVERAGE(E86:E87)</f>
         <v>0.69849999538990004</v>
       </c>
-      <c r="I86" s="28">
+      <c r="I86" s="31">
         <f>STDEV(E86:E87)</f>
         <v>1.796051212359898E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="29"/>
-      <c r="B87" s="30"/>
-      <c r="C87" s="29"/>
+      <c r="A87" s="33"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="33"/>
       <c r="D87" s="2">
         <v>28</v>
       </c>
@@ -3734,16 +4411,16 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G87" s="29"/>
-      <c r="H87" s="28"/>
-      <c r="I87" s="28"/>
+      <c r="G87" s="33"/>
+      <c r="H87" s="31"/>
+      <c r="I87" s="31"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="29"/>
-      <c r="B88" s="32">
+      <c r="A88" s="33"/>
+      <c r="B88" s="36">
         <v>41815</v>
       </c>
-      <c r="C88" s="31" t="s">
+      <c r="C88" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="11">
@@ -3753,23 +4430,23 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G88" s="30">
+      <c r="G88" s="32">
         <f>B88</f>
         <v>41815</v>
       </c>
-      <c r="H88" s="28">
+      <c r="H88" s="31">
         <f>AVERAGE(E88:E91)</f>
         <v>0.83184999450979002</v>
       </c>
-      <c r="I88" s="28">
+      <c r="I88" s="31">
         <f>STDEV(E88:E91)</f>
         <v>9.8100135268178221E-2</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="29"/>
-      <c r="B89" s="32"/>
-      <c r="C89" s="31"/>
+      <c r="A89" s="33"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="37"/>
       <c r="D89" s="11">
         <v>29</v>
       </c>
@@ -3777,14 +4454,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G89" s="29"/>
-      <c r="H89" s="28"/>
-      <c r="I89" s="28"/>
+      <c r="G89" s="33"/>
+      <c r="H89" s="31"/>
+      <c r="I89" s="31"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="29"/>
-      <c r="B90" s="32"/>
-      <c r="C90" s="31"/>
+      <c r="A90" s="33"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="37"/>
       <c r="D90" s="11">
         <v>38</v>
       </c>
@@ -3792,14 +4469,14 @@
         <f t="shared" si="0"/>
         <v>0.96519999362968012</v>
       </c>
-      <c r="G90" s="29"/>
-      <c r="H90" s="28"/>
-      <c r="I90" s="28"/>
+      <c r="G90" s="33"/>
+      <c r="H90" s="31"/>
+      <c r="I90" s="31"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="29"/>
-      <c r="B91" s="32"/>
-      <c r="C91" s="31"/>
+      <c r="A91" s="33"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="37"/>
       <c r="D91" s="11">
         <v>33</v>
       </c>
@@ -3807,16 +4484,16 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G91" s="29"/>
-      <c r="H91" s="28"/>
-      <c r="I91" s="28"/>
+      <c r="G91" s="33"/>
+      <c r="H91" s="31"/>
+      <c r="I91" s="31"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="29"/>
-      <c r="B92" s="30">
+      <c r="A92" s="33"/>
+      <c r="B92" s="32">
         <v>41835</v>
       </c>
-      <c r="C92" s="29" t="s">
+      <c r="C92" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2">
@@ -3826,23 +4503,23 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G92" s="30">
+      <c r="G92" s="32">
         <f>B92</f>
         <v>41835</v>
       </c>
-      <c r="H92" s="28">
+      <c r="H92" s="31">
         <f>AVERAGE(E92:E95)</f>
         <v>0.82549999455170009</v>
       </c>
-      <c r="I92" s="28">
+      <c r="I92" s="31">
         <f>STDEV(E92:E95)</f>
         <v>4.3994090221888514E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="29"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="29"/>
+      <c r="A93" s="33"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="33"/>
       <c r="D93" s="2">
         <v>34</v>
       </c>
@@ -3850,14 +4527,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G93" s="29"/>
-      <c r="H93" s="28"/>
-      <c r="I93" s="28"/>
+      <c r="G93" s="33"/>
+      <c r="H93" s="31"/>
+      <c r="I93" s="31"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="29"/>
-      <c r="B94" s="30"/>
-      <c r="C94" s="29"/>
+      <c r="A94" s="33"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="2">
         <v>30</v>
       </c>
@@ -3865,14 +4542,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G94" s="29"/>
-      <c r="H94" s="28"/>
-      <c r="I94" s="28"/>
+      <c r="G94" s="33"/>
+      <c r="H94" s="31"/>
+      <c r="I94" s="31"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="29"/>
-      <c r="B95" s="30"/>
-      <c r="C95" s="29"/>
+      <c r="A95" s="33"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="33"/>
       <c r="D95" s="2">
         <v>33</v>
       </c>
@@ -3880,13 +4557,13 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G95" s="29"/>
-      <c r="H95" s="28"/>
-      <c r="I95" s="28"/>
+      <c r="G95" s="33"/>
+      <c r="H95" s="31"/>
+      <c r="I95" s="31"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="29"/>
-      <c r="B96" s="32">
+      <c r="A96" s="33"/>
+      <c r="B96" s="36">
         <v>41853</v>
       </c>
       <c r="C96" s="17">
@@ -3899,22 +4576,22 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G96" s="30">
+      <c r="G96" s="32">
         <f>B96</f>
         <v>41853</v>
       </c>
-      <c r="H96" s="28">
+      <c r="H96" s="31">
         <f>AVERAGE(E96:E99)</f>
         <v>0.74294999509653015</v>
       </c>
-      <c r="I96" s="28">
+      <c r="I96" s="31">
         <f>STDEV(E96:E99)</f>
         <v>2.4318648376507875E-2</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="29"/>
-      <c r="B97" s="32"/>
+      <c r="A97" s="33"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="17">
         <v>2</v>
       </c>
@@ -3925,13 +4602,13 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G97" s="29"/>
-      <c r="H97" s="28"/>
-      <c r="I97" s="28"/>
+      <c r="G97" s="33"/>
+      <c r="H97" s="31"/>
+      <c r="I97" s="31"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="29"/>
-      <c r="B98" s="32"/>
+      <c r="A98" s="33"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="17">
         <v>3</v>
       </c>
@@ -3939,16 +4616,16 @@
         <v>28</v>
       </c>
       <c r="E98" s="12">
-        <f t="shared" ref="E98:E115" si="1">D98/39.370079</f>
+        <f t="shared" ref="E98:E147" si="1">D98/39.370079</f>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G98" s="29"/>
-      <c r="H98" s="28"/>
-      <c r="I98" s="28"/>
+      <c r="G98" s="33"/>
+      <c r="H98" s="31"/>
+      <c r="I98" s="31"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="29"/>
-      <c r="B99" s="32"/>
+      <c r="A99" s="33"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="17">
         <v>4</v>
       </c>
@@ -3959,15 +4636,15 @@
         <f t="shared" si="1"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G99" s="29"/>
-      <c r="H99" s="28"/>
-      <c r="I99" s="28"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="31"/>
+      <c r="I99" s="31"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="31">
+      <c r="A100" s="37">
         <v>2015</v>
       </c>
-      <c r="B100" s="30">
+      <c r="B100" s="32">
         <v>42198</v>
       </c>
       <c r="C100" s="7">
@@ -3980,22 +4657,22 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G100" s="30">
+      <c r="G100" s="32">
         <f>B100</f>
         <v>42198</v>
       </c>
-      <c r="H100" s="28">
+      <c r="H100" s="31">
         <f>AVERAGE(E100:E103)</f>
         <v>1.0921999927914801</v>
       </c>
-      <c r="I100" s="28">
+      <c r="I100" s="31">
         <f>STDEV(E100:E103)</f>
         <v>0.10369506509343376</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="31"/>
-      <c r="B101" s="30"/>
+      <c r="A101" s="37"/>
+      <c r="B101" s="32"/>
       <c r="C101" s="7">
         <v>2</v>
       </c>
@@ -4006,13 +4683,13 @@
         <f t="shared" si="1"/>
         <v>0.96519999362968012</v>
       </c>
-      <c r="G101" s="29"/>
-      <c r="H101" s="28"/>
-      <c r="I101" s="28"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="31"/>
+      <c r="I101" s="31"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="31"/>
-      <c r="B102" s="30"/>
+      <c r="A102" s="37"/>
+      <c r="B102" s="32"/>
       <c r="C102" s="7">
         <v>3</v>
       </c>
@@ -4023,13 +4700,13 @@
         <f t="shared" si="1"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G102" s="29"/>
-      <c r="H102" s="28"/>
-      <c r="I102" s="28"/>
+      <c r="G102" s="33"/>
+      <c r="H102" s="31"/>
+      <c r="I102" s="31"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="31"/>
-      <c r="B103" s="30"/>
+      <c r="A103" s="37"/>
+      <c r="B103" s="32"/>
       <c r="C103" s="7">
         <v>4</v>
       </c>
@@ -4040,13 +4717,13 @@
         <f t="shared" si="1"/>
         <v>1.2191999919532801</v>
       </c>
-      <c r="G103" s="29"/>
-      <c r="H103" s="28"/>
-      <c r="I103" s="28"/>
+      <c r="G103" s="33"/>
+      <c r="H103" s="31"/>
+      <c r="I103" s="31"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="31"/>
-      <c r="B104" s="32">
+      <c r="A104" s="37"/>
+      <c r="B104" s="36">
         <v>42212</v>
       </c>
       <c r="C104" s="17">
@@ -4059,22 +4736,22 @@
         <f t="shared" si="1"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G104" s="30">
+      <c r="G104" s="32">
         <f>B104</f>
         <v>42212</v>
       </c>
-      <c r="H104" s="28">
+      <c r="H104" s="31">
         <f>AVERAGE(E104:E107)</f>
         <v>1.0890249928124351</v>
       </c>
-      <c r="I104" s="28">
+      <c r="I104" s="31">
         <f>STDEV(E104:E107)</f>
         <v>0.12109479333605773</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="31"/>
-      <c r="B105" s="32"/>
+      <c r="A105" s="37"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="17">
         <v>1</v>
       </c>
@@ -4085,13 +4762,13 @@
         <f t="shared" si="1"/>
         <v>1.0413999931267601</v>
       </c>
-      <c r="G105" s="29"/>
-      <c r="H105" s="28"/>
-      <c r="I105" s="28"/>
+      <c r="G105" s="33"/>
+      <c r="H105" s="31"/>
+      <c r="I105" s="31"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A106" s="31"/>
-      <c r="B106" s="32"/>
+      <c r="A106" s="37"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="17">
         <v>2</v>
       </c>
@@ -4102,13 +4779,13 @@
         <f t="shared" si="1"/>
         <v>1.18109999220474</v>
       </c>
-      <c r="G106" s="29"/>
-      <c r="H106" s="28"/>
-      <c r="I106" s="28"/>
+      <c r="G106" s="33"/>
+      <c r="H106" s="31"/>
+      <c r="I106" s="31"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="31"/>
-      <c r="B107" s="32"/>
+      <c r="A107" s="37"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="17">
         <v>2</v>
       </c>
@@ -4119,13 +4796,13 @@
         <f t="shared" si="1"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G107" s="29"/>
-      <c r="H107" s="28"/>
-      <c r="I107" s="28"/>
+      <c r="G107" s="33"/>
+      <c r="H107" s="31"/>
+      <c r="I107" s="31"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="31"/>
-      <c r="B108" s="30">
+      <c r="A108" s="37"/>
+      <c r="B108" s="32">
         <v>42226</v>
       </c>
       <c r="C108" s="7">
@@ -4138,22 +4815,22 @@
         <f t="shared" si="1"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G108" s="30">
+      <c r="G108" s="32">
         <f>B108</f>
         <v>42226</v>
       </c>
-      <c r="H108" s="28">
+      <c r="H108" s="31">
         <f>AVERAGE(E108:E115)</f>
         <v>1.0318749931896252</v>
       </c>
-      <c r="I108" s="28">
+      <c r="I108" s="31">
         <f>STDEV(E108:E115)</f>
         <v>8.6868105525185535E-2</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="31"/>
-      <c r="B109" s="30"/>
+      <c r="A109" s="37"/>
+      <c r="B109" s="32"/>
       <c r="C109" s="7">
         <v>1</v>
       </c>
@@ -4164,13 +4841,13 @@
         <f t="shared" si="1"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G109" s="29"/>
-      <c r="H109" s="28"/>
-      <c r="I109" s="28"/>
+      <c r="G109" s="33"/>
+      <c r="H109" s="31"/>
+      <c r="I109" s="31"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A110" s="31"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="37"/>
+      <c r="B110" s="32"/>
       <c r="C110" s="7">
         <v>2</v>
       </c>
@@ -4181,13 +4858,13 @@
         <f t="shared" si="1"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G110" s="29"/>
-      <c r="H110" s="28"/>
-      <c r="I110" s="28"/>
+      <c r="G110" s="33"/>
+      <c r="H110" s="31"/>
+      <c r="I110" s="31"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="31"/>
-      <c r="B111" s="30"/>
+      <c r="A111" s="37"/>
+      <c r="B111" s="32"/>
       <c r="C111" s="7">
         <v>2</v>
       </c>
@@ -4198,13 +4875,13 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G111" s="29"/>
-      <c r="H111" s="28"/>
-      <c r="I111" s="28"/>
+      <c r="G111" s="33"/>
+      <c r="H111" s="31"/>
+      <c r="I111" s="31"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="31"/>
-      <c r="B112" s="30"/>
+      <c r="A112" s="37"/>
+      <c r="B112" s="32"/>
       <c r="C112" s="7">
         <v>3</v>
       </c>
@@ -4215,13 +4892,13 @@
         <f t="shared" si="1"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G112" s="29"/>
-      <c r="H112" s="28"/>
-      <c r="I112" s="28"/>
+      <c r="G112" s="33"/>
+      <c r="H112" s="31"/>
+      <c r="I112" s="31"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="31"/>
-      <c r="B113" s="30"/>
+      <c r="A113" s="37"/>
+      <c r="B113" s="32"/>
       <c r="C113" s="7">
         <v>3</v>
       </c>
@@ -4232,13 +4909,13 @@
         <f t="shared" si="1"/>
         <v>1.0667999929591201</v>
       </c>
-      <c r="G113" s="29"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
+      <c r="G113" s="33"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A114" s="31"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="37"/>
+      <c r="B114" s="32"/>
       <c r="C114" s="7">
         <v>4</v>
       </c>
@@ -4249,13 +4926,13 @@
         <f t="shared" si="1"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G114" s="29"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
+      <c r="G114" s="33"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="31"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="37"/>
+      <c r="B115" s="32"/>
       <c r="C115" s="7">
         <v>4</v>
       </c>
@@ -4266,34 +4943,713 @@
         <f t="shared" si="1"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G115" s="29"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
+      <c r="G115" s="33"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="33">
+        <v>2016</v>
+      </c>
+      <c r="B116" s="36">
+        <v>42493</v>
+      </c>
+      <c r="C116" s="29">
+        <v>1</v>
+      </c>
+      <c r="D116" s="11">
+        <v>14</v>
+      </c>
+      <c r="E116" s="12">
+        <f t="shared" si="1"/>
+        <v>0.35559999765304007</v>
+      </c>
+      <c r="G116" s="32">
+        <v>42493</v>
+      </c>
+      <c r="H116" s="31">
+        <f>AVERAGE(E116:E119)</f>
+        <v>0.32702499784163502</v>
+      </c>
+      <c r="I116" s="31">
+        <f>STDEV(E116:E119)</f>
+        <v>4.1961281479773668E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="33"/>
+      <c r="B117" s="36"/>
+      <c r="C117" s="29">
+        <v>2</v>
+      </c>
+      <c r="D117" s="11">
+        <v>12</v>
+      </c>
+      <c r="E117" s="12">
+        <f t="shared" si="1"/>
+        <v>0.30479999798832003</v>
+      </c>
+      <c r="G117" s="32"/>
+      <c r="H117" s="31"/>
+      <c r="I117" s="31"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="33"/>
+      <c r="B118" s="36"/>
+      <c r="C118" s="29">
+        <v>3</v>
+      </c>
+      <c r="D118" s="11">
+        <v>14.5</v>
+      </c>
+      <c r="E118" s="12">
+        <f t="shared" si="1"/>
+        <v>0.36829999756922005</v>
+      </c>
+      <c r="G118" s="32"/>
+      <c r="H118" s="31"/>
+      <c r="I118" s="31"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119" s="33"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="29">
+        <v>4</v>
+      </c>
+      <c r="D119" s="11">
+        <v>11</v>
+      </c>
+      <c r="E119" s="12">
+        <f t="shared" si="1"/>
+        <v>0.27939999815596006</v>
+      </c>
+      <c r="G119" s="32"/>
+      <c r="H119" s="31"/>
+      <c r="I119" s="31"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120" s="33"/>
+      <c r="B120" s="32">
+        <v>42504</v>
+      </c>
+      <c r="C120" s="28">
+        <v>1</v>
+      </c>
+      <c r="D120" s="2">
+        <v>22</v>
+      </c>
+      <c r="E120" s="1">
+        <f t="shared" si="1"/>
+        <v>0.55879999631192012</v>
+      </c>
+      <c r="G120" s="32">
+        <v>42504</v>
+      </c>
+      <c r="H120" s="31">
+        <f>AVERAGE(E120:E123)</f>
+        <v>0.52069999656338006</v>
+      </c>
+      <c r="I120" s="31">
+        <f>STDEV(E120:E123)</f>
+        <v>3.2791258781467172E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121" s="33"/>
+      <c r="B121" s="32"/>
+      <c r="C121" s="28">
+        <v>2</v>
+      </c>
+      <c r="D121" s="2">
+        <v>19</v>
+      </c>
+      <c r="E121" s="1">
+        <f t="shared" si="1"/>
+        <v>0.48259999681484006</v>
+      </c>
+      <c r="G121" s="32"/>
+      <c r="H121" s="31"/>
+      <c r="I121" s="31"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="33"/>
+      <c r="B122" s="32"/>
+      <c r="C122" s="28">
+        <v>3</v>
+      </c>
+      <c r="D122" s="2">
+        <v>21</v>
+      </c>
+      <c r="E122" s="1">
+        <f t="shared" si="1"/>
+        <v>0.53339999647956005</v>
+      </c>
+      <c r="G122" s="32"/>
+      <c r="H122" s="31"/>
+      <c r="I122" s="31"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="33"/>
+      <c r="B123" s="32"/>
+      <c r="C123" s="28">
+        <v>4</v>
+      </c>
+      <c r="D123" s="2">
+        <v>20</v>
+      </c>
+      <c r="E123" s="1">
+        <f t="shared" si="1"/>
+        <v>0.50799999664720008</v>
+      </c>
+      <c r="G123" s="32"/>
+      <c r="H123" s="31"/>
+      <c r="I123" s="31"/>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="33"/>
+      <c r="B124" s="36">
+        <v>42516</v>
+      </c>
+      <c r="C124" s="29">
+        <v>1</v>
+      </c>
+      <c r="D124" s="11">
+        <v>24</v>
+      </c>
+      <c r="E124" s="12">
+        <f t="shared" si="1"/>
+        <v>0.60959999597664005</v>
+      </c>
+      <c r="G124" s="32">
+        <v>42516</v>
+      </c>
+      <c r="H124" s="31">
+        <f t="shared" ref="H124" si="2">AVERAGE(E124:E127)</f>
+        <v>0.64134999576709018</v>
+      </c>
+      <c r="I124" s="31">
+        <f t="shared" ref="I124" si="3">STDEV(E124:E127)</f>
+        <v>3.1960965565037122E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125" s="33"/>
+      <c r="B125" s="36"/>
+      <c r="C125" s="29">
+        <v>2</v>
+      </c>
+      <c r="D125" s="11">
+        <v>25</v>
+      </c>
+      <c r="E125" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G125" s="32"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126" s="33"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="29">
+        <v>3</v>
+      </c>
+      <c r="D126" s="11">
+        <v>25</v>
+      </c>
+      <c r="E126" s="12">
+        <f t="shared" si="1"/>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G126" s="32"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="31"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="33"/>
+      <c r="B127" s="36"/>
+      <c r="C127" s="29">
+        <v>4</v>
+      </c>
+      <c r="D127" s="11">
+        <v>27</v>
+      </c>
+      <c r="E127" s="12">
+        <f t="shared" si="1"/>
+        <v>0.68579999547372006</v>
+      </c>
+      <c r="G127" s="32"/>
+      <c r="H127" s="31"/>
+      <c r="I127" s="31"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="33"/>
+      <c r="B128" s="32">
+        <v>42529</v>
+      </c>
+      <c r="C128" s="28">
+        <v>1</v>
+      </c>
+      <c r="D128" s="2">
+        <v>38</v>
+      </c>
+      <c r="E128" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96519999362968012</v>
+      </c>
+      <c r="G128" s="32">
+        <v>42529</v>
+      </c>
+      <c r="H128" s="31">
+        <f t="shared" ref="H128" si="4">AVERAGE(E128:E131)</f>
+        <v>0.95884999367159018</v>
+      </c>
+      <c r="I128" s="31">
+        <f t="shared" ref="I128" si="5">STDEV(E128:E131)</f>
+        <v>7.2955945129523705E-2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="33"/>
+      <c r="B129" s="32"/>
+      <c r="C129" s="28">
+        <v>2</v>
+      </c>
+      <c r="D129" s="2">
+        <v>38</v>
+      </c>
+      <c r="E129" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96519999362968012</v>
+      </c>
+      <c r="G129" s="32"/>
+      <c r="H129" s="31"/>
+      <c r="I129" s="31"/>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A130" s="33"/>
+      <c r="B130" s="32"/>
+      <c r="C130" s="28">
+        <v>3</v>
+      </c>
+      <c r="D130" s="2">
+        <v>41</v>
+      </c>
+      <c r="E130" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0413999931267601</v>
+      </c>
+      <c r="G130" s="32"/>
+      <c r="H130" s="31"/>
+      <c r="I130" s="31"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A131" s="33"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="28">
+        <v>4</v>
+      </c>
+      <c r="D131" s="2">
+        <v>34</v>
+      </c>
+      <c r="E131" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86359999430024015</v>
+      </c>
+      <c r="G131" s="32"/>
+      <c r="H131" s="31"/>
+      <c r="I131" s="31"/>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A132" s="33"/>
+      <c r="B132" s="36">
+        <v>42543</v>
+      </c>
+      <c r="C132" s="29">
+        <v>1</v>
+      </c>
+      <c r="D132" s="11">
+        <v>40</v>
+      </c>
+      <c r="E132" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0159999932944002</v>
+      </c>
+      <c r="G132" s="32">
+        <v>42543</v>
+      </c>
+      <c r="H132" s="31">
+        <f t="shared" ref="H132" si="6">AVERAGE(E132:E135)</f>
+        <v>1.0032999933782203</v>
+      </c>
+      <c r="I132" s="31">
+        <f t="shared" ref="I132" si="7">STDEV(E132:E135)</f>
+        <v>2.5399999832360024E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="33"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="29">
+        <v>2</v>
+      </c>
+      <c r="D133" s="11">
+        <v>38</v>
+      </c>
+      <c r="E133" s="12">
+        <f t="shared" si="1"/>
+        <v>0.96519999362968012</v>
+      </c>
+      <c r="G133" s="32"/>
+      <c r="H133" s="31"/>
+      <c r="I133" s="31"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A134" s="33"/>
+      <c r="B134" s="36"/>
+      <c r="C134" s="29">
+        <v>3</v>
+      </c>
+      <c r="D134" s="11">
+        <v>40</v>
+      </c>
+      <c r="E134" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0159999932944002</v>
+      </c>
+      <c r="G134" s="32"/>
+      <c r="H134" s="31"/>
+      <c r="I134" s="31"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="33"/>
+      <c r="B135" s="36"/>
+      <c r="C135" s="29">
+        <v>4</v>
+      </c>
+      <c r="D135" s="11">
+        <v>40</v>
+      </c>
+      <c r="E135" s="12">
+        <f t="shared" si="1"/>
+        <v>1.0159999932944002</v>
+      </c>
+      <c r="G135" s="32"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="33"/>
+      <c r="B136" s="32">
+        <v>42557</v>
+      </c>
+      <c r="C136" s="28">
+        <v>1</v>
+      </c>
+      <c r="D136" s="2">
+        <v>42</v>
+      </c>
+      <c r="E136" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0667999929591201</v>
+      </c>
+      <c r="G136" s="32">
+        <v>42557</v>
+      </c>
+      <c r="H136" s="31">
+        <f t="shared" ref="H136" si="8">AVERAGE(E136:E139)</f>
+        <v>0.97154999358777006</v>
+      </c>
+      <c r="I136" s="31">
+        <f t="shared" ref="I136" si="9">STDEV(E136:E139)</f>
+        <v>9.8100135268177208E-2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="33"/>
+      <c r="B137" s="32"/>
+      <c r="C137" s="28">
+        <v>2</v>
+      </c>
+      <c r="D137" s="2">
+        <v>40</v>
+      </c>
+      <c r="E137" s="1">
+        <f t="shared" si="1"/>
+        <v>1.0159999932944002</v>
+      </c>
+      <c r="G137" s="32"/>
+      <c r="H137" s="31"/>
+      <c r="I137" s="31"/>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A138" s="33"/>
+      <c r="B138" s="32"/>
+      <c r="C138" s="28">
+        <v>3</v>
+      </c>
+      <c r="D138" s="2">
+        <v>33</v>
+      </c>
+      <c r="E138" s="1">
+        <f t="shared" si="1"/>
+        <v>0.83819999446788007</v>
+      </c>
+      <c r="G138" s="32"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A139" s="33"/>
+      <c r="B139" s="32"/>
+      <c r="C139" s="28">
+        <v>4</v>
+      </c>
+      <c r="D139" s="2">
+        <v>38</v>
+      </c>
+      <c r="E139" s="1">
+        <f t="shared" si="1"/>
+        <v>0.96519999362968012</v>
+      </c>
+      <c r="G139" s="32"/>
+      <c r="H139" s="31"/>
+      <c r="I139" s="31"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A140" s="33"/>
+      <c r="B140" s="36">
+        <v>42578</v>
+      </c>
+      <c r="C140" s="29">
+        <v>1</v>
+      </c>
+      <c r="D140" s="11">
+        <v>33</v>
+      </c>
+      <c r="E140" s="12">
+        <f t="shared" si="1"/>
+        <v>0.83819999446788007</v>
+      </c>
+      <c r="G140" s="32">
+        <v>42578</v>
+      </c>
+      <c r="H140" s="31">
+        <f t="shared" ref="H140" si="10">AVERAGE(E140:E143)</f>
+        <v>0.9016999940487801</v>
+      </c>
+      <c r="I140" s="31">
+        <f t="shared" ref="I140" si="11">STDEV(E140:E143)</f>
+        <v>4.3994090221888514E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A141" s="33"/>
+      <c r="B141" s="36"/>
+      <c r="C141" s="29">
+        <v>2</v>
+      </c>
+      <c r="D141" s="11">
+        <v>36</v>
+      </c>
+      <c r="E141" s="12">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G141" s="32"/>
+      <c r="H141" s="31"/>
+      <c r="I141" s="31"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="33"/>
+      <c r="B142" s="36"/>
+      <c r="C142" s="29">
+        <v>3</v>
+      </c>
+      <c r="D142" s="11">
+        <v>36</v>
+      </c>
+      <c r="E142" s="12">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G142" s="32"/>
+      <c r="H142" s="31"/>
+      <c r="I142" s="31"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="33"/>
+      <c r="B143" s="36"/>
+      <c r="C143" s="29">
+        <v>4</v>
+      </c>
+      <c r="D143" s="11">
+        <v>37</v>
+      </c>
+      <c r="E143" s="12">
+        <f t="shared" si="1"/>
+        <v>0.93979999379732015</v>
+      </c>
+      <c r="G143" s="32"/>
+      <c r="H143" s="31"/>
+      <c r="I143" s="31"/>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A144" s="33"/>
+      <c r="B144" s="32">
+        <v>42585</v>
+      </c>
+      <c r="C144" s="28">
+        <v>1</v>
+      </c>
+      <c r="D144" s="2">
+        <v>39</v>
+      </c>
+      <c r="E144" s="1">
+        <f t="shared" si="1"/>
+        <v>0.99059999346204008</v>
+      </c>
+      <c r="G144" s="32">
+        <v>42585</v>
+      </c>
+      <c r="H144" s="31">
+        <f t="shared" ref="H144" si="12">AVERAGE(E144:E147)</f>
+        <v>0.89534999409069016</v>
+      </c>
+      <c r="I144" s="31">
+        <f t="shared" ref="I144" si="13">STDEV(E144:E147)</f>
+        <v>7.5846401303762148E-2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145" s="33"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="28">
+        <v>2</v>
+      </c>
+      <c r="D145" s="2">
+        <v>36</v>
+      </c>
+      <c r="E145" s="1">
+        <f t="shared" si="1"/>
+        <v>0.91439999396496008</v>
+      </c>
+      <c r="G145" s="32"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146" s="33"/>
+      <c r="B146" s="32"/>
+      <c r="C146" s="28">
+        <v>3</v>
+      </c>
+      <c r="D146" s="2">
+        <v>32</v>
+      </c>
+      <c r="E146" s="1">
+        <f t="shared" si="1"/>
+        <v>0.81279999463552011</v>
+      </c>
+      <c r="G146" s="32"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="33"/>
+      <c r="B147" s="32"/>
+      <c r="C147" s="28">
+        <v>4</v>
+      </c>
+      <c r="D147" s="2">
+        <v>34</v>
+      </c>
+      <c r="E147" s="1">
+        <f t="shared" si="1"/>
+        <v>0.86359999430024015</v>
+      </c>
+      <c r="G147" s="32"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="B2:B23"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="G2:G23"/>
-    <mergeCell ref="H2:H23"/>
-    <mergeCell ref="I2:I23"/>
-    <mergeCell ref="C7:C13"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="A64:A81"/>
-    <mergeCell ref="B64:B71"/>
-    <mergeCell ref="C64:C71"/>
-    <mergeCell ref="G64:G71"/>
-    <mergeCell ref="H64:H71"/>
-    <mergeCell ref="B72:B79"/>
-    <mergeCell ref="C72:C79"/>
-    <mergeCell ref="G72:G79"/>
-    <mergeCell ref="H72:H79"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
+  <mergeCells count="113">
+    <mergeCell ref="H140:H143"/>
+    <mergeCell ref="I140:I143"/>
+    <mergeCell ref="H144:H147"/>
+    <mergeCell ref="I144:I147"/>
+    <mergeCell ref="H128:H131"/>
+    <mergeCell ref="I128:I131"/>
+    <mergeCell ref="H132:H135"/>
+    <mergeCell ref="I132:I135"/>
+    <mergeCell ref="H136:H139"/>
+    <mergeCell ref="I136:I139"/>
+    <mergeCell ref="H116:H119"/>
+    <mergeCell ref="I116:I119"/>
+    <mergeCell ref="H120:H123"/>
+    <mergeCell ref="I120:I123"/>
+    <mergeCell ref="H124:H127"/>
+    <mergeCell ref="I124:I127"/>
+    <mergeCell ref="G116:G119"/>
+    <mergeCell ref="G120:G123"/>
+    <mergeCell ref="G124:G127"/>
+    <mergeCell ref="G128:G131"/>
+    <mergeCell ref="G132:G135"/>
+    <mergeCell ref="G136:G139"/>
+    <mergeCell ref="G140:G143"/>
+    <mergeCell ref="G144:G147"/>
+    <mergeCell ref="A116:A147"/>
+    <mergeCell ref="B116:B119"/>
+    <mergeCell ref="B120:B123"/>
+    <mergeCell ref="B124:B127"/>
+    <mergeCell ref="B128:B131"/>
+    <mergeCell ref="B132:B135"/>
+    <mergeCell ref="B136:B139"/>
+    <mergeCell ref="B140:B143"/>
+    <mergeCell ref="B144:B147"/>
+    <mergeCell ref="A83:A99"/>
+    <mergeCell ref="B26:B63"/>
+    <mergeCell ref="A2:A63"/>
+    <mergeCell ref="F72:F75"/>
+    <mergeCell ref="F76:F79"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:C82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="C55:C63"/>
+    <mergeCell ref="C46:C54"/>
+    <mergeCell ref="C39:C45"/>
+    <mergeCell ref="I72:I79"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="I64:I71"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="H81:H82"/>
+    <mergeCell ref="I81:I82"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="C26:C38"/>
+    <mergeCell ref="G26:G63"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="H26:H63"/>
+    <mergeCell ref="I26:I63"/>
+    <mergeCell ref="G92:G95"/>
+    <mergeCell ref="H92:H95"/>
+    <mergeCell ref="I92:I95"/>
+    <mergeCell ref="A100:A115"/>
+    <mergeCell ref="B100:B103"/>
+    <mergeCell ref="G100:G103"/>
+    <mergeCell ref="H100:H103"/>
+    <mergeCell ref="I100:I103"/>
+    <mergeCell ref="B104:B107"/>
+    <mergeCell ref="G104:G107"/>
+    <mergeCell ref="H104:H107"/>
+    <mergeCell ref="I104:I107"/>
+    <mergeCell ref="B108:B115"/>
+    <mergeCell ref="G108:G115"/>
+    <mergeCell ref="H108:H115"/>
+    <mergeCell ref="I108:I115"/>
     <mergeCell ref="B96:B99"/>
     <mergeCell ref="G96:G99"/>
     <mergeCell ref="H96:H99"/>
@@ -4310,48 +5666,28 @@
     <mergeCell ref="C86:C87"/>
     <mergeCell ref="B92:B95"/>
     <mergeCell ref="C92:C95"/>
-    <mergeCell ref="G92:G95"/>
-    <mergeCell ref="H92:H95"/>
-    <mergeCell ref="I92:I95"/>
-    <mergeCell ref="A100:A115"/>
-    <mergeCell ref="B100:B103"/>
-    <mergeCell ref="G100:G103"/>
-    <mergeCell ref="H100:H103"/>
-    <mergeCell ref="I100:I103"/>
-    <mergeCell ref="B104:B107"/>
-    <mergeCell ref="G104:G107"/>
-    <mergeCell ref="H104:H107"/>
-    <mergeCell ref="I104:I107"/>
-    <mergeCell ref="B108:B115"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="C26:C38"/>
-    <mergeCell ref="G26:G63"/>
-    <mergeCell ref="G108:G115"/>
-    <mergeCell ref="H108:H115"/>
-    <mergeCell ref="I108:I115"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="I72:I79"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="I64:I71"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="H81:H82"/>
-    <mergeCell ref="I81:I82"/>
-    <mergeCell ref="A83:A99"/>
-    <mergeCell ref="B26:B63"/>
-    <mergeCell ref="A2:A63"/>
-    <mergeCell ref="F72:F75"/>
-    <mergeCell ref="F76:F79"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:C82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="C55:C63"/>
-    <mergeCell ref="C46:C54"/>
-    <mergeCell ref="C39:C45"/>
-    <mergeCell ref="H26:H63"/>
-    <mergeCell ref="I26:I63"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="A64:A81"/>
+    <mergeCell ref="B64:B71"/>
+    <mergeCell ref="C64:C71"/>
+    <mergeCell ref="G64:G71"/>
+    <mergeCell ref="H64:H71"/>
+    <mergeCell ref="B72:B79"/>
+    <mergeCell ref="C72:C79"/>
+    <mergeCell ref="G72:G79"/>
+    <mergeCell ref="H72:H79"/>
+    <mergeCell ref="B2:B23"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G2:G23"/>
+    <mergeCell ref="H2:H23"/>
+    <mergeCell ref="I2:I23"/>
+    <mergeCell ref="C7:C13"/>
+    <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C23"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4371,8 +5707,8 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4418,13 +5754,13 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="29">
+      <c r="A2" s="33">
         <v>2013</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="32">
         <v>41408</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="33">
         <v>1</v>
       </c>
       <c r="D2" s="2">
@@ -4434,23 +5770,23 @@
         <f>D2/39.370079</f>
         <v>1.3461999911150802</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="32">
         <f>B2</f>
         <v>41408</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="31">
         <f>AVERAGE(E2:E21)</f>
         <v>1.1683999922885602</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="31">
         <f>STDEV(E2:E21)</f>
         <v>0.12333772125108161</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="29"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="32"/>
+      <c r="C3" s="33"/>
       <c r="D3" s="2">
         <v>57</v>
       </c>
@@ -4458,14 +5794,14 @@
         <f t="shared" ref="E3:E54" si="0">D3/39.370079</f>
         <v>1.4477999904445202</v>
       </c>
-      <c r="G3" s="29"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="30"/>
-      <c r="C4" s="29"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="32"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="2">
         <v>50</v>
       </c>
@@ -4473,14 +5809,14 @@
         <f t="shared" si="0"/>
         <v>1.2699999916180003</v>
       </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="29"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="2">
         <v>53</v>
       </c>
@@ -4488,14 +5824,14 @@
         <f t="shared" si="0"/>
         <v>1.3461999911150802</v>
       </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="29"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="29"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="33"/>
       <c r="D6" s="2">
         <v>45</v>
       </c>
@@ -4503,14 +5839,14 @@
         <f t="shared" si="0"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G6" s="29"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="29"/>
-      <c r="B7" s="30"/>
-      <c r="C7" s="29">
+      <c r="A7" s="33"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="33">
         <v>2</v>
       </c>
       <c r="D7" s="2">
@@ -4520,14 +5856,14 @@
         <f t="shared" si="0"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="30"/>
-      <c r="C8" s="29"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="33"/>
       <c r="D8" s="2">
         <v>44</v>
       </c>
@@ -4535,14 +5871,14 @@
         <f t="shared" si="0"/>
         <v>1.1175999926238402</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="29"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
       <c r="D9" s="2">
         <v>39</v>
       </c>
@@ -4550,14 +5886,14 @@
         <f t="shared" si="0"/>
         <v>0.99059999346204008</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="30"/>
-      <c r="C10" s="29"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
       <c r="D10" s="2">
         <v>49</v>
       </c>
@@ -4565,14 +5901,14 @@
         <f t="shared" si="0"/>
         <v>1.2445999917856401</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="30"/>
-      <c r="C11" s="29"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
       <c r="D11" s="2">
         <v>46</v>
       </c>
@@ -4580,14 +5916,14 @@
         <f t="shared" si="0"/>
         <v>1.1683999922885602</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="30"/>
-      <c r="C12" s="29">
+      <c r="A12" s="33"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33">
         <v>3</v>
       </c>
       <c r="D12" s="2">
@@ -4597,14 +5933,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="29"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
       <c r="D13" s="2">
         <v>40</v>
       </c>
@@ -4612,14 +5948,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="30"/>
-      <c r="C14" s="29"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
       <c r="D14" s="2">
         <v>47</v>
       </c>
@@ -4627,14 +5963,14 @@
         <f t="shared" si="0"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
       <c r="D15" s="2">
         <v>43</v>
       </c>
@@ -4642,14 +5978,14 @@
         <f t="shared" si="0"/>
         <v>1.0921999927914801</v>
       </c>
-      <c r="G15" s="29"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="2">
         <v>45</v>
       </c>
@@ -4657,14 +5993,14 @@
         <f t="shared" si="0"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G16" s="29"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="29">
+      <c r="A17" s="33"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="33">
         <v>4</v>
       </c>
       <c r="D17" s="2">
@@ -4674,14 +6010,14 @@
         <f t="shared" si="0"/>
         <v>1.1175999926238402</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="29"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="33"/>
       <c r="D18" s="2">
         <v>45</v>
       </c>
@@ -4689,14 +6025,14 @@
         <f t="shared" si="0"/>
         <v>1.1429999924562002</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="2">
         <v>40</v>
       </c>
@@ -4704,14 +6040,14 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G19" s="29"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="28"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="29"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="2">
         <v>47</v>
       </c>
@@ -4719,14 +6055,14 @@
         <f t="shared" si="0"/>
         <v>1.1937999921209201</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="2">
         <v>50</v>
       </c>
@@ -4734,16 +6070,16 @@
         <f t="shared" si="0"/>
         <v>1.2699999916180003</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="29"/>
-      <c r="B22" s="32">
+      <c r="A22" s="33"/>
+      <c r="B22" s="36">
         <v>41476</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="11">
@@ -4753,23 +6089,23 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G22" s="30">
+      <c r="G22" s="32">
         <f>B22</f>
         <v>41476</v>
       </c>
-      <c r="H22" s="28">
+      <c r="H22" s="31">
         <f>AVERAGE(E22:E29)</f>
         <v>0.66357499562040501</v>
       </c>
-      <c r="I22" s="28">
+      <c r="I22" s="31">
         <f>STDEV(E22:E29)</f>
         <v>6.7116311178830254E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="29"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="31"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="36"/>
+      <c r="C23" s="37"/>
       <c r="D23" s="11">
         <v>24</v>
       </c>
@@ -4777,14 +6113,14 @@
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G23" s="30"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="29"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="37"/>
       <c r="D24" s="11">
         <v>27</v>
       </c>
@@ -4792,14 +6128,14 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G24" s="30"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="29"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="31"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="37"/>
       <c r="D25" s="11">
         <v>29</v>
       </c>
@@ -4807,14 +6143,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G25" s="30"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="29"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="11">
         <v>26</v>
       </c>
@@ -4822,14 +6158,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G26" s="30"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="28"/>
+      <c r="G26" s="32"/>
+      <c r="H26" s="31"/>
+      <c r="I26" s="31"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="29"/>
-      <c r="B27" s="32"/>
-      <c r="C27" s="31"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="37"/>
       <c r="D27" s="11">
         <v>23</v>
       </c>
@@ -4837,14 +6173,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G27" s="30"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="29"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="11">
         <v>27</v>
       </c>
@@ -4852,14 +6188,14 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G28" s="30"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="32"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="29"/>
-      <c r="B29" s="32"/>
-      <c r="C29" s="31"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="37"/>
       <c r="D29" s="11">
         <v>30</v>
       </c>
@@ -4867,16 +6203,16 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G29" s="30"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="29"/>
-      <c r="B30" s="30">
+      <c r="A30" s="33"/>
+      <c r="B30" s="32">
         <v>41487</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="33" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2">
@@ -4886,23 +6222,23 @@
         <f t="shared" si="0"/>
         <v>0.63499999580900013</v>
       </c>
-      <c r="G30" s="30">
+      <c r="G30" s="32">
         <f>B30</f>
         <v>41487</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="31">
         <f>AVERAGE(E30:E37)</f>
         <v>0.67627499553658499</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="31">
         <f>STDEV(E30:E37)</f>
         <v>5.4201310907379528E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="2">
         <v>27</v>
       </c>
@@ -4910,14 +6246,14 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="2">
         <v>26</v>
       </c>
@@ -4925,14 +6261,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="2">
         <v>28</v>
       </c>
@@ -4940,14 +6276,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G33" s="29"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="29"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="33"/>
       <c r="D34" s="2">
         <v>23</v>
       </c>
@@ -4955,14 +6291,14 @@
         <f t="shared" si="0"/>
         <v>0.58419999614428009</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="29"/>
-      <c r="B35" s="30"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="2">
         <v>26</v>
       </c>
@@ -4970,14 +6306,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="29"/>
-      <c r="B36" s="30"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="2">
         <v>30</v>
       </c>
@@ -4985,14 +6321,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="29"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="32"/>
+      <c r="C37" s="33"/>
       <c r="D37" s="2">
         <v>28</v>
       </c>
@@ -5000,15 +6336,15 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31">
+      <c r="A38" s="37">
         <v>2015</v>
       </c>
-      <c r="B38" s="32">
+      <c r="B38" s="36">
         <v>42082</v>
       </c>
       <c r="C38" s="11">
@@ -5021,25 +6357,25 @@
         <f t="shared" si="0"/>
         <v>0.17779999882652003</v>
       </c>
-      <c r="F38" s="34" t="s">
+      <c r="F38" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="G38" s="30">
+      <c r="G38" s="32">
         <f>B38</f>
         <v>42082</v>
       </c>
-      <c r="H38" s="28">
+      <c r="H38" s="31">
         <f>AVERAGE(E38:E40)</f>
         <v>0.17779999882652001</v>
       </c>
-      <c r="I38" s="28">
+      <c r="I38" s="31">
         <f>STDEV(E38:E40)</f>
         <v>2.5399999832360125E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="11">
         <v>2</v>
       </c>
@@ -5050,14 +6386,14 @@
         <f t="shared" si="0"/>
         <v>0.20319999865888003</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="11">
         <v>3</v>
       </c>
@@ -5068,14 +6404,14 @@
         <f t="shared" si="0"/>
         <v>0.15239999899416001</v>
       </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="28"/>
-      <c r="I40" s="28"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="31"/>
-      <c r="B41" s="30">
+      <c r="A41" s="37"/>
+      <c r="B41" s="32">
         <v>42191</v>
       </c>
       <c r="C41" s="7">
@@ -5088,22 +6424,22 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G41" s="30">
+      <c r="G41" s="32">
         <f>B41</f>
         <v>42191</v>
       </c>
-      <c r="H41" s="28">
+      <c r="H41" s="31">
         <f>AVERAGE(E41:E44)</f>
         <v>0.65404999568327016</v>
       </c>
-      <c r="I41" s="28">
+      <c r="I41" s="31">
         <f>STDEV(E41:E44)</f>
         <v>8.3922562959546004E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="31"/>
-      <c r="B42" s="30"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="32"/>
       <c r="C42" s="7">
         <v>2</v>
       </c>
@@ -5114,13 +6450,13 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="31"/>
-      <c r="B43" s="30"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="32"/>
       <c r="C43" s="7">
         <v>3</v>
       </c>
@@ -5131,13 +6467,13 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="31"/>
-      <c r="B44" s="30"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="32"/>
       <c r="C44" s="7">
         <v>4</v>
       </c>
@@ -5148,16 +6484,16 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G44" s="29"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="28"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="32">
+      <c r="A45" s="37"/>
+      <c r="B45" s="36">
         <v>42261</v>
       </c>
-      <c r="C45" s="31" t="s">
+      <c r="C45" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="11">
@@ -5167,22 +6503,22 @@
         <f t="shared" si="0"/>
         <v>0.60959999597664005</v>
       </c>
-      <c r="G45" s="30">
+      <c r="G45" s="32">
         <v>42261</v>
       </c>
-      <c r="H45" s="28">
+      <c r="H45" s="31">
         <f>AVERAGE(E45:E54)</f>
         <v>0.68579999547372006</v>
       </c>
-      <c r="I45" s="28">
+      <c r="I45" s="31">
         <f>STDEV(E45:E54)</f>
         <v>4.3171698263485707E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="32"/>
-      <c r="C46" s="31"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="37"/>
       <c r="D46" s="11">
         <v>27</v>
       </c>
@@ -5190,14 +6526,14 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="32"/>
-      <c r="C47" s="31"/>
+      <c r="A47" s="37"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="37"/>
       <c r="D47" s="11">
         <v>26</v>
       </c>
@@ -5205,14 +6541,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="32"/>
-      <c r="C48" s="31"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="37"/>
       <c r="D48" s="11">
         <v>26</v>
       </c>
@@ -5220,14 +6556,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G48" s="29"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="32"/>
-      <c r="C49" s="31"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="36"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="11">
         <v>28</v>
       </c>
@@ -5235,14 +6571,14 @@
         <f t="shared" si="0"/>
         <v>0.71119999530608013</v>
       </c>
-      <c r="G49" s="29"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="28"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="32"/>
-      <c r="C50" s="31"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="36"/>
+      <c r="C50" s="37"/>
       <c r="D50" s="11">
         <v>27</v>
       </c>
@@ -5250,14 +6586,14 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G50" s="29"/>
-      <c r="H50" s="28"/>
-      <c r="I50" s="28"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="32"/>
-      <c r="C51" s="31"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="36"/>
+      <c r="C51" s="37"/>
       <c r="D51" s="11">
         <v>26</v>
       </c>
@@ -5265,14 +6601,14 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="28"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="32"/>
-      <c r="C52" s="31"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="36"/>
+      <c r="C52" s="37"/>
       <c r="D52" s="11">
         <v>29</v>
       </c>
@@ -5280,14 +6616,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G52" s="29"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="28"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="31"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="32"/>
-      <c r="C53" s="31"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="37"/>
       <c r="D53" s="11">
         <v>30</v>
       </c>
@@ -5295,14 +6631,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G53" s="29"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="28"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="31"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="31"/>
+      <c r="A54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="37"/>
       <c r="D54" s="11">
         <v>27</v>
       </c>
@@ -5310,24 +6646,15 @@
         <f t="shared" si="0"/>
         <v>0.68579999547372006</v>
       </c>
-      <c r="G54" s="29"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="28"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="I45:I54"/>
-    <mergeCell ref="C45:C54"/>
-    <mergeCell ref="B45:B54"/>
-    <mergeCell ref="A38:A54"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="H45:H54"/>
-    <mergeCell ref="I41:I44"/>
-    <mergeCell ref="C30:C37"/>
-    <mergeCell ref="C22:C29"/>
-    <mergeCell ref="B2:B21"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="G2:G21"/>
+    <mergeCell ref="A2:A37"/>
+    <mergeCell ref="F38:F40"/>
+    <mergeCell ref="B38:B40"/>
     <mergeCell ref="H2:H21"/>
     <mergeCell ref="I2:I21"/>
     <mergeCell ref="G41:G44"/>
@@ -5338,18 +6665,27 @@
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="H38:H40"/>
     <mergeCell ref="I38:I40"/>
-    <mergeCell ref="B22:B29"/>
-    <mergeCell ref="B30:B37"/>
     <mergeCell ref="G22:G29"/>
     <mergeCell ref="H22:H29"/>
     <mergeCell ref="I22:I29"/>
     <mergeCell ref="G30:G37"/>
     <mergeCell ref="H30:H37"/>
     <mergeCell ref="I30:I37"/>
+    <mergeCell ref="C30:C37"/>
+    <mergeCell ref="C22:C29"/>
+    <mergeCell ref="B2:B21"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G2:G21"/>
+    <mergeCell ref="B22:B29"/>
+    <mergeCell ref="B30:B37"/>
+    <mergeCell ref="I45:I54"/>
+    <mergeCell ref="C45:C54"/>
+    <mergeCell ref="B45:B54"/>
+    <mergeCell ref="A38:A54"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="H45:H54"/>
+    <mergeCell ref="I41:I44"/>
     <mergeCell ref="B41:B44"/>
-    <mergeCell ref="A2:A37"/>
-    <mergeCell ref="F38:F40"/>
-    <mergeCell ref="B38:B40"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5366,11 +6702,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76:G79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5416,39 +6752,39 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="37">
+      <c r="A2" s="41">
         <v>2013</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="40">
         <v>41470</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D2" s="25">
         <v>34</v>
       </c>
       <c r="E2" s="26">
-        <f t="shared" ref="E2:E47" si="0">D2/39.370079</f>
+        <f t="shared" ref="E2:E65" si="0">D2/39.370079</f>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G2" s="30">
+      <c r="G2" s="32">
         <f>B2</f>
         <v>41470</v>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="31">
         <f>AVERAGE(E2:E6)</f>
         <v>0.80771999466904809</v>
       </c>
-      <c r="I2" s="28">
+      <c r="I2" s="31">
         <f>STDEV(E2:E6)</f>
         <v>4.8857875194183241E-2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="37"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="37"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="41"/>
       <c r="D3" s="25">
         <v>33</v>
       </c>
@@ -5456,14 +6792,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
-      <c r="C4" s="37"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="25">
         <v>29</v>
       </c>
@@ -5471,14 +6807,14 @@
         <f t="shared" si="0"/>
         <v>0.7365999951384401</v>
       </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="37"/>
-      <c r="B5" s="38"/>
-      <c r="C5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="25">
         <v>31</v>
       </c>
@@ -5486,14 +6822,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G5" s="30"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="37"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="37"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="40"/>
+      <c r="C6" s="41"/>
       <c r="D6" s="25">
         <v>32</v>
       </c>
@@ -5501,16 +6837,16 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G6" s="30"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="37"/>
-      <c r="B7" s="32">
+      <c r="A7" s="41"/>
+      <c r="B7" s="36">
         <v>41487</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="37" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="11">
@@ -5520,23 +6856,23 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G7" s="30">
+      <c r="G7" s="32">
         <f>B7</f>
         <v>41487</v>
       </c>
-      <c r="H7" s="28">
+      <c r="H7" s="31">
         <f>AVERAGE(E7:E14)</f>
         <v>0.81597499461456513</v>
       </c>
-      <c r="I7" s="28">
+      <c r="I7" s="31">
         <f>STDEV(E7:E14)</f>
         <v>2.8600187123312679E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="37"/>
-      <c r="B8" s="32"/>
-      <c r="C8" s="31"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="36"/>
+      <c r="C8" s="37"/>
       <c r="D8" s="11">
         <v>33</v>
       </c>
@@ -5544,14 +6880,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="37"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="37"/>
       <c r="D9" s="11">
         <v>31</v>
       </c>
@@ -5559,14 +6895,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="37"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="31"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="37"/>
       <c r="D10" s="11">
         <v>32</v>
       </c>
@@ -5574,14 +6910,14 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="37"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="31"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="37"/>
       <c r="D11" s="11">
         <v>33</v>
       </c>
@@ -5589,14 +6925,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="37"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="31"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="37"/>
       <c r="D12" s="11">
         <v>34</v>
       </c>
@@ -5604,14 +6940,14 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="37"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="31"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="36"/>
+      <c r="C13" s="37"/>
       <c r="D13" s="11">
         <v>31</v>
       </c>
@@ -5619,14 +6955,14 @@
         <f t="shared" si="0"/>
         <v>0.78739999480316014</v>
       </c>
-      <c r="G13" s="29"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="37"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="31"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="37"/>
       <c r="D14" s="11">
         <v>32</v>
       </c>
@@ -5634,16 +6970,16 @@
         <f t="shared" si="0"/>
         <v>0.81279999463552011</v>
       </c>
-      <c r="G14" s="29"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="37"/>
-      <c r="B15" s="38">
+      <c r="A15" s="41"/>
+      <c r="B15" s="40">
         <v>41492</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="41" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="25">
@@ -5653,23 +6989,23 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G15" s="30">
+      <c r="G15" s="32">
         <f>B15</f>
         <v>41492</v>
       </c>
-      <c r="H15" s="28">
+      <c r="H15" s="31">
         <f>AVERAGE(E15:E18)</f>
         <v>0.83819999446788018</v>
       </c>
-      <c r="I15" s="28">
+      <c r="I15" s="31">
         <f>STDEV(E15:E18)</f>
         <v>5.487027088437612E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="37"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="37"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="41"/>
       <c r="D16" s="25">
         <v>30</v>
       </c>
@@ -5677,14 +7013,14 @@
         <f t="shared" si="0"/>
         <v>0.76199999497080007</v>
       </c>
-      <c r="G16" s="30"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="37"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="41"/>
       <c r="D17" s="25">
         <v>33</v>
       </c>
@@ -5692,14 +7028,14 @@
         <f t="shared" si="0"/>
         <v>0.83819999446788007</v>
       </c>
-      <c r="G17" s="29"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="37"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="41"/>
       <c r="D18" s="25">
         <v>35</v>
       </c>
@@ -5707,15 +7043,15 @@
         <f t="shared" si="0"/>
         <v>0.88899999413260011</v>
       </c>
-      <c r="G18" s="29"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="37">
         <v>2014</v>
       </c>
-      <c r="B19" s="32">
+      <c r="B19" s="36">
         <v>41813</v>
       </c>
       <c r="C19" s="17">
@@ -5728,22 +7064,22 @@
         <f t="shared" si="0"/>
         <v>0.31749999790450006</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="32">
         <f>B19</f>
         <v>41813</v>
       </c>
-      <c r="H19" s="28">
+      <c r="H19" s="31">
         <f>AVERAGE(E19:E25)</f>
         <v>0.24855714121666578</v>
       </c>
-      <c r="I19" s="28">
+      <c r="I19" s="31">
         <f>STDEV(E19:E25)</f>
         <v>5.0724348096810923E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
+      <c r="A20" s="37"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="17">
         <v>2</v>
       </c>
@@ -5754,13 +7090,13 @@
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="G20" s="29"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="31"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="31"/>
-      <c r="B21" s="32"/>
+      <c r="A21" s="37"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="17">
         <v>3</v>
       </c>
@@ -5771,13 +7107,13 @@
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="31"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
+      <c r="A22" s="37"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="17">
         <v>4</v>
       </c>
@@ -5788,13 +7124,13 @@
         <f t="shared" si="0"/>
         <v>0.15239999899416001</v>
       </c>
-      <c r="G22" s="29"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
+      <c r="G22" s="33"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="31"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="32"/>
+      <c r="A23" s="37"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="17" t="s">
         <v>18</v>
       </c>
@@ -5805,13 +7141,13 @@
         <f t="shared" si="0"/>
         <v>0.27939999815596006</v>
       </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="31"/>
+      <c r="I23" s="31"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
+      <c r="A24" s="37"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="17" t="s">
         <v>19</v>
       </c>
@@ -5822,13 +7158,13 @@
         <f t="shared" si="0"/>
         <v>0.22859999849124002</v>
       </c>
-      <c r="G24" s="29"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="31"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="32"/>
+      <c r="A25" s="37"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="17" t="s">
         <v>20</v>
       </c>
@@ -5839,13 +7175,13 @@
         <f t="shared" si="0"/>
         <v>0.25399999832360004</v>
       </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="31"/>
-      <c r="B26" s="38">
+      <c r="A26" s="37"/>
+      <c r="B26" s="40">
         <v>41828</v>
       </c>
       <c r="C26" s="27">
@@ -5858,22 +7194,22 @@
         <f t="shared" si="0"/>
         <v>0.53339999647956005</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="32">
         <f>B26</f>
         <v>41828</v>
       </c>
-      <c r="H26" s="28">
+      <c r="H26" s="31">
         <f>AVERAGE(E26:E32)</f>
         <v>0.36648571186690859</v>
       </c>
-      <c r="I26" s="28">
+      <c r="I26" s="31">
         <f>STDEV(E26:E32)</f>
         <v>0.1096004772039923</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="37"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="27">
         <v>2</v>
       </c>
@@ -5884,13 +7220,13 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="31"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="37"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="27">
         <v>3</v>
       </c>
@@ -5901,13 +7237,13 @@
         <f t="shared" si="0"/>
         <v>0.38099999748540003</v>
       </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="27">
         <v>4</v>
       </c>
@@ -5918,13 +7254,13 @@
         <f t="shared" si="0"/>
         <v>0.27939999815596006</v>
       </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="37"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="27" t="s">
         <v>18</v>
       </c>
@@ -5935,13 +7271,13 @@
         <f t="shared" si="0"/>
         <v>0.35559999765304007</v>
       </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="31"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="37"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="27" t="s">
         <v>19</v>
       </c>
@@ -5952,13 +7288,13 @@
         <f t="shared" si="0"/>
         <v>0.22859999849124002</v>
       </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="28"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="31"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="31"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="37"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="27" t="s">
         <v>20</v>
       </c>
@@ -5969,13 +7305,13 @@
         <f t="shared" si="0"/>
         <v>0.30479999798832003</v>
       </c>
-      <c r="G32" s="29"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="31"/>
-      <c r="B33" s="32">
+      <c r="A33" s="37"/>
+      <c r="B33" s="36">
         <v>41844</v>
       </c>
       <c r="C33" s="17">
@@ -5988,22 +7324,22 @@
         <f t="shared" si="0"/>
         <v>0.66039999564136009</v>
       </c>
-      <c r="G33" s="30">
+      <c r="G33" s="32">
         <f>B33</f>
         <v>41844</v>
       </c>
-      <c r="H33" s="28">
+      <c r="H33" s="31">
         <f>AVERAGE(E33:E39)</f>
         <v>0.41184285442469432</v>
       </c>
-      <c r="I33" s="28">
+      <c r="I33" s="31">
         <f>STDEV(E33:E39)</f>
         <v>0.13909392247121191</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="37"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="17">
         <v>2</v>
       </c>
@@ -6014,13 +7350,13 @@
         <f t="shared" si="0"/>
         <v>0.48259999681484006</v>
       </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="31"/>
-      <c r="B35" s="32"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="17">
         <v>3</v>
       </c>
@@ -6031,13 +7367,13 @@
         <f t="shared" si="0"/>
         <v>0.40639999731776005</v>
       </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="28"/>
-      <c r="I35" s="28"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="31"/>
-      <c r="B36" s="32"/>
+      <c r="A36" s="37"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="17">
         <v>4</v>
       </c>
@@ -6048,13 +7384,13 @@
         <f t="shared" si="0"/>
         <v>0.24129999840742003</v>
       </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="28"/>
-      <c r="I36" s="28"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="31"/>
-      <c r="B37" s="32"/>
+      <c r="A37" s="37"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="17" t="s">
         <v>18</v>
       </c>
@@ -6065,13 +7401,13 @@
         <f t="shared" si="0"/>
         <v>0.45719999698248004</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="28"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="31"/>
-      <c r="B38" s="32"/>
+      <c r="A38" s="37"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="17" t="s">
         <v>19</v>
       </c>
@@ -6082,13 +7418,13 @@
         <f t="shared" si="0"/>
         <v>0.30479999798832003</v>
       </c>
-      <c r="G38" s="29"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="28"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="31"/>
-      <c r="B39" s="32"/>
+      <c r="A39" s="37"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="17" t="s">
         <v>20</v>
       </c>
@@ -6099,15 +7435,15 @@
         <f t="shared" si="0"/>
         <v>0.33019999782068005</v>
       </c>
-      <c r="G39" s="29"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="28"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
+      <c r="A40" s="41">
         <v>2015</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40" s="40">
         <v>42191</v>
       </c>
       <c r="C40" s="27">
@@ -6120,22 +7456,22 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G40" s="30">
+      <c r="G40" s="32">
         <f>B40</f>
         <v>42191</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="31">
         <f>AVERAGE(E40:E43)</f>
         <v>0.9461499937554102</v>
       </c>
-      <c r="I40" s="28">
+      <c r="I40" s="31">
         <f>STDEV(E40:E43)</f>
         <v>4.8081423677104954E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="37"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="40"/>
       <c r="C41" s="27">
         <v>2</v>
       </c>
@@ -6146,13 +7482,13 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G41" s="30"/>
-      <c r="H41" s="28"/>
-      <c r="I41" s="28"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="37"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="40"/>
       <c r="C42" s="27">
         <v>3</v>
       </c>
@@ -6163,13 +7499,13 @@
         <f t="shared" si="0"/>
         <v>1.0159999932944002</v>
       </c>
-      <c r="G42" s="29"/>
-      <c r="H42" s="28"/>
-      <c r="I42" s="28"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="37"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="41"/>
+      <c r="B43" s="40"/>
       <c r="C43" s="27">
         <v>4</v>
       </c>
@@ -6180,13 +7516,13 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G43" s="29"/>
-      <c r="H43" s="28"/>
-      <c r="I43" s="28"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="37"/>
-      <c r="B44" s="32">
+      <c r="A44" s="41"/>
+      <c r="B44" s="36">
         <v>42205</v>
       </c>
       <c r="C44" s="17">
@@ -6199,22 +7535,22 @@
         <f t="shared" si="0"/>
         <v>0.91439999396496008</v>
       </c>
-      <c r="G44" s="30">
+      <c r="G44" s="32">
         <f>B44</f>
         <v>42205</v>
       </c>
-      <c r="H44" s="28">
+      <c r="H44" s="31">
         <f>AVERAGE(E44:E47)</f>
         <v>0.95884999367159018</v>
       </c>
-      <c r="I44" s="28">
+      <c r="I44" s="31">
         <f>STDEV(E44:E47)</f>
         <v>0.11047296730680418</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="37"/>
-      <c r="B45" s="32"/>
+      <c r="A45" s="41"/>
+      <c r="B45" s="36"/>
       <c r="C45" s="17">
         <v>2</v>
       </c>
@@ -6225,13 +7561,13 @@
         <f t="shared" si="0"/>
         <v>1.1175999926238402</v>
       </c>
-      <c r="G45" s="30"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="28"/>
+      <c r="G45" s="32"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="37"/>
-      <c r="B46" s="32"/>
+      <c r="A46" s="41"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="17">
         <v>3</v>
       </c>
@@ -6242,13 +7578,13 @@
         <f t="shared" si="0"/>
         <v>0.93979999379732015</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="37"/>
-      <c r="B47" s="32"/>
+      <c r="A47" s="41"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="17">
         <v>4</v>
       </c>
@@ -6259,24 +7595,682 @@
         <f t="shared" si="0"/>
         <v>0.86359999430024015</v>
       </c>
-      <c r="G47" s="29"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="37">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="40">
+        <v>42529</v>
+      </c>
+      <c r="C48" s="30">
+        <v>1</v>
+      </c>
+      <c r="D48" s="25">
+        <v>7</v>
+      </c>
+      <c r="E48" s="26">
+        <f t="shared" si="0"/>
+        <v>0.17779999882652003</v>
+      </c>
+      <c r="G48" s="40">
+        <v>42529</v>
+      </c>
+      <c r="H48" s="31">
+        <f t="shared" ref="H48" si="1">AVERAGE(E48:E51)</f>
+        <v>0.16509999891034002</v>
+      </c>
+      <c r="I48" s="31">
+        <f t="shared" ref="I48" si="2">STDEV(E48:E51)</f>
+        <v>1.4664696740629507E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="37"/>
+      <c r="B49" s="40"/>
+      <c r="C49" s="30">
+        <v>2</v>
+      </c>
+      <c r="D49" s="25">
+        <v>7</v>
+      </c>
+      <c r="E49" s="26">
+        <f t="shared" si="0"/>
+        <v>0.17779999882652003</v>
+      </c>
+      <c r="G49" s="40"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="31"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="37"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="30">
+        <v>3</v>
+      </c>
+      <c r="D50" s="25">
+        <v>6</v>
+      </c>
+      <c r="E50" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15239999899416001</v>
+      </c>
+      <c r="G50" s="40"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="31"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="37"/>
+      <c r="B51" s="40"/>
+      <c r="C51" s="30">
+        <v>4</v>
+      </c>
+      <c r="D51" s="25">
+        <v>6</v>
+      </c>
+      <c r="E51" s="26">
+        <f t="shared" si="0"/>
+        <v>0.15239999899416001</v>
+      </c>
+      <c r="G51" s="40"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="31"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="37"/>
+      <c r="B52" s="36">
+        <v>42538</v>
+      </c>
+      <c r="C52" s="29">
+        <v>1</v>
+      </c>
+      <c r="D52" s="11">
+        <v>10</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25399999832360004</v>
+      </c>
+      <c r="G52" s="40">
+        <v>42538</v>
+      </c>
+      <c r="H52" s="31">
+        <f t="shared" ref="H52" si="3">AVERAGE(E52:E55)</f>
+        <v>0.25399999832360004</v>
+      </c>
+      <c r="I52" s="31">
+        <f t="shared" ref="I52" si="4">STDEV(E52:E55)</f>
+        <v>2.0739013018686771E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="37"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="29">
+        <v>2</v>
+      </c>
+      <c r="D53" s="11">
+        <v>10</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="0"/>
+        <v>0.25399999832360004</v>
+      </c>
+      <c r="G53" s="40"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="37"/>
+      <c r="B54" s="36"/>
+      <c r="C54" s="29">
+        <v>3</v>
+      </c>
+      <c r="D54" s="11">
+        <v>9</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="0"/>
+        <v>0.22859999849124002</v>
+      </c>
+      <c r="G54" s="40"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="31"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="37"/>
+      <c r="B55" s="36"/>
+      <c r="C55" s="29">
+        <v>4</v>
+      </c>
+      <c r="D55" s="11">
+        <v>11</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="0"/>
+        <v>0.27939999815596006</v>
+      </c>
+      <c r="G55" s="40"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="37"/>
+      <c r="B56" s="40">
+        <v>42543</v>
+      </c>
+      <c r="C56" s="30">
+        <v>1</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F56" s="35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G56" s="40">
+        <v>42543</v>
+      </c>
+      <c r="H56" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="I56" s="31" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="37"/>
+      <c r="B57" s="40"/>
+      <c r="C57" s="30">
+        <v>2</v>
+      </c>
+      <c r="D57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F57" s="35"/>
+      <c r="G57" s="40"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="31"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="37"/>
+      <c r="B58" s="40"/>
+      <c r="C58" s="30">
+        <v>3</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E58" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F58" s="35"/>
+      <c r="G58" s="40"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="31"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="37"/>
+      <c r="B59" s="40"/>
+      <c r="C59" s="30">
+        <v>4</v>
+      </c>
+      <c r="D59" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E59" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="37"/>
+      <c r="B60" s="36">
+        <v>42557</v>
+      </c>
+      <c r="C60" s="29">
+        <v>1</v>
+      </c>
+      <c r="D60" s="11">
+        <v>20</v>
+      </c>
+      <c r="E60" s="12">
+        <f t="shared" si="0"/>
+        <v>0.50799999664720008</v>
+      </c>
+      <c r="G60" s="40">
+        <v>42557</v>
+      </c>
+      <c r="H60" s="31">
+        <f t="shared" ref="H60" si="5">AVERAGE(E60:E63)</f>
+        <v>0.53974999643764998</v>
+      </c>
+      <c r="I60" s="31">
+        <f t="shared" ref="I60" si="6">STDEV(E60:E63)</f>
+        <v>3.1960965565037136E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="37"/>
+      <c r="B61" s="36"/>
+      <c r="C61" s="29">
+        <v>2</v>
+      </c>
+      <c r="D61" s="11">
+        <v>21</v>
+      </c>
+      <c r="E61" s="12">
+        <f t="shared" si="0"/>
+        <v>0.53339999647956005</v>
+      </c>
+      <c r="G61" s="40"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="31"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="37"/>
+      <c r="B62" s="36"/>
+      <c r="C62" s="29">
+        <v>3</v>
+      </c>
+      <c r="D62" s="11">
+        <v>21</v>
+      </c>
+      <c r="E62" s="12">
+        <f t="shared" si="0"/>
+        <v>0.53339999647956005</v>
+      </c>
+      <c r="G62" s="40"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="31"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="37"/>
+      <c r="B63" s="36"/>
+      <c r="C63" s="29">
+        <v>4</v>
+      </c>
+      <c r="D63" s="11">
+        <v>23</v>
+      </c>
+      <c r="E63" s="12">
+        <f t="shared" si="0"/>
+        <v>0.58419999614428009</v>
+      </c>
+      <c r="G63" s="40"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="31"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="37"/>
+      <c r="B64" s="40">
+        <v>42571</v>
+      </c>
+      <c r="C64" s="30">
+        <v>1</v>
+      </c>
+      <c r="D64" s="25">
+        <v>26</v>
+      </c>
+      <c r="E64" s="26">
+        <f t="shared" si="0"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G64" s="40">
+        <v>42571</v>
+      </c>
+      <c r="H64" s="31">
+        <f t="shared" ref="H64" si="7">AVERAGE(E64:E67)</f>
+        <v>0.67309999555754019</v>
+      </c>
+      <c r="I64" s="31">
+        <f t="shared" ref="I64" si="8">STDEV(E64:E67)</f>
+        <v>6.0464093629266413E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="37"/>
+      <c r="B65" s="40"/>
+      <c r="C65" s="30">
+        <v>2</v>
+      </c>
+      <c r="D65" s="25">
+        <v>30</v>
+      </c>
+      <c r="E65" s="26">
+        <f t="shared" si="0"/>
+        <v>0.76199999497080007</v>
+      </c>
+      <c r="G65" s="40"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="31"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="37"/>
+      <c r="B66" s="40"/>
+      <c r="C66" s="30">
+        <v>3</v>
+      </c>
+      <c r="D66" s="25">
+        <v>25</v>
+      </c>
+      <c r="E66" s="26">
+        <f t="shared" ref="E66:E79" si="9">D66/39.370079</f>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G66" s="40"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="31"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="37"/>
+      <c r="B67" s="40"/>
+      <c r="C67" s="30">
+        <v>4</v>
+      </c>
+      <c r="D67" s="25">
+        <v>25</v>
+      </c>
+      <c r="E67" s="26">
+        <f t="shared" si="9"/>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G67" s="40"/>
+      <c r="H67" s="31"/>
+      <c r="I67" s="31"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="37"/>
+      <c r="B68" s="36">
+        <v>42585</v>
+      </c>
+      <c r="C68" s="29">
+        <v>1</v>
+      </c>
+      <c r="D68" s="11">
+        <v>21</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="9"/>
+        <v>0.53339999647956005</v>
+      </c>
+      <c r="G68" s="40">
+        <v>42585</v>
+      </c>
+      <c r="H68" s="31">
+        <f t="shared" ref="H68" si="10">AVERAGE(E68:E71)</f>
+        <v>0.59689999606046018</v>
+      </c>
+      <c r="I68" s="31">
+        <f t="shared" ref="I68" si="11">STDEV(E68:E71)</f>
+        <v>4.8637296753015855E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" s="37"/>
+      <c r="B69" s="36"/>
+      <c r="C69" s="29">
+        <v>2</v>
+      </c>
+      <c r="D69" s="11">
+        <v>25</v>
+      </c>
+      <c r="E69" s="12">
+        <f t="shared" si="9"/>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G69" s="40"/>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" s="37"/>
+      <c r="B70" s="36"/>
+      <c r="C70" s="29">
+        <v>3</v>
+      </c>
+      <c r="D70" s="11">
+        <v>25</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="9"/>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G70" s="40"/>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" s="37"/>
+      <c r="B71" s="36"/>
+      <c r="C71" s="29">
+        <v>4</v>
+      </c>
+      <c r="D71" s="11">
+        <v>23</v>
+      </c>
+      <c r="E71" s="12">
+        <f t="shared" si="9"/>
+        <v>0.58419999614428009</v>
+      </c>
+      <c r="G71" s="40"/>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" s="37"/>
+      <c r="B72" s="40">
+        <v>42599</v>
+      </c>
+      <c r="C72" s="30">
+        <v>1</v>
+      </c>
+      <c r="D72" s="25">
+        <v>30</v>
+      </c>
+      <c r="E72" s="26">
+        <f t="shared" si="9"/>
+        <v>0.76199999497080007</v>
+      </c>
+      <c r="G72" s="40">
+        <v>42599</v>
+      </c>
+      <c r="H72" s="31">
+        <f t="shared" ref="H72" si="12">AVERAGE(E72:E75)</f>
+        <v>0.72389999522226001</v>
+      </c>
+      <c r="I72" s="31">
+        <f t="shared" ref="I72" si="13">STDEV(E72:E75)</f>
+        <v>4.8637296753015799E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="37"/>
+      <c r="B73" s="40"/>
+      <c r="C73" s="30">
+        <v>2</v>
+      </c>
+      <c r="D73" s="25">
+        <v>30</v>
+      </c>
+      <c r="E73" s="26">
+        <f t="shared" si="9"/>
+        <v>0.76199999497080007</v>
+      </c>
+      <c r="G73" s="40"/>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="37"/>
+      <c r="B74" s="40"/>
+      <c r="C74" s="30">
+        <v>3</v>
+      </c>
+      <c r="D74" s="25">
+        <v>26</v>
+      </c>
+      <c r="E74" s="26">
+        <f t="shared" si="9"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G74" s="40"/>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="37"/>
+      <c r="B75" s="40"/>
+      <c r="C75" s="30">
+        <v>4</v>
+      </c>
+      <c r="D75" s="25">
+        <v>28</v>
+      </c>
+      <c r="E75" s="26">
+        <f t="shared" si="9"/>
+        <v>0.71119999530608013</v>
+      </c>
+      <c r="G75" s="40"/>
+      <c r="H75" s="31"/>
+      <c r="I75" s="31"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="37"/>
+      <c r="B76" s="36">
+        <v>42608</v>
+      </c>
+      <c r="C76" s="29">
+        <v>1</v>
+      </c>
+      <c r="D76" s="11">
+        <v>24</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="9"/>
+        <v>0.60959999597664005</v>
+      </c>
+      <c r="G76" s="40">
+        <v>42608</v>
+      </c>
+      <c r="H76" s="31">
+        <f t="shared" ref="H76" si="14">AVERAGE(E76:E79)</f>
+        <v>0.65404999568327016</v>
+      </c>
+      <c r="I76" s="31">
+        <f t="shared" ref="I76" si="15">STDEV(E76:E79)</f>
+        <v>4.3378757956262524E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="37"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="29">
+        <v>2</v>
+      </c>
+      <c r="D77" s="11">
+        <v>25</v>
+      </c>
+      <c r="E77" s="12">
+        <f t="shared" si="9"/>
+        <v>0.63499999580900013</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="31"/>
+      <c r="I77" s="31"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" s="37"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="29">
+        <v>3</v>
+      </c>
+      <c r="D78" s="11">
+        <v>26</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" si="9"/>
+        <v>0.66039999564136009</v>
+      </c>
+      <c r="G78" s="40"/>
+      <c r="H78" s="31"/>
+      <c r="I78" s="31"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" s="37"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="29">
+        <v>4</v>
+      </c>
+      <c r="D79" s="11">
+        <v>28</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" si="9"/>
+        <v>0.71119999530608013</v>
+      </c>
+      <c r="G79" s="40"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="B2:B6"/>
-    <mergeCell ref="B7:B14"/>
-    <mergeCell ref="C7:C14"/>
-    <mergeCell ref="G7:G14"/>
-    <mergeCell ref="H7:H14"/>
-    <mergeCell ref="I7:I14"/>
-    <mergeCell ref="H19:H25"/>
-    <mergeCell ref="I19:I25"/>
-    <mergeCell ref="C2:C6"/>
-    <mergeCell ref="G2:G6"/>
-    <mergeCell ref="H2:H6"/>
-    <mergeCell ref="I2:I6"/>
+  <mergeCells count="72">
+    <mergeCell ref="I72:I75"/>
+    <mergeCell ref="H76:H79"/>
+    <mergeCell ref="I76:I79"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="G72:G75"/>
+    <mergeCell ref="G76:G79"/>
+    <mergeCell ref="H48:H51"/>
+    <mergeCell ref="I48:I51"/>
+    <mergeCell ref="H52:H55"/>
+    <mergeCell ref="I52:I55"/>
+    <mergeCell ref="H56:H59"/>
+    <mergeCell ref="I56:I59"/>
+    <mergeCell ref="H60:H63"/>
+    <mergeCell ref="I60:I63"/>
+    <mergeCell ref="H64:H67"/>
+    <mergeCell ref="I64:I67"/>
+    <mergeCell ref="H68:H71"/>
+    <mergeCell ref="I68:I71"/>
+    <mergeCell ref="H72:H75"/>
+    <mergeCell ref="G48:G51"/>
+    <mergeCell ref="G52:G55"/>
+    <mergeCell ref="G56:G59"/>
+    <mergeCell ref="G60:G63"/>
+    <mergeCell ref="G64:G67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="B72:B75"/>
+    <mergeCell ref="B76:B79"/>
+    <mergeCell ref="A48:A79"/>
+    <mergeCell ref="F56:F59"/>
+    <mergeCell ref="B48:B51"/>
+    <mergeCell ref="B52:B55"/>
+    <mergeCell ref="B56:B59"/>
+    <mergeCell ref="B60:B63"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="G44:G47"/>
+    <mergeCell ref="H44:H47"/>
+    <mergeCell ref="I44:I47"/>
+    <mergeCell ref="B44:B47"/>
+    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="I26:I32"/>
+    <mergeCell ref="G33:G39"/>
+    <mergeCell ref="H33:H39"/>
+    <mergeCell ref="I33:I39"/>
+    <mergeCell ref="B40:B43"/>
     <mergeCell ref="A19:A39"/>
     <mergeCell ref="G40:G43"/>
     <mergeCell ref="H40:H43"/>
@@ -6293,16 +8287,18 @@
     <mergeCell ref="I15:I18"/>
     <mergeCell ref="B19:B25"/>
     <mergeCell ref="G19:G25"/>
-    <mergeCell ref="I26:I32"/>
-    <mergeCell ref="G33:G39"/>
-    <mergeCell ref="H33:H39"/>
-    <mergeCell ref="I33:I39"/>
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="G44:G47"/>
-    <mergeCell ref="H44:H47"/>
-    <mergeCell ref="I44:I47"/>
-    <mergeCell ref="B44:B47"/>
-    <mergeCell ref="A40:A47"/>
+    <mergeCell ref="I7:I14"/>
+    <mergeCell ref="H19:H25"/>
+    <mergeCell ref="I19:I25"/>
+    <mergeCell ref="C2:C6"/>
+    <mergeCell ref="G2:G6"/>
+    <mergeCell ref="H2:H6"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="B2:B6"/>
+    <mergeCell ref="B7:B14"/>
+    <mergeCell ref="C7:C14"/>
+    <mergeCell ref="G7:G14"/>
+    <mergeCell ref="H7:H14"/>
   </mergeCells>
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
